--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24401" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24593" uniqueCount="841">
   <si>
     <t>transactionName</t>
   </si>
@@ -1951,9 +1951,6 @@
     <t>123</t>
   </si>
   <si>
-    <t>Manisha transaction1</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
@@ -1972,22 +1969,580 @@
     <t>ADD2</t>
   </si>
   <si>
-    <t>Manisha transactio21</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>tran2710905855</t>
-  </si>
-  <si>
-    <t>transaction12710905855</t>
-  </si>
-  <si>
-    <t>6543234</t>
-  </si>
-  <si>
-    <t>76567894</t>
+    <t>tran31562851993</t>
+  </si>
+  <si>
+    <t>transaction131563285199</t>
+  </si>
+  <si>
+    <t>tran2220410189</t>
+  </si>
+  <si>
+    <t>transaction12220410189</t>
+  </si>
+  <si>
+    <t>5926839309</t>
+  </si>
+  <si>
+    <t>1917075353</t>
+  </si>
+  <si>
+    <t>tran3168975030</t>
+  </si>
+  <si>
+    <t>transaction13168975030</t>
+  </si>
+  <si>
+    <t>9720385224</t>
+  </si>
+  <si>
+    <t>2869605032</t>
+  </si>
+  <si>
+    <t>tran2675526863</t>
+  </si>
+  <si>
+    <t>transaction12675526863</t>
+  </si>
+  <si>
+    <t>1360284043</t>
+  </si>
+  <si>
+    <t>6692107930</t>
+  </si>
+  <si>
+    <t>tran4563878273</t>
+  </si>
+  <si>
+    <t>transaction14563878273</t>
+  </si>
+  <si>
+    <t>2174591355</t>
+  </si>
+  <si>
+    <t>8397647418</t>
+  </si>
+  <si>
+    <t>tran2536298242</t>
+  </si>
+  <si>
+    <t>transaction12536298242</t>
+  </si>
+  <si>
+    <t>7201670404</t>
+  </si>
+  <si>
+    <t>3606527842</t>
+  </si>
+  <si>
+    <t>tran6018555551</t>
+  </si>
+  <si>
+    <t>transaction16018555551</t>
+  </si>
+  <si>
+    <t>4080447587</t>
+  </si>
+  <si>
+    <t>4554549065</t>
+  </si>
+  <si>
+    <t>tran4810984332</t>
+  </si>
+  <si>
+    <t>transaction14810984332</t>
+  </si>
+  <si>
+    <t>4353486664</t>
+  </si>
+  <si>
+    <t>9631293769</t>
+  </si>
+  <si>
+    <t>tran1033549629</t>
+  </si>
+  <si>
+    <t>transaction11033549629</t>
+  </si>
+  <si>
+    <t>7875127720</t>
+  </si>
+  <si>
+    <t>3203268155</t>
+  </si>
+  <si>
+    <t>tran4386579392</t>
+  </si>
+  <si>
+    <t>transaction14386579392</t>
+  </si>
+  <si>
+    <t>2188908755</t>
+  </si>
+  <si>
+    <t>1749649300</t>
+  </si>
+  <si>
+    <t>tran4547006125</t>
+  </si>
+  <si>
+    <t>transaction14547006125</t>
+  </si>
+  <si>
+    <t>2189716657</t>
+  </si>
+  <si>
+    <t>6689142101</t>
+  </si>
+  <si>
+    <t>tran1242020376</t>
+  </si>
+  <si>
+    <t>transaction11242020376</t>
+  </si>
+  <si>
+    <t>9648715418</t>
+  </si>
+  <si>
+    <t>3309382468</t>
+  </si>
+  <si>
+    <t>tran9878986976</t>
+  </si>
+  <si>
+    <t>transaction19878986976</t>
+  </si>
+  <si>
+    <t>6804857608</t>
+  </si>
+  <si>
+    <t>6054139799</t>
+  </si>
+  <si>
+    <t>tran7084720137</t>
+  </si>
+  <si>
+    <t>transaction17084720137</t>
+  </si>
+  <si>
+    <t>7595892522</t>
+  </si>
+  <si>
+    <t>6646597229</t>
+  </si>
+  <si>
+    <t>tran2798396314</t>
+  </si>
+  <si>
+    <t>transaction12798396314</t>
+  </si>
+  <si>
+    <t>5927640401</t>
+  </si>
+  <si>
+    <t>1574612081</t>
+  </si>
+  <si>
+    <t>tran7420727064</t>
+  </si>
+  <si>
+    <t>transaction17420727064</t>
+  </si>
+  <si>
+    <t>4854969548</t>
+  </si>
+  <si>
+    <t>7337787878</t>
+  </si>
+  <si>
+    <t>tran7454406510</t>
+  </si>
+  <si>
+    <t>transaction17454406510</t>
+  </si>
+  <si>
+    <t>7415668699</t>
+  </si>
+  <si>
+    <t>7185795517</t>
+  </si>
+  <si>
+    <t>tran8736375407</t>
+  </si>
+  <si>
+    <t>transaction18736375407</t>
+  </si>
+  <si>
+    <t>7332437496</t>
+  </si>
+  <si>
+    <t>8739602199</t>
+  </si>
+  <si>
+    <t>tran7853762411</t>
+  </si>
+  <si>
+    <t>transaction17853762411</t>
+  </si>
+  <si>
+    <t>7622005242</t>
+  </si>
+  <si>
+    <t>6947382697</t>
+  </si>
+  <si>
+    <t>tran1897754676</t>
+  </si>
+  <si>
+    <t>transaction11897754676</t>
+  </si>
+  <si>
+    <t>7237888936</t>
+  </si>
+  <si>
+    <t>8607114659</t>
+  </si>
+  <si>
+    <t>tran4895374326</t>
+  </si>
+  <si>
+    <t>transaction14895374326</t>
+  </si>
+  <si>
+    <t>3006292919</t>
+  </si>
+  <si>
+    <t>2499900981</t>
+  </si>
+  <si>
+    <t>tran5462140886</t>
+  </si>
+  <si>
+    <t>transaction15462140886</t>
+  </si>
+  <si>
+    <t>2539719545</t>
+  </si>
+  <si>
+    <t>9883845829</t>
+  </si>
+  <si>
+    <t>tran2862118519</t>
+  </si>
+  <si>
+    <t>transaction12862118519</t>
+  </si>
+  <si>
+    <t>5355501345</t>
+  </si>
+  <si>
+    <t>4151484857</t>
+  </si>
+  <si>
+    <t>tran5827868989</t>
+  </si>
+  <si>
+    <t>transaction15827868989</t>
+  </si>
+  <si>
+    <t>7345037513</t>
+  </si>
+  <si>
+    <t>7643266198</t>
+  </si>
+  <si>
+    <t>tran1942908760</t>
+  </si>
+  <si>
+    <t>transaction11942908760</t>
+  </si>
+  <si>
+    <t>1122062616</t>
+  </si>
+  <si>
+    <t>6050676410</t>
+  </si>
+  <si>
+    <t>tran7785455375</t>
+  </si>
+  <si>
+    <t>transaction17785455375</t>
+  </si>
+  <si>
+    <t>1160598615</t>
+  </si>
+  <si>
+    <t>5601738662</t>
+  </si>
+  <si>
+    <t>tran7329995884</t>
+  </si>
+  <si>
+    <t>transaction17329995884</t>
+  </si>
+  <si>
+    <t>1357910765</t>
+  </si>
+  <si>
+    <t>2709621822</t>
+  </si>
+  <si>
+    <t>tran7778548431</t>
+  </si>
+  <si>
+    <t>transaction17778548431</t>
+  </si>
+  <si>
+    <t>8439142179</t>
+  </si>
+  <si>
+    <t>9331826999</t>
+  </si>
+  <si>
+    <t>tran1949000251</t>
+  </si>
+  <si>
+    <t>transaction11949000251</t>
+  </si>
+  <si>
+    <t>2118214867</t>
+  </si>
+  <si>
+    <t>6497937328</t>
+  </si>
+  <si>
+    <t>tran8997507949</t>
+  </si>
+  <si>
+    <t>transaction18997507949</t>
+  </si>
+  <si>
+    <t>7625847128</t>
+  </si>
+  <si>
+    <t>6994520570</t>
+  </si>
+  <si>
+    <t>tran4425098945</t>
+  </si>
+  <si>
+    <t>transaction14425098945</t>
+  </si>
+  <si>
+    <t>2842644718</t>
+  </si>
+  <si>
+    <t>2243923045</t>
+  </si>
+  <si>
+    <t>tran1293955283</t>
+  </si>
+  <si>
+    <t>transaction11293955283</t>
+  </si>
+  <si>
+    <t>2766941428</t>
+  </si>
+  <si>
+    <t>4216622342</t>
+  </si>
+  <si>
+    <t>tran2549229582</t>
+  </si>
+  <si>
+    <t>transaction12549229582</t>
+  </si>
+  <si>
+    <t>1457250196</t>
+  </si>
+  <si>
+    <t>3760292130</t>
+  </si>
+  <si>
+    <t>tran2536755687</t>
+  </si>
+  <si>
+    <t>transaction12536755687</t>
+  </si>
+  <si>
+    <t>5075945679</t>
+  </si>
+  <si>
+    <t>9744662006</t>
+  </si>
+  <si>
+    <t>tran2378589597</t>
+  </si>
+  <si>
+    <t>transaction12378589597</t>
+  </si>
+  <si>
+    <t>1535314849</t>
+  </si>
+  <si>
+    <t>8279352725</t>
+  </si>
+  <si>
+    <t>tran3440607865</t>
+  </si>
+  <si>
+    <t>transaction13440607865</t>
+  </si>
+  <si>
+    <t>4682582540</t>
+  </si>
+  <si>
+    <t>8139240970</t>
+  </si>
+  <si>
+    <t>tran2433859098</t>
+  </si>
+  <si>
+    <t>transaction12433859098</t>
+  </si>
+  <si>
+    <t>2808088870</t>
+  </si>
+  <si>
+    <t>5173815420</t>
+  </si>
+  <si>
+    <t>tran7453183313</t>
+  </si>
+  <si>
+    <t>transaction17453183313</t>
+  </si>
+  <si>
+    <t>1670309718</t>
+  </si>
+  <si>
+    <t>4750749415</t>
+  </si>
+  <si>
+    <t>tran3299406036</t>
+  </si>
+  <si>
+    <t>transaction13299406036</t>
+  </si>
+  <si>
+    <t>7253264713</t>
+  </si>
+  <si>
+    <t>4736397638</t>
+  </si>
+  <si>
+    <t>tran7067842719</t>
+  </si>
+  <si>
+    <t>transaction17067842719</t>
+  </si>
+  <si>
+    <t>8060856041</t>
+  </si>
+  <si>
+    <t>8258274503</t>
+  </si>
+  <si>
+    <t>tran5755709358</t>
+  </si>
+  <si>
+    <t>transaction15755709358</t>
+  </si>
+  <si>
+    <t>5350281757</t>
+  </si>
+  <si>
+    <t>3175250572</t>
+  </si>
+  <si>
+    <t>tran8464047390</t>
+  </si>
+  <si>
+    <t>transaction18464047390</t>
+  </si>
+  <si>
+    <t>8295590078</t>
+  </si>
+  <si>
+    <t>7327582220</t>
+  </si>
+  <si>
+    <t>tran3763034645</t>
+  </si>
+  <si>
+    <t>transaction13763034645</t>
+  </si>
+  <si>
+    <t>4181866389</t>
+  </si>
+  <si>
+    <t>7729145111</t>
+  </si>
+  <si>
+    <t>tran8688209546</t>
+  </si>
+  <si>
+    <t>transaction18688209546</t>
+  </si>
+  <si>
+    <t>1716831963</t>
+  </si>
+  <si>
+    <t>6607326096</t>
+  </si>
+  <si>
+    <t>tran1982921143</t>
+  </si>
+  <si>
+    <t>transaction11982921143</t>
+  </si>
+  <si>
+    <t>tran4388874321</t>
+  </si>
+  <si>
+    <t>transaction14388874321</t>
+  </si>
+  <si>
+    <t>tran9365374312</t>
+  </si>
+  <si>
+    <t>transaction19365374312</t>
+  </si>
+  <si>
+    <t>tran6487817662</t>
+  </si>
+  <si>
+    <t>transaction16487817662</t>
+  </si>
+  <si>
+    <t>tran3733296319</t>
+  </si>
+  <si>
+    <t>transaction13733296319</t>
+  </si>
+  <si>
+    <t>tran7909879063</t>
+  </si>
+  <si>
+    <t>transaction17909879063</t>
+  </si>
+  <si>
+    <t>tran3554406136</t>
+  </si>
+  <si>
+    <t>transaction13554406136</t>
+  </si>
+  <si>
+    <t>tran8777306725</t>
+  </si>
+  <si>
+    <t>transaction18777306725</t>
+  </si>
+  <si>
+    <t>1466443356</t>
+  </si>
+  <si>
+    <t>9854716055</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2937,7 @@
   <dimension ref="A1:CS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2773,10 +3328,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>652</v>
+        <v>837</v>
       </c>
       <c r="B2" t="s">
-        <v>654</v>
+        <v>839</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2785,7 +3340,7 @@
         <v>233</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F2" t="s">
         <v>97</v>
@@ -2803,7 +3358,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L2" t="s">
         <v>97</v>
@@ -2848,7 +3403,7 @@
         <v>100</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA2" t="s">
         <v>97</v>
@@ -2861,7 +3416,7 @@
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF2" t="s">
         <v>97</v>
@@ -2882,10 +3437,10 @@
         <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>488</v>
@@ -3020,7 +3575,7 @@
         <v>97</v>
       </c>
       <c r="CP2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="CQ2" t="s">
         <v>97</v>
@@ -3034,10 +3589,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>838</v>
       </c>
       <c r="B3" t="s">
-        <v>655</v>
+        <v>840</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3046,10 +3601,10 @@
         <v>233</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>132</v>
@@ -3061,7 +3616,7 @@
         <v>100</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>141</v>
@@ -3071,13 +3626,13 @@
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>488</v>
@@ -3107,7 +3662,7 @@
         <v>632</v>
       </c>
       <c r="CP3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24593" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24422" uniqueCount="679">
   <si>
     <t>transactionName</t>
   </si>
@@ -1960,589 +1960,103 @@
     <t>SCBLINBB</t>
   </si>
   <si>
-    <t>ACCRAK1</t>
-  </si>
-  <si>
     <t>ADD1</t>
   </si>
   <si>
     <t>ADD2</t>
   </si>
   <si>
-    <t>tran31562851993</t>
+    <t>ACCRAK132</t>
   </si>
   <si>
-    <t>transaction131563285199</t>
+    <t>ACCRAK1867</t>
   </si>
   <si>
-    <t>tran2220410189</t>
+    <t>tran2824492469</t>
   </si>
   <si>
-    <t>transaction12220410189</t>
+    <t>transaction12824492469</t>
   </si>
   <si>
-    <t>5926839309</t>
+    <t>8188244029</t>
   </si>
   <si>
-    <t>1917075353</t>
+    <t>1987511998</t>
   </si>
   <si>
-    <t>tran3168975030</t>
+    <t>tran4900991552</t>
   </si>
   <si>
-    <t>transaction13168975030</t>
+    <t>transaction14900991552</t>
   </si>
   <si>
-    <t>9720385224</t>
+    <t>9053892786</t>
   </si>
   <si>
-    <t>2869605032</t>
+    <t>1872364902</t>
   </si>
   <si>
-    <t>tran2675526863</t>
+    <t>11.37 AM</t>
   </si>
   <si>
-    <t>transaction12675526863</t>
+    <t>tran5751985401</t>
   </si>
   <si>
-    <t>1360284043</t>
+    <t>transaction15751985401</t>
   </si>
   <si>
-    <t>6692107930</t>
+    <t>2553774071</t>
   </si>
   <si>
-    <t>tran4563878273</t>
+    <t>4814091974</t>
   </si>
   <si>
-    <t>transaction14563878273</t>
+    <t>12.18 PM</t>
   </si>
   <si>
-    <t>2174591355</t>
+    <t>tran6515111970</t>
   </si>
   <si>
-    <t>8397647418</t>
+    <t>transaction16515111970</t>
   </si>
   <si>
-    <t>tran2536298242</t>
+    <t>7846345842</t>
   </si>
   <si>
-    <t>transaction12536298242</t>
+    <t>5212267249</t>
   </si>
   <si>
-    <t>7201670404</t>
+    <t>12.57 PM</t>
   </si>
   <si>
-    <t>3606527842</t>
+    <t>tran4260025472</t>
   </si>
   <si>
-    <t>tran6018555551</t>
+    <t>transaction14260025472</t>
   </si>
   <si>
-    <t>transaction16018555551</t>
+    <t>2222959970</t>
   </si>
   <si>
-    <t>4080447587</t>
+    <t>4169697419</t>
   </si>
   <si>
-    <t>4554549065</t>
+    <t>01.05 PM</t>
   </si>
   <si>
-    <t>tran4810984332</t>
+    <t>tran2961849940</t>
   </si>
   <si>
-    <t>transaction14810984332</t>
+    <t>transaction12961849940</t>
   </si>
   <si>
-    <t>4353486664</t>
+    <t>5968735885</t>
   </si>
   <si>
-    <t>9631293769</t>
+    <t>2709705659</t>
   </si>
   <si>
-    <t>tran1033549629</t>
-  </si>
-  <si>
-    <t>transaction11033549629</t>
-  </si>
-  <si>
-    <t>7875127720</t>
-  </si>
-  <si>
-    <t>3203268155</t>
-  </si>
-  <si>
-    <t>tran4386579392</t>
-  </si>
-  <si>
-    <t>transaction14386579392</t>
-  </si>
-  <si>
-    <t>2188908755</t>
-  </si>
-  <si>
-    <t>1749649300</t>
-  </si>
-  <si>
-    <t>tran4547006125</t>
-  </si>
-  <si>
-    <t>transaction14547006125</t>
-  </si>
-  <si>
-    <t>2189716657</t>
-  </si>
-  <si>
-    <t>6689142101</t>
-  </si>
-  <si>
-    <t>tran1242020376</t>
-  </si>
-  <si>
-    <t>transaction11242020376</t>
-  </si>
-  <si>
-    <t>9648715418</t>
-  </si>
-  <si>
-    <t>3309382468</t>
-  </si>
-  <si>
-    <t>tran9878986976</t>
-  </si>
-  <si>
-    <t>transaction19878986976</t>
-  </si>
-  <si>
-    <t>6804857608</t>
-  </si>
-  <si>
-    <t>6054139799</t>
-  </si>
-  <si>
-    <t>tran7084720137</t>
-  </si>
-  <si>
-    <t>transaction17084720137</t>
-  </si>
-  <si>
-    <t>7595892522</t>
-  </si>
-  <si>
-    <t>6646597229</t>
-  </si>
-  <si>
-    <t>tran2798396314</t>
-  </si>
-  <si>
-    <t>transaction12798396314</t>
-  </si>
-  <si>
-    <t>5927640401</t>
-  </si>
-  <si>
-    <t>1574612081</t>
-  </si>
-  <si>
-    <t>tran7420727064</t>
-  </si>
-  <si>
-    <t>transaction17420727064</t>
-  </si>
-  <si>
-    <t>4854969548</t>
-  </si>
-  <si>
-    <t>7337787878</t>
-  </si>
-  <si>
-    <t>tran7454406510</t>
-  </si>
-  <si>
-    <t>transaction17454406510</t>
-  </si>
-  <si>
-    <t>7415668699</t>
-  </si>
-  <si>
-    <t>7185795517</t>
-  </si>
-  <si>
-    <t>tran8736375407</t>
-  </si>
-  <si>
-    <t>transaction18736375407</t>
-  </si>
-  <si>
-    <t>7332437496</t>
-  </si>
-  <si>
-    <t>8739602199</t>
-  </si>
-  <si>
-    <t>tran7853762411</t>
-  </si>
-  <si>
-    <t>transaction17853762411</t>
-  </si>
-  <si>
-    <t>7622005242</t>
-  </si>
-  <si>
-    <t>6947382697</t>
-  </si>
-  <si>
-    <t>tran1897754676</t>
-  </si>
-  <si>
-    <t>transaction11897754676</t>
-  </si>
-  <si>
-    <t>7237888936</t>
-  </si>
-  <si>
-    <t>8607114659</t>
-  </si>
-  <si>
-    <t>tran4895374326</t>
-  </si>
-  <si>
-    <t>transaction14895374326</t>
-  </si>
-  <si>
-    <t>3006292919</t>
-  </si>
-  <si>
-    <t>2499900981</t>
-  </si>
-  <si>
-    <t>tran5462140886</t>
-  </si>
-  <si>
-    <t>transaction15462140886</t>
-  </si>
-  <si>
-    <t>2539719545</t>
-  </si>
-  <si>
-    <t>9883845829</t>
-  </si>
-  <si>
-    <t>tran2862118519</t>
-  </si>
-  <si>
-    <t>transaction12862118519</t>
-  </si>
-  <si>
-    <t>5355501345</t>
-  </si>
-  <si>
-    <t>4151484857</t>
-  </si>
-  <si>
-    <t>tran5827868989</t>
-  </si>
-  <si>
-    <t>transaction15827868989</t>
-  </si>
-  <si>
-    <t>7345037513</t>
-  </si>
-  <si>
-    <t>7643266198</t>
-  </si>
-  <si>
-    <t>tran1942908760</t>
-  </si>
-  <si>
-    <t>transaction11942908760</t>
-  </si>
-  <si>
-    <t>1122062616</t>
-  </si>
-  <si>
-    <t>6050676410</t>
-  </si>
-  <si>
-    <t>tran7785455375</t>
-  </si>
-  <si>
-    <t>transaction17785455375</t>
-  </si>
-  <si>
-    <t>1160598615</t>
-  </si>
-  <si>
-    <t>5601738662</t>
-  </si>
-  <si>
-    <t>tran7329995884</t>
-  </si>
-  <si>
-    <t>transaction17329995884</t>
-  </si>
-  <si>
-    <t>1357910765</t>
-  </si>
-  <si>
-    <t>2709621822</t>
-  </si>
-  <si>
-    <t>tran7778548431</t>
-  </si>
-  <si>
-    <t>transaction17778548431</t>
-  </si>
-  <si>
-    <t>8439142179</t>
-  </si>
-  <si>
-    <t>9331826999</t>
-  </si>
-  <si>
-    <t>tran1949000251</t>
-  </si>
-  <si>
-    <t>transaction11949000251</t>
-  </si>
-  <si>
-    <t>2118214867</t>
-  </si>
-  <si>
-    <t>6497937328</t>
-  </si>
-  <si>
-    <t>tran8997507949</t>
-  </si>
-  <si>
-    <t>transaction18997507949</t>
-  </si>
-  <si>
-    <t>7625847128</t>
-  </si>
-  <si>
-    <t>6994520570</t>
-  </si>
-  <si>
-    <t>tran4425098945</t>
-  </si>
-  <si>
-    <t>transaction14425098945</t>
-  </si>
-  <si>
-    <t>2842644718</t>
-  </si>
-  <si>
-    <t>2243923045</t>
-  </si>
-  <si>
-    <t>tran1293955283</t>
-  </si>
-  <si>
-    <t>transaction11293955283</t>
-  </si>
-  <si>
-    <t>2766941428</t>
-  </si>
-  <si>
-    <t>4216622342</t>
-  </si>
-  <si>
-    <t>tran2549229582</t>
-  </si>
-  <si>
-    <t>transaction12549229582</t>
-  </si>
-  <si>
-    <t>1457250196</t>
-  </si>
-  <si>
-    <t>3760292130</t>
-  </si>
-  <si>
-    <t>tran2536755687</t>
-  </si>
-  <si>
-    <t>transaction12536755687</t>
-  </si>
-  <si>
-    <t>5075945679</t>
-  </si>
-  <si>
-    <t>9744662006</t>
-  </si>
-  <si>
-    <t>tran2378589597</t>
-  </si>
-  <si>
-    <t>transaction12378589597</t>
-  </si>
-  <si>
-    <t>1535314849</t>
-  </si>
-  <si>
-    <t>8279352725</t>
-  </si>
-  <si>
-    <t>tran3440607865</t>
-  </si>
-  <si>
-    <t>transaction13440607865</t>
-  </si>
-  <si>
-    <t>4682582540</t>
-  </si>
-  <si>
-    <t>8139240970</t>
-  </si>
-  <si>
-    <t>tran2433859098</t>
-  </si>
-  <si>
-    <t>transaction12433859098</t>
-  </si>
-  <si>
-    <t>2808088870</t>
-  </si>
-  <si>
-    <t>5173815420</t>
-  </si>
-  <si>
-    <t>tran7453183313</t>
-  </si>
-  <si>
-    <t>transaction17453183313</t>
-  </si>
-  <si>
-    <t>1670309718</t>
-  </si>
-  <si>
-    <t>4750749415</t>
-  </si>
-  <si>
-    <t>tran3299406036</t>
-  </si>
-  <si>
-    <t>transaction13299406036</t>
-  </si>
-  <si>
-    <t>7253264713</t>
-  </si>
-  <si>
-    <t>4736397638</t>
-  </si>
-  <si>
-    <t>tran7067842719</t>
-  </si>
-  <si>
-    <t>transaction17067842719</t>
-  </si>
-  <si>
-    <t>8060856041</t>
-  </si>
-  <si>
-    <t>8258274503</t>
-  </si>
-  <si>
-    <t>tran5755709358</t>
-  </si>
-  <si>
-    <t>transaction15755709358</t>
-  </si>
-  <si>
-    <t>5350281757</t>
-  </si>
-  <si>
-    <t>3175250572</t>
-  </si>
-  <si>
-    <t>tran8464047390</t>
-  </si>
-  <si>
-    <t>transaction18464047390</t>
-  </si>
-  <si>
-    <t>8295590078</t>
-  </si>
-  <si>
-    <t>7327582220</t>
-  </si>
-  <si>
-    <t>tran3763034645</t>
-  </si>
-  <si>
-    <t>transaction13763034645</t>
-  </si>
-  <si>
-    <t>4181866389</t>
-  </si>
-  <si>
-    <t>7729145111</t>
-  </si>
-  <si>
-    <t>tran8688209546</t>
-  </si>
-  <si>
-    <t>transaction18688209546</t>
-  </si>
-  <si>
-    <t>1716831963</t>
-  </si>
-  <si>
-    <t>6607326096</t>
-  </si>
-  <si>
-    <t>tran1982921143</t>
-  </si>
-  <si>
-    <t>transaction11982921143</t>
-  </si>
-  <si>
-    <t>tran4388874321</t>
-  </si>
-  <si>
-    <t>transaction14388874321</t>
-  </si>
-  <si>
-    <t>tran9365374312</t>
-  </si>
-  <si>
-    <t>transaction19365374312</t>
-  </si>
-  <si>
-    <t>tran6487817662</t>
-  </si>
-  <si>
-    <t>transaction16487817662</t>
-  </si>
-  <si>
-    <t>tran3733296319</t>
-  </si>
-  <si>
-    <t>transaction13733296319</t>
-  </si>
-  <si>
-    <t>tran7909879063</t>
-  </si>
-  <si>
-    <t>transaction17909879063</t>
-  </si>
-  <si>
-    <t>tran3554406136</t>
-  </si>
-  <si>
-    <t>transaction13554406136</t>
-  </si>
-  <si>
-    <t>tran8777306725</t>
-  </si>
-  <si>
-    <t>transaction18777306725</t>
-  </si>
-  <si>
-    <t>1466443356</t>
-  </si>
-  <si>
-    <t>9854716055</t>
+    <t>01.16 PM</t>
   </si>
 </sst>
 </file>
@@ -2936,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2961,7 +2475,7 @@
     <col min="18" max="18" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
     <col min="20" max="20" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
@@ -2971,7 +2485,7 @@
     <col min="28" max="28" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="9.59765625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="8.59765625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.59765625" collapsed="true"/>
     <col min="32" max="32" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
     <col min="33" max="33" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
     <col min="34" max="34" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
@@ -3328,10 +2842,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>837</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
-        <v>839</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3388,10 +2902,10 @@
         <v>97</v>
       </c>
       <c r="U2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>97</v>
+        <v>678</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3416,7 +2930,7 @@
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AF2" t="s">
         <v>97</v>
@@ -3437,10 +2951,10 @@
         <v>97</v>
       </c>
       <c r="AL2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AM2" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>488</v>
@@ -3589,10 +3103,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
-        <v>840</v>
+        <v>677</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3609,6 +3123,12 @@
       <c r="S3" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="U3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V3" t="s">
+        <v>678</v>
+      </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
       </c>
@@ -3626,13 +3146,13 @@
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>648</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>488</v>
@@ -3669,7 +3189,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 F2:J2 L1:CS1 L2:R2 T2:V2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:CO2 CQ2:CS2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 F2:J2 L1:U1 L2:R2 T2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:CO2 CQ2:CS2 V2 W1:CS1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3679,7 +3199,7 @@
   <dimension ref="A1:IQ306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -77089,7 +76609,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:IQ306" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:IQ4 A6:IQ306 A5:C5 E5:IQ5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24422" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24458" uniqueCount="709">
   <si>
     <t>transactionName</t>
   </si>
@@ -2058,6 +2058,96 @@
   <si>
     <t>01.16 PM</t>
   </si>
+  <si>
+    <t>tran4965433832</t>
+  </si>
+  <si>
+    <t>transaction14965433832</t>
+  </si>
+  <si>
+    <t>8037772175</t>
+  </si>
+  <si>
+    <t>8046481903</t>
+  </si>
+  <si>
+    <t>02.35 PM</t>
+  </si>
+  <si>
+    <t>tran7083747862</t>
+  </si>
+  <si>
+    <t>transaction17083747862</t>
+  </si>
+  <si>
+    <t>8382692307</t>
+  </si>
+  <si>
+    <t>3679862499</t>
+  </si>
+  <si>
+    <t>03.51 PM</t>
+  </si>
+  <si>
+    <t>tran3800447970</t>
+  </si>
+  <si>
+    <t>transaction13800447970</t>
+  </si>
+  <si>
+    <t>1927934092</t>
+  </si>
+  <si>
+    <t>3163916840</t>
+  </si>
+  <si>
+    <t>04.05 PM</t>
+  </si>
+  <si>
+    <t>tran9609146007</t>
+  </si>
+  <si>
+    <t>transaction19609146007</t>
+  </si>
+  <si>
+    <t>1444715759</t>
+  </si>
+  <si>
+    <t>3099884742</t>
+  </si>
+  <si>
+    <t>04.08 PM</t>
+  </si>
+  <si>
+    <t>tran4598281393</t>
+  </si>
+  <si>
+    <t>transaction14598281393</t>
+  </si>
+  <si>
+    <t>3865389061</t>
+  </si>
+  <si>
+    <t>9591483918</t>
+  </si>
+  <si>
+    <t>05.46 PM</t>
+  </si>
+  <si>
+    <t>tran2067055416</t>
+  </si>
+  <si>
+    <t>transaction12067055416</t>
+  </si>
+  <si>
+    <t>2310048982</t>
+  </si>
+  <si>
+    <t>7211318695</t>
+  </si>
+  <si>
+    <t>05.58 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2842,10 +2932,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2905,7 +2995,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3103,10 +3193,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
-        <v>677</v>
+        <v>707</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3127,7 +3217,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24458" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24464" uniqueCount="714">
   <si>
     <t>transactionName</t>
   </si>
@@ -2148,6 +2148,21 @@
   <si>
     <t>05.58 PM</t>
   </si>
+  <si>
+    <t>tran1580889644</t>
+  </si>
+  <si>
+    <t>transaction11580889644</t>
+  </si>
+  <si>
+    <t>1536157811</t>
+  </si>
+  <si>
+    <t>9979000024</t>
+  </si>
+  <si>
+    <t>10.16 AM</t>
+  </si>
 </sst>
 </file>
 
@@ -2932,10 +2947,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2995,7 +3010,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3193,10 +3208,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3217,7 +3232,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24464" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24482" uniqueCount="729">
   <si>
     <t>transactionName</t>
   </si>
@@ -2163,6 +2163,51 @@
   <si>
     <t>10.16 AM</t>
   </si>
+  <si>
+    <t>tran8231494953</t>
+  </si>
+  <si>
+    <t>transaction18231494953</t>
+  </si>
+  <si>
+    <t>2977110997</t>
+  </si>
+  <si>
+    <t>1574214716</t>
+  </si>
+  <si>
+    <t>05.00 PM</t>
+  </si>
+  <si>
+    <t>tran2035892075</t>
+  </si>
+  <si>
+    <t>transaction12035892075</t>
+  </si>
+  <si>
+    <t>3796723388</t>
+  </si>
+  <si>
+    <t>9236412898</t>
+  </si>
+  <si>
+    <t>05.29 PM</t>
+  </si>
+  <si>
+    <t>tran5002980012</t>
+  </si>
+  <si>
+    <t>transaction15002980012</t>
+  </si>
+  <si>
+    <t>8099308384</t>
+  </si>
+  <si>
+    <t>8142655474</t>
+  </si>
+  <si>
+    <t>05.54 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2947,10 +2992,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="B2" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3010,7 +3055,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3208,10 +3253,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="B3" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3232,7 +3277,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24482" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24488" uniqueCount="734">
   <si>
     <t>transactionName</t>
   </si>
@@ -2208,6 +2208,21 @@
   <si>
     <t>05.54 PM</t>
   </si>
+  <si>
+    <t>tran9239361074</t>
+  </si>
+  <si>
+    <t>transaction19239361074</t>
+  </si>
+  <si>
+    <t>3445476954</t>
+  </si>
+  <si>
+    <t>1413857195</t>
+  </si>
+  <si>
+    <t>04.23 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2992,10 +3007,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="B2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3055,7 +3070,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3253,10 +3268,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3277,7 +3292,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24488" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24494" uniqueCount="739">
   <si>
     <t>transactionName</t>
   </si>
@@ -2223,6 +2223,21 @@
   <si>
     <t>04.23 PM</t>
   </si>
+  <si>
+    <t>tran4838950870</t>
+  </si>
+  <si>
+    <t>transaction14838950870</t>
+  </si>
+  <si>
+    <t>6230055771</t>
+  </si>
+  <si>
+    <t>4028631016</t>
+  </si>
+  <si>
+    <t>02.50 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -3007,10 +3022,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3070,7 +3085,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3268,10 +3283,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B3" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3292,7 +3307,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24494" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24590" uniqueCount="817">
   <si>
     <t>transactionName</t>
   </si>
@@ -2237,6 +2237,240 @@
   </si>
   <si>
     <t>02.50 PM</t>
+  </si>
+  <si>
+    <t>tran2636169973</t>
+  </si>
+  <si>
+    <t>transaction12636169973</t>
+  </si>
+  <si>
+    <t>2906976181</t>
+  </si>
+  <si>
+    <t>7736168992</t>
+  </si>
+  <si>
+    <t>03.33 PM</t>
+  </si>
+  <si>
+    <t>tran2872116268</t>
+  </si>
+  <si>
+    <t>transaction12872116268</t>
+  </si>
+  <si>
+    <t>3367826056</t>
+  </si>
+  <si>
+    <t>6408694728</t>
+  </si>
+  <si>
+    <t>03.49 PM</t>
+  </si>
+  <si>
+    <t>tran3696359585</t>
+  </si>
+  <si>
+    <t>transaction13696359585</t>
+  </si>
+  <si>
+    <t>7938924917</t>
+  </si>
+  <si>
+    <t>8080473032</t>
+  </si>
+  <si>
+    <t>03.52 PM</t>
+  </si>
+  <si>
+    <t>tran5890641339</t>
+  </si>
+  <si>
+    <t>transaction15890641339</t>
+  </si>
+  <si>
+    <t>4851307016</t>
+  </si>
+  <si>
+    <t>8031145752</t>
+  </si>
+  <si>
+    <t>05.27 PM</t>
+  </si>
+  <si>
+    <t>tran7150452091</t>
+  </si>
+  <si>
+    <t>transaction17150452091</t>
+  </si>
+  <si>
+    <t>5124607226</t>
+  </si>
+  <si>
+    <t>9228063905</t>
+  </si>
+  <si>
+    <t>11.28 AM</t>
+  </si>
+  <si>
+    <t>tran5405026929</t>
+  </si>
+  <si>
+    <t>transaction15405026929</t>
+  </si>
+  <si>
+    <t>2648118619</t>
+  </si>
+  <si>
+    <t>6387426564</t>
+  </si>
+  <si>
+    <t>12.52 PM</t>
+  </si>
+  <si>
+    <t>tran9736797767</t>
+  </si>
+  <si>
+    <t>transaction19736797767</t>
+  </si>
+  <si>
+    <t>4314461846</t>
+  </si>
+  <si>
+    <t>4851644679</t>
+  </si>
+  <si>
+    <t>02.46 PM</t>
+  </si>
+  <si>
+    <t>tran3415750924</t>
+  </si>
+  <si>
+    <t>transaction13415750924</t>
+  </si>
+  <si>
+    <t>8555688592</t>
+  </si>
+  <si>
+    <t>5087809517</t>
+  </si>
+  <si>
+    <t>02.51 PM</t>
+  </si>
+  <si>
+    <t>tran8297247050</t>
+  </si>
+  <si>
+    <t>transaction18297247050</t>
+  </si>
+  <si>
+    <t>8515724800</t>
+  </si>
+  <si>
+    <t>7850263204</t>
+  </si>
+  <si>
+    <t>02.58 PM</t>
+  </si>
+  <si>
+    <t>tran9262104359</t>
+  </si>
+  <si>
+    <t>transaction19262104359</t>
+  </si>
+  <si>
+    <t>8880829357</t>
+  </si>
+  <si>
+    <t>7745200908</t>
+  </si>
+  <si>
+    <t>03.01 PM</t>
+  </si>
+  <si>
+    <t>tran7260227085</t>
+  </si>
+  <si>
+    <t>transaction17260227085</t>
+  </si>
+  <si>
+    <t>8293397351</t>
+  </si>
+  <si>
+    <t>6737045850</t>
+  </si>
+  <si>
+    <t>tran2997598035</t>
+  </si>
+  <si>
+    <t>transaction12997598035</t>
+  </si>
+  <si>
+    <t>7325981508</t>
+  </si>
+  <si>
+    <t>9396158428</t>
+  </si>
+  <si>
+    <t>05.57 PM</t>
+  </si>
+  <si>
+    <t>tran7457738616</t>
+  </si>
+  <si>
+    <t>transaction17457738616</t>
+  </si>
+  <si>
+    <t>9338566769</t>
+  </si>
+  <si>
+    <t>1296254187</t>
+  </si>
+  <si>
+    <t>06.57 PM</t>
+  </si>
+  <si>
+    <t>tran6470146856</t>
+  </si>
+  <si>
+    <t>transaction16470146856</t>
+  </si>
+  <si>
+    <t>8203757882</t>
+  </si>
+  <si>
+    <t>2153761682</t>
+  </si>
+  <si>
+    <t>08.13 PM</t>
+  </si>
+  <si>
+    <t>tran4369088722</t>
+  </si>
+  <si>
+    <t>transaction14369088722</t>
+  </si>
+  <si>
+    <t>1017013614</t>
+  </si>
+  <si>
+    <t>7957164610</t>
+  </si>
+  <si>
+    <t>09.21 PM</t>
+  </si>
+  <si>
+    <t>tran5754660529</t>
+  </si>
+  <si>
+    <t>transaction15754660529</t>
+  </si>
+  <si>
+    <t>8860106839</t>
+  </si>
+  <si>
+    <t>7709009611</t>
   </si>
 </sst>
 </file>
@@ -3022,10 +3256,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>813</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>815</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3085,7 +3319,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3283,10 +3517,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>816</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3307,7 +3541,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24590" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24392" uniqueCount="654">
   <si>
     <t>transactionName</t>
   </si>
@@ -1972,512 +1972,22 @@
     <t>ACCRAK1867</t>
   </si>
   <si>
-    <t>tran2824492469</t>
+    <t>4876051439</t>
   </si>
   <si>
-    <t>transaction12824492469</t>
+    <t>10.33 AM</t>
   </si>
   <si>
-    <t>8188244029</t>
+    <t>tran536153148082</t>
   </si>
   <si>
-    <t>1987511998</t>
-  </si>
-  <si>
-    <t>tran4900991552</t>
-  </si>
-  <si>
-    <t>transaction14900991552</t>
-  </si>
-  <si>
-    <t>9053892786</t>
-  </si>
-  <si>
-    <t>1872364902</t>
-  </si>
-  <si>
-    <t>11.37 AM</t>
-  </si>
-  <si>
-    <t>tran5751985401</t>
-  </si>
-  <si>
-    <t>transaction15751985401</t>
-  </si>
-  <si>
-    <t>2553774071</t>
-  </si>
-  <si>
-    <t>4814091974</t>
-  </si>
-  <si>
-    <t>12.18 PM</t>
-  </si>
-  <si>
-    <t>tran6515111970</t>
-  </si>
-  <si>
-    <t>transaction16515111970</t>
-  </si>
-  <si>
-    <t>7846345842</t>
-  </si>
-  <si>
-    <t>5212267249</t>
-  </si>
-  <si>
-    <t>12.57 PM</t>
-  </si>
-  <si>
-    <t>tran4260025472</t>
-  </si>
-  <si>
-    <t>transaction14260025472</t>
-  </si>
-  <si>
-    <t>2222959970</t>
-  </si>
-  <si>
-    <t>4169697419</t>
-  </si>
-  <si>
-    <t>01.05 PM</t>
-  </si>
-  <si>
-    <t>tran2961849940</t>
-  </si>
-  <si>
-    <t>transaction12961849940</t>
-  </si>
-  <si>
-    <t>5968735885</t>
-  </si>
-  <si>
-    <t>2709705659</t>
-  </si>
-  <si>
-    <t>01.16 PM</t>
-  </si>
-  <si>
-    <t>tran4965433832</t>
-  </si>
-  <si>
-    <t>transaction14965433832</t>
-  </si>
-  <si>
-    <t>8037772175</t>
-  </si>
-  <si>
-    <t>8046481903</t>
-  </si>
-  <si>
-    <t>02.35 PM</t>
-  </si>
-  <si>
-    <t>tran7083747862</t>
-  </si>
-  <si>
-    <t>transaction17083747862</t>
-  </si>
-  <si>
-    <t>8382692307</t>
-  </si>
-  <si>
-    <t>3679862499</t>
-  </si>
-  <si>
-    <t>03.51 PM</t>
-  </si>
-  <si>
-    <t>tran3800447970</t>
-  </si>
-  <si>
-    <t>transaction13800447970</t>
-  </si>
-  <si>
-    <t>1927934092</t>
-  </si>
-  <si>
-    <t>3163916840</t>
-  </si>
-  <si>
-    <t>04.05 PM</t>
-  </si>
-  <si>
-    <t>tran9609146007</t>
-  </si>
-  <si>
-    <t>transaction19609146007</t>
-  </si>
-  <si>
-    <t>1444715759</t>
-  </si>
-  <si>
-    <t>3099884742</t>
-  </si>
-  <si>
-    <t>04.08 PM</t>
-  </si>
-  <si>
-    <t>tran4598281393</t>
-  </si>
-  <si>
-    <t>transaction14598281393</t>
-  </si>
-  <si>
-    <t>3865389061</t>
-  </si>
-  <si>
-    <t>9591483918</t>
-  </si>
-  <si>
-    <t>05.46 PM</t>
-  </si>
-  <si>
-    <t>tran2067055416</t>
-  </si>
-  <si>
-    <t>transaction12067055416</t>
-  </si>
-  <si>
-    <t>2310048982</t>
-  </si>
-  <si>
-    <t>7211318695</t>
-  </si>
-  <si>
-    <t>05.58 PM</t>
-  </si>
-  <si>
-    <t>tran1580889644</t>
-  </si>
-  <si>
-    <t>transaction11580889644</t>
-  </si>
-  <si>
-    <t>1536157811</t>
-  </si>
-  <si>
-    <t>9979000024</t>
-  </si>
-  <si>
-    <t>10.16 AM</t>
-  </si>
-  <si>
-    <t>tran8231494953</t>
-  </si>
-  <si>
-    <t>transaction18231494953</t>
-  </si>
-  <si>
-    <t>2977110997</t>
-  </si>
-  <si>
-    <t>1574214716</t>
-  </si>
-  <si>
-    <t>05.00 PM</t>
-  </si>
-  <si>
-    <t>tran2035892075</t>
-  </si>
-  <si>
-    <t>transaction12035892075</t>
-  </si>
-  <si>
-    <t>3796723388</t>
-  </si>
-  <si>
-    <t>9236412898</t>
-  </si>
-  <si>
-    <t>05.29 PM</t>
-  </si>
-  <si>
-    <t>tran5002980012</t>
-  </si>
-  <si>
-    <t>transaction15002980012</t>
-  </si>
-  <si>
-    <t>8099308384</t>
-  </si>
-  <si>
-    <t>8142655474</t>
-  </si>
-  <si>
-    <t>05.54 PM</t>
-  </si>
-  <si>
-    <t>tran9239361074</t>
-  </si>
-  <si>
-    <t>transaction19239361074</t>
-  </si>
-  <si>
-    <t>3445476954</t>
-  </si>
-  <si>
-    <t>1413857195</t>
-  </si>
-  <si>
-    <t>04.23 PM</t>
-  </si>
-  <si>
-    <t>tran4838950870</t>
-  </si>
-  <si>
-    <t>transaction14838950870</t>
-  </si>
-  <si>
-    <t>6230055771</t>
-  </si>
-  <si>
-    <t>4028631016</t>
-  </si>
-  <si>
-    <t>02.50 PM</t>
-  </si>
-  <si>
-    <t>tran2636169973</t>
-  </si>
-  <si>
-    <t>transaction12636169973</t>
-  </si>
-  <si>
-    <t>2906976181</t>
-  </si>
-  <si>
-    <t>7736168992</t>
-  </si>
-  <si>
-    <t>03.33 PM</t>
-  </si>
-  <si>
-    <t>tran2872116268</t>
-  </si>
-  <si>
-    <t>transaction12872116268</t>
-  </si>
-  <si>
-    <t>3367826056</t>
-  </si>
-  <si>
-    <t>6408694728</t>
-  </si>
-  <si>
-    <t>03.49 PM</t>
-  </si>
-  <si>
-    <t>tran3696359585</t>
-  </si>
-  <si>
-    <t>transaction13696359585</t>
-  </si>
-  <si>
-    <t>7938924917</t>
-  </si>
-  <si>
-    <t>8080473032</t>
-  </si>
-  <si>
-    <t>03.52 PM</t>
-  </si>
-  <si>
-    <t>tran5890641339</t>
-  </si>
-  <si>
-    <t>transaction15890641339</t>
-  </si>
-  <si>
-    <t>4851307016</t>
-  </si>
-  <si>
-    <t>8031145752</t>
-  </si>
-  <si>
-    <t>05.27 PM</t>
-  </si>
-  <si>
-    <t>tran7150452091</t>
-  </si>
-  <si>
-    <t>transaction17150452091</t>
-  </si>
-  <si>
-    <t>5124607226</t>
-  </si>
-  <si>
-    <t>9228063905</t>
-  </si>
-  <si>
-    <t>11.28 AM</t>
-  </si>
-  <si>
-    <t>tran5405026929</t>
-  </si>
-  <si>
-    <t>transaction15405026929</t>
-  </si>
-  <si>
-    <t>2648118619</t>
-  </si>
-  <si>
-    <t>6387426564</t>
-  </si>
-  <si>
-    <t>12.52 PM</t>
-  </si>
-  <si>
-    <t>tran9736797767</t>
-  </si>
-  <si>
-    <t>transaction19736797767</t>
-  </si>
-  <si>
-    <t>4314461846</t>
-  </si>
-  <si>
-    <t>4851644679</t>
-  </si>
-  <si>
-    <t>02.46 PM</t>
-  </si>
-  <si>
-    <t>tran3415750924</t>
-  </si>
-  <si>
-    <t>transaction13415750924</t>
-  </si>
-  <si>
-    <t>8555688592</t>
-  </si>
-  <si>
-    <t>5087809517</t>
-  </si>
-  <si>
-    <t>02.51 PM</t>
-  </si>
-  <si>
-    <t>tran8297247050</t>
-  </si>
-  <si>
-    <t>transaction18297247050</t>
-  </si>
-  <si>
-    <t>8515724800</t>
-  </si>
-  <si>
-    <t>7850263204</t>
-  </si>
-  <si>
-    <t>02.58 PM</t>
-  </si>
-  <si>
-    <t>tran9262104359</t>
-  </si>
-  <si>
-    <t>transaction19262104359</t>
-  </si>
-  <si>
-    <t>8880829357</t>
-  </si>
-  <si>
-    <t>7745200908</t>
-  </si>
-  <si>
-    <t>03.01 PM</t>
-  </si>
-  <si>
-    <t>tran7260227085</t>
-  </si>
-  <si>
-    <t>transaction17260227085</t>
-  </si>
-  <si>
-    <t>8293397351</t>
-  </si>
-  <si>
-    <t>6737045850</t>
-  </si>
-  <si>
-    <t>tran2997598035</t>
-  </si>
-  <si>
-    <t>transaction12997598035</t>
-  </si>
-  <si>
-    <t>7325981508</t>
-  </si>
-  <si>
-    <t>9396158428</t>
-  </si>
-  <si>
-    <t>05.57 PM</t>
-  </si>
-  <si>
-    <t>tran7457738616</t>
-  </si>
-  <si>
-    <t>transaction17457738616</t>
-  </si>
-  <si>
-    <t>9338566769</t>
-  </si>
-  <si>
-    <t>1296254187</t>
-  </si>
-  <si>
-    <t>06.57 PM</t>
-  </si>
-  <si>
-    <t>tran6470146856</t>
-  </si>
-  <si>
-    <t>transaction16470146856</t>
-  </si>
-  <si>
-    <t>8203757882</t>
-  </si>
-  <si>
-    <t>2153761682</t>
-  </si>
-  <si>
-    <t>08.13 PM</t>
-  </si>
-  <si>
-    <t>tran4369088722</t>
-  </si>
-  <si>
-    <t>transaction14369088722</t>
-  </si>
-  <si>
-    <t>1017013614</t>
-  </si>
-  <si>
-    <t>7957164610</t>
-  </si>
-  <si>
-    <t>09.21 PM</t>
-  </si>
-  <si>
-    <t>tran5754660529</t>
-  </si>
-  <si>
-    <t>transaction15754660529</t>
-  </si>
-  <si>
-    <t>8860106839</t>
-  </si>
-  <si>
-    <t>7709009611</t>
+    <t>transaction1533615124808</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2864,101 +2374,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.09765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.59765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.69921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.59765625" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.19921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="18.3984375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="9.59765625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.59765625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="36" max="39" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="17.69921875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="24.59765625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.19921875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
-    <col min="64" max="65" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="68" max="69" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="25.296875" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="15.296875" collapsed="true"/>
-    <col min="78" max="79" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="7.09765625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="17.09765625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="88" max="89" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="19.296875" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="17.19921875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="17.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="39" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="19.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="65" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="69" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="25.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="15.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="79" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="7.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="7.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="15.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="17.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="89" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="19.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="17.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.3">
@@ -3256,10 +2766,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>813</v>
-      </c>
-      <c r="B2" t="s">
-        <v>815</v>
+        <v>652</v>
+      </c>
+      <c r="B2">
+        <v>3771711839</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3319,7 +2829,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>748</v>
+        <v>651</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3517,10 +3027,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>814</v>
+        <v>653</v>
       </c>
       <c r="B3" t="s">
-        <v>816</v>
+        <v>650</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3541,7 +3051,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>748</v>
+        <v>651</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
@@ -3618,209 +3128,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="11" max="13" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="21" max="26" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="27" max="29" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="30" max="40" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
-    <col min="42" max="43" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="46" max="47" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
-    <col min="73" max="74" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="79" max="80" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="89" max="91" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="106" max="107" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="112" max="114" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="115" max="116" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="117" max="117" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="118" max="119" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="120" max="121" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="122" max="122" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="123" max="123" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="124" max="124" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="125" max="125" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="126" max="126" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="127" max="127" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="128" max="128" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="129" max="129" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="130" max="130" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="132" max="133" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="135" max="135" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="136" max="136" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="137" max="137" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="138" max="138" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="139" max="141" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="142" max="142" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="143" max="143" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="144" max="144" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="145" max="145" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="146" max="146" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="147" max="147" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="148" max="148" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="149" max="149" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="150" max="150" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="151" max="151" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="152" max="152" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="153" max="153" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="154" max="154" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="155" max="156" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="157" max="157" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="158" max="158" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="159" max="159" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="160" max="160" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="161" max="161" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="162" max="162" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="163" max="163" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="164" max="165" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="166" max="166" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
-    <col min="167" max="167" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="168" max="168" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
-    <col min="169" max="169" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="170" max="170" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="171" max="171" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="172" max="172" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="173" max="173" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="174" max="174" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="175" max="175" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="176" max="176" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="177" max="177" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="178" max="178" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="179" max="179" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="180" max="180" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="181" max="181" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="182" max="182" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="183" max="183" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="184" max="184" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="185" max="185" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="186" max="186" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="187" max="187" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="188" max="188" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="189" max="189" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="190" max="190" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="191" max="191" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="192" max="192" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="193" max="193" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="194" max="194" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="195" max="195" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="196" max="196" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
-    <col min="197" max="197" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="198" max="198" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="199" max="199" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="200" max="200" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="201" max="201" bestFit="true" customWidth="true" width="2.296875" collapsed="true"/>
-    <col min="202" max="202" bestFit="true" customWidth="true" width="2.3984375" collapsed="true"/>
-    <col min="203" max="203" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="204" max="204" bestFit="true" customWidth="true" width="2.59765625" collapsed="true"/>
-    <col min="205" max="205" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="206" max="207" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="208" max="208" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="209" max="209" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="210" max="210" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="211" max="211" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="212" max="213" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="214" max="214" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="215" max="215" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="216" max="216" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="217" max="217" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="218" max="218" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="219" max="219" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="220" max="220" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
-    <col min="221" max="221" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="222" max="222" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="223" max="223" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
-    <col min="224" max="225" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="226" max="226" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="227" max="227" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="228" max="228" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="229" max="229" bestFit="true" customWidth="true" width="3.69921875" collapsed="true"/>
-    <col min="230" max="230" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="231" max="231" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
-    <col min="232" max="232" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="233" max="233" bestFit="true" customWidth="true" width="3.8984375" collapsed="true"/>
-    <col min="234" max="234" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="235" max="235" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="236" max="236" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="237" max="237" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="238" max="238" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="239" max="239" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="240" max="240" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
-    <col min="241" max="241" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
-    <col min="242" max="243" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
-    <col min="244" max="245" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
-    <col min="246" max="247" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="248" max="248" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="249" max="249" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="250" max="250" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="1" max="1" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="29" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="40" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="74" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="80" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="91" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="107" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="114" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="116" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="118" max="119" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="120" max="121" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="133" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="137" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="138" max="138" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="141" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="145" max="145" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="156" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="162" max="162" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="165" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="169" max="169" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="173" max="173" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="179" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="180" max="180" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="181" max="181" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="182" max="182" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="183" max="183" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="185" max="185" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="186" max="186" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="187" max="187" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="188" max="188" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="189" max="189" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="190" max="190" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="191" max="191" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="192" max="192" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="193" max="193" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="194" max="194" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="195" max="195" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="197" max="197" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="198" max="198" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="199" max="199" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="201" max="201" width="2.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="202" max="202" width="2.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="203" max="203" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="204" max="204" width="2.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="205" max="205" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="206" max="207" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="209" max="209" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="210" max="210" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="211" max="211" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="212" max="213" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="214" max="214" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="215" max="215" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="216" max="216" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="217" max="217" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="218" max="218" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="219" max="219" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="220" max="220" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="221" max="221" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="222" max="222" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="223" max="223" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="224" max="225" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="226" max="226" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="227" max="227" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="228" max="228" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="229" max="229" width="3.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="230" max="230" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="231" max="231" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="232" max="232" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="233" max="233" width="3.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="234" max="234" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="235" max="235" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="236" max="236" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="237" max="237" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="238" max="238" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="239" max="239" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="240" max="240" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="241" max="241" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="242" max="243" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="244" max="245" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="246" max="247" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="248" max="248" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="249" max="249" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="250" max="250" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24392" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24404" uniqueCount="664">
   <si>
     <t>transactionName</t>
   </si>
@@ -1983,11 +1983,42 @@
   <si>
     <t>transaction1533615124808</t>
   </si>
+  <si>
+    <t>tran1384680372</t>
+  </si>
+  <si>
+    <t>transaction11384680372</t>
+  </si>
+  <si>
+    <t>8237481903</t>
+  </si>
+  <si>
+    <t>9247444285</t>
+  </si>
+  <si>
+    <t>12.40 PM</t>
+  </si>
+  <si>
+    <t>tran1868649373</t>
+  </si>
+  <si>
+    <t>transaction11868649373</t>
+  </si>
+  <si>
+    <t>1633944618</t>
+  </si>
+  <si>
+    <t>4684871871</t>
+  </si>
+  <si>
+    <t>02.10 PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2380,95 +2411,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="17.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="39" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="19.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="65" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="69" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="25.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="15.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="79" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="7.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="7.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="15.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="17.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="89" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="19.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="17.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.09765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.59765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.69921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.59765625" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.19921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.3984375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.59765625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.59765625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="36" max="39" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="17.69921875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="24.59765625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.19921875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
+    <col min="64" max="65" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="68" max="69" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="25.296875" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="15.296875" collapsed="true"/>
+    <col min="78" max="79" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="7.09765625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="17.09765625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="88" max="89" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="19.296875" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="17.19921875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.3">
@@ -2766,10 +2797,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B2">
-        <v>3771711839</v>
+        <v>659</v>
+      </c>
+      <c r="B2" t="s">
+        <v>661</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2829,7 +2860,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3027,10 +3058,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3051,7 +3082,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
@@ -3128,209 +3159,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="40" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="80" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="91" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="107" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="114" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="116" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="118" max="119" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="120" max="121" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="133" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="141" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="145" max="145" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="146" max="146" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="153" max="153" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="154" max="154" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="155" max="156" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="157" max="157" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="158" max="158" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="160" max="160" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="165" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="169" max="169" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="173" max="173" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="179" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="182" max="182" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="183" max="183" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="185" max="185" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="186" max="186" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="187" max="187" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="188" max="188" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="189" max="189" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="190" max="190" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="191" max="191" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="192" max="192" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="193" max="193" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="194" max="194" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="195" max="195" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="197" max="197" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="198" max="198" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="199" max="199" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="201" max="201" width="2.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="202" max="202" width="2.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="203" max="203" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="204" max="204" width="2.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="205" max="205" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="206" max="207" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="209" max="209" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="210" max="210" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="211" max="211" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="212" max="213" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="214" max="214" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="215" max="215" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="216" max="216" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="217" max="217" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="218" max="218" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="219" max="219" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="220" max="220" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="221" max="221" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="222" max="222" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="223" max="223" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="224" max="225" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="226" max="226" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="227" max="227" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="228" max="228" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="229" max="229" width="3.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="230" max="230" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="231" max="231" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="232" max="232" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="233" max="233" width="3.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="234" max="234" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="235" max="235" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="236" max="236" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="237" max="237" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="238" max="238" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="239" max="239" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="240" max="240" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="241" max="241" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="242" max="243" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="244" max="245" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="246" max="247" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="248" max="248" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="249" max="249" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="250" max="250" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="11" max="13" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="21" max="26" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="27" max="29" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="30" max="40" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
+    <col min="42" max="43" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="79" max="80" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="89" max="91" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="106" max="107" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="112" max="114" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="115" max="116" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="118" max="119" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="120" max="121" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="132" max="133" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="139" max="141" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="144" max="144" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="145" max="145" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="147" max="147" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="153" max="153" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="155" max="156" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="157" max="157" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="158" max="158" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="164" max="165" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="166" max="166" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="168" max="168" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
+    <col min="169" max="169" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="170" max="170" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="172" max="172" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="173" max="173" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="174" max="174" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="175" max="175" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="176" max="176" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="177" max="177" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="179" max="179" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="180" max="180" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="181" max="181" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="182" max="182" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="183" max="183" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="184" max="184" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="185" max="185" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="186" max="186" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="187" max="187" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="188" max="188" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="189" max="189" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="190" max="190" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="191" max="191" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="192" max="192" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="193" max="193" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="194" max="194" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="195" max="195" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="196" max="196" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
+    <col min="197" max="197" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="198" max="198" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="199" max="199" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="200" max="200" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="201" max="201" bestFit="true" customWidth="true" width="2.296875" collapsed="true"/>
+    <col min="202" max="202" bestFit="true" customWidth="true" width="2.3984375" collapsed="true"/>
+    <col min="203" max="203" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="204" max="204" bestFit="true" customWidth="true" width="2.59765625" collapsed="true"/>
+    <col min="205" max="205" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="206" max="207" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="208" max="208" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="209" max="209" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="210" max="210" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="211" max="211" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="212" max="213" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="214" max="214" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="215" max="215" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="216" max="216" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="217" max="217" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="218" max="218" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="219" max="219" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="220" max="220" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
+    <col min="221" max="221" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="222" max="222" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="223" max="223" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="224" max="225" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="226" max="226" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="227" max="227" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="228" max="228" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="229" max="229" bestFit="true" customWidth="true" width="3.69921875" collapsed="true"/>
+    <col min="230" max="230" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="231" max="231" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
+    <col min="232" max="232" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="233" max="233" bestFit="true" customWidth="true" width="3.8984375" collapsed="true"/>
+    <col min="234" max="234" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="235" max="235" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="236" max="236" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="237" max="237" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="238" max="238" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="239" max="239" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="240" max="240" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
+    <col min="241" max="241" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
+    <col min="242" max="243" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
+    <col min="244" max="245" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="246" max="247" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="248" max="248" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="249" max="249" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="250" max="250" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24404" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24410" uniqueCount="669">
   <si>
     <t>transactionName</t>
   </si>
@@ -2013,6 +2013,21 @@
   <si>
     <t>02.10 PM</t>
   </si>
+  <si>
+    <t>tran5152721115</t>
+  </si>
+  <si>
+    <t>transaction15152721115</t>
+  </si>
+  <si>
+    <t>3039610638</t>
+  </si>
+  <si>
+    <t>8854458970</t>
+  </si>
+  <si>
+    <t>05.20 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2797,10 +2812,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B2" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2860,7 +2875,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3058,10 +3073,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B3" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3082,7 +3097,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24410" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24422" uniqueCount="679">
   <si>
     <t>transactionName</t>
   </si>
@@ -2028,6 +2028,36 @@
   <si>
     <t>05.20 PM</t>
   </si>
+  <si>
+    <t>tran6373677166</t>
+  </si>
+  <si>
+    <t>transaction16373677166</t>
+  </si>
+  <si>
+    <t>4250079331</t>
+  </si>
+  <si>
+    <t>5795406894</t>
+  </si>
+  <si>
+    <t>03.16 PM</t>
+  </si>
+  <si>
+    <t>tran3658364769</t>
+  </si>
+  <si>
+    <t>transaction13658364769</t>
+  </si>
+  <si>
+    <t>6200520733</t>
+  </si>
+  <si>
+    <t>9947174738</t>
+  </si>
+  <si>
+    <t>03.31 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2812,10 +2842,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2875,7 +2905,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3073,10 +3103,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="B3" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3097,7 +3127,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24422" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24428" uniqueCount="684">
   <si>
     <t>transactionName</t>
   </si>
@@ -2058,6 +2058,21 @@
   <si>
     <t>03.31 PM</t>
   </si>
+  <si>
+    <t>tran2827906332</t>
+  </si>
+  <si>
+    <t>transaction12827906332</t>
+  </si>
+  <si>
+    <t>9763894014</t>
+  </si>
+  <si>
+    <t>1191312922</t>
+  </si>
+  <si>
+    <t>05.06 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2842,10 +2857,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2905,7 +2920,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3103,10 +3118,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3127,7 +3142,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24428" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24440" uniqueCount="694">
   <si>
     <t>transactionName</t>
   </si>
@@ -2073,6 +2073,36 @@
   <si>
     <t>05.06 PM</t>
   </si>
+  <si>
+    <t>tran5661430566</t>
+  </si>
+  <si>
+    <t>transaction15661430566</t>
+  </si>
+  <si>
+    <t>7618353438</t>
+  </si>
+  <si>
+    <t>5148955207</t>
+  </si>
+  <si>
+    <t>01.02 PM</t>
+  </si>
+  <si>
+    <t>tran1267609352</t>
+  </si>
+  <si>
+    <t>transaction11267609352</t>
+  </si>
+  <si>
+    <t>2499305197</t>
+  </si>
+  <si>
+    <t>6583338280</t>
+  </si>
+  <si>
+    <t>02.47 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2857,10 +2887,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2920,7 +2950,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3118,10 +3148,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3142,7 +3172,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24440" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24452" uniqueCount="704">
   <si>
     <t>transactionName</t>
   </si>
@@ -2103,6 +2103,36 @@
   <si>
     <t>02.47 PM</t>
   </si>
+  <si>
+    <t>tran2353546695</t>
+  </si>
+  <si>
+    <t>transaction12353546695</t>
+  </si>
+  <si>
+    <t>1455268256</t>
+  </si>
+  <si>
+    <t>9850492890</t>
+  </si>
+  <si>
+    <t>12.58 PM</t>
+  </si>
+  <si>
+    <t>tran4619476972</t>
+  </si>
+  <si>
+    <t>transaction14619476972</t>
+  </si>
+  <si>
+    <t>5714796331</t>
+  </si>
+  <si>
+    <t>8761306882</t>
+  </si>
+  <si>
+    <t>01.05 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2887,10 +2917,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2950,7 +2980,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3148,10 +3178,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B3" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3172,7 +3202,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24452" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24458" uniqueCount="709">
   <si>
     <t>transactionName</t>
   </si>
@@ -2133,6 +2133,21 @@
   <si>
     <t>01.05 PM</t>
   </si>
+  <si>
+    <t>tran3081676202</t>
+  </si>
+  <si>
+    <t>transaction13081676202</t>
+  </si>
+  <si>
+    <t>7813840297</t>
+  </si>
+  <si>
+    <t>5026866399</t>
+  </si>
+  <si>
+    <t>12.19 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2917,10 +2932,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2980,7 +2995,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3178,10 +3193,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B3" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3202,7 +3217,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24458" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24470" uniqueCount="719">
   <si>
     <t>transactionName</t>
   </si>
@@ -2148,6 +2148,36 @@
   <si>
     <t>12.19 PM</t>
   </si>
+  <si>
+    <t>tran5111109060</t>
+  </si>
+  <si>
+    <t>transaction15111109060</t>
+  </si>
+  <si>
+    <t>5152812000</t>
+  </si>
+  <si>
+    <t>1746833890</t>
+  </si>
+  <si>
+    <t>03.32 PM</t>
+  </si>
+  <si>
+    <t>tran4305968002</t>
+  </si>
+  <si>
+    <t>transaction14305968002</t>
+  </si>
+  <si>
+    <t>4651896915</t>
+  </si>
+  <si>
+    <t>5994509145</t>
+  </si>
+  <si>
+    <t>07.53 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2932,10 +2962,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="B2" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2995,7 +3025,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3193,10 +3223,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="B3" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3217,7 +3247,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24470" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24494" uniqueCount="739">
   <si>
     <t>transactionName</t>
   </si>
@@ -2178,6 +2178,66 @@
   <si>
     <t>07.53 PM</t>
   </si>
+  <si>
+    <t>tran1814398674</t>
+  </si>
+  <si>
+    <t>transaction11814398674</t>
+  </si>
+  <si>
+    <t>2221065187</t>
+  </si>
+  <si>
+    <t>3810708741</t>
+  </si>
+  <si>
+    <t>10.13 AM</t>
+  </si>
+  <si>
+    <t>tran1212681843</t>
+  </si>
+  <si>
+    <t>transaction11212681843</t>
+  </si>
+  <si>
+    <t>6485939943</t>
+  </si>
+  <si>
+    <t>4994725778</t>
+  </si>
+  <si>
+    <t>10.59 AM</t>
+  </si>
+  <si>
+    <t>tran4786681668</t>
+  </si>
+  <si>
+    <t>transaction14786681668</t>
+  </si>
+  <si>
+    <t>1032497236</t>
+  </si>
+  <si>
+    <t>1074177557</t>
+  </si>
+  <si>
+    <t>06.09 PM</t>
+  </si>
+  <si>
+    <t>tran2419430909</t>
+  </si>
+  <si>
+    <t>transaction12419430909</t>
+  </si>
+  <si>
+    <t>7489924704</t>
+  </si>
+  <si>
+    <t>7604891585</t>
+  </si>
+  <si>
+    <t>06.14 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2962,10 +3022,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="B2" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3025,7 +3085,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3223,10 +3283,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="B3" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3247,7 +3307,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24494" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24500" uniqueCount="744">
   <si>
     <t>transactionName</t>
   </si>
@@ -2238,6 +2238,21 @@
   <si>
     <t>06.14 PM</t>
   </si>
+  <si>
+    <t>tran3299737317</t>
+  </si>
+  <si>
+    <t>transaction13299737317</t>
+  </si>
+  <si>
+    <t>6998779814</t>
+  </si>
+  <si>
+    <t>4110280695</t>
+  </si>
+  <si>
+    <t>06.41 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -3022,10 +3037,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3085,7 +3100,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3283,10 +3298,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3307,7 +3322,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24500" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24512" uniqueCount="754">
   <si>
     <t>transactionName</t>
   </si>
@@ -2253,6 +2253,36 @@
   <si>
     <t>06.41 PM</t>
   </si>
+  <si>
+    <t>tran9258117474</t>
+  </si>
+  <si>
+    <t>transaction19258117474</t>
+  </si>
+  <si>
+    <t>9683181354</t>
+  </si>
+  <si>
+    <t>9924125849</t>
+  </si>
+  <si>
+    <t>08.59 PM</t>
+  </si>
+  <si>
+    <t>tran2612885162</t>
+  </si>
+  <si>
+    <t>transaction12612885162</t>
+  </si>
+  <si>
+    <t>2046749162</t>
+  </si>
+  <si>
+    <t>1408690021</t>
+  </si>
+  <si>
+    <t>09.17 AM</t>
+  </si>
 </sst>
 </file>
 
@@ -3037,10 +3067,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B2" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3100,7 +3130,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3298,10 +3328,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B3" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3322,7 +3352,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24512" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24560" uniqueCount="794">
   <si>
     <t>transactionName</t>
   </si>
@@ -2282,6 +2282,126 @@
   </si>
   <si>
     <t>09.17 AM</t>
+  </si>
+  <si>
+    <t>tran6032764241</t>
+  </si>
+  <si>
+    <t>transaction16032764241</t>
+  </si>
+  <si>
+    <t>8621958347</t>
+  </si>
+  <si>
+    <t>5175890447</t>
+  </si>
+  <si>
+    <t>09.16 AM</t>
+  </si>
+  <si>
+    <t>tran6399319135</t>
+  </si>
+  <si>
+    <t>transaction16399319135</t>
+  </si>
+  <si>
+    <t>2044906161</t>
+  </si>
+  <si>
+    <t>4808014442</t>
+  </si>
+  <si>
+    <t>09.29 AM</t>
+  </si>
+  <si>
+    <t>tran6557266836</t>
+  </si>
+  <si>
+    <t>transaction16557266836</t>
+  </si>
+  <si>
+    <t>9642393071</t>
+  </si>
+  <si>
+    <t>6473095798</t>
+  </si>
+  <si>
+    <t>05.55 PM</t>
+  </si>
+  <si>
+    <t>tran7990262985</t>
+  </si>
+  <si>
+    <t>transaction17990262985</t>
+  </si>
+  <si>
+    <t>6484587207</t>
+  </si>
+  <si>
+    <t>2272643049</t>
+  </si>
+  <si>
+    <t>10.44 PM</t>
+  </si>
+  <si>
+    <t>tran1202360605</t>
+  </si>
+  <si>
+    <t>transaction11202360605</t>
+  </si>
+  <si>
+    <t>4659647671</t>
+  </si>
+  <si>
+    <t>1775680562</t>
+  </si>
+  <si>
+    <t>01.44 PM</t>
+  </si>
+  <si>
+    <t>tran5279098769</t>
+  </si>
+  <si>
+    <t>transaction15279098769</t>
+  </si>
+  <si>
+    <t>8651395565</t>
+  </si>
+  <si>
+    <t>5431273054</t>
+  </si>
+  <si>
+    <t>01.56 PM</t>
+  </si>
+  <si>
+    <t>tran7389814603</t>
+  </si>
+  <si>
+    <t>transaction17389814603</t>
+  </si>
+  <si>
+    <t>1551173680</t>
+  </si>
+  <si>
+    <t>3337404344</t>
+  </si>
+  <si>
+    <t>02.09 PM</t>
+  </si>
+  <si>
+    <t>tran6856383067</t>
+  </si>
+  <si>
+    <t>transaction16856383067</t>
+  </si>
+  <si>
+    <t>2127837201</t>
+  </si>
+  <si>
+    <t>8502634770</t>
+  </si>
+  <si>
+    <t>02.37 PM</t>
   </si>
 </sst>
 </file>
@@ -3067,10 +3187,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>749</v>
+        <v>789</v>
       </c>
       <c r="B2" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3130,7 +3250,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3328,10 +3448,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="B3" t="s">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3352,7 +3472,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24560" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24566" uniqueCount="799">
   <si>
     <t>transactionName</t>
   </si>
@@ -2402,6 +2402,21 @@
   </si>
   <si>
     <t>02.37 PM</t>
+  </si>
+  <si>
+    <t>tran3562013618</t>
+  </si>
+  <si>
+    <t>transaction13562013618</t>
+  </si>
+  <si>
+    <t>8137609279</t>
+  </si>
+  <si>
+    <t>8101033600</t>
+  </si>
+  <si>
+    <t>10.42 AM</t>
   </si>
 </sst>
 </file>
@@ -3187,10 +3202,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="B2" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3250,7 +3265,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3448,10 +3463,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B3" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3472,7 +3487,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24566" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24578" uniqueCount="809">
   <si>
     <t>transactionName</t>
   </si>
@@ -2417,6 +2417,36 @@
   </si>
   <si>
     <t>10.42 AM</t>
+  </si>
+  <si>
+    <t>tran4033254156</t>
+  </si>
+  <si>
+    <t>transaction14033254156</t>
+  </si>
+  <si>
+    <t>9010260475</t>
+  </si>
+  <si>
+    <t>3233928476</t>
+  </si>
+  <si>
+    <t>11.27 AM</t>
+  </si>
+  <si>
+    <t>tran2434301738</t>
+  </si>
+  <si>
+    <t>transaction12434301738</t>
+  </si>
+  <si>
+    <t>8324501356</t>
+  </si>
+  <si>
+    <t>3103095678</t>
+  </si>
+  <si>
+    <t>11.43 AM</t>
   </si>
 </sst>
 </file>
@@ -3202,10 +3232,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3265,7 +3295,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3463,10 +3493,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="B3" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3487,7 +3517,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24578" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24584" uniqueCount="814">
   <si>
     <t>transactionName</t>
   </si>
@@ -2447,6 +2447,21 @@
   </si>
   <si>
     <t>11.43 AM</t>
+  </si>
+  <si>
+    <t>tran2382787480</t>
+  </si>
+  <si>
+    <t>transaction12382787480</t>
+  </si>
+  <si>
+    <t>5604791330</t>
+  </si>
+  <si>
+    <t>6604400799</t>
+  </si>
+  <si>
+    <t>11.04 AM</t>
   </si>
 </sst>
 </file>
@@ -3232,10 +3247,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B2" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3295,7 +3310,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3493,10 +3508,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B3" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3517,7 +3532,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24584" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24602" uniqueCount="829">
   <si>
     <t>transactionName</t>
   </si>
@@ -2462,6 +2462,51 @@
   </si>
   <si>
     <t>11.04 AM</t>
+  </si>
+  <si>
+    <t>tran9373311504</t>
+  </si>
+  <si>
+    <t>transaction19373311504</t>
+  </si>
+  <si>
+    <t>2159935254</t>
+  </si>
+  <si>
+    <t>2881138817</t>
+  </si>
+  <si>
+    <t>10.34 AM</t>
+  </si>
+  <si>
+    <t>tran4721508959</t>
+  </si>
+  <si>
+    <t>transaction14721508959</t>
+  </si>
+  <si>
+    <t>1415468306</t>
+  </si>
+  <si>
+    <t>6823181159</t>
+  </si>
+  <si>
+    <t>11.33 AM</t>
+  </si>
+  <si>
+    <t>tran8003571414</t>
+  </si>
+  <si>
+    <t>transaction18003571414</t>
+  </si>
+  <si>
+    <t>7994782914</t>
+  </si>
+  <si>
+    <t>7283057670</t>
+  </si>
+  <si>
+    <t>10.14 AM</t>
   </si>
 </sst>
 </file>
@@ -3247,10 +3292,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="B2" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3310,7 +3355,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3508,10 +3553,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="B3" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3532,7 +3577,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\20 june\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24602" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24393" uniqueCount="655">
   <si>
     <t>transactionName</t>
   </si>
@@ -1972,548 +1972,25 @@
     <t>ACCRAK1867</t>
   </si>
   <si>
-    <t>4876051439</t>
+    <t>8303135954</t>
   </si>
   <si>
-    <t>10.33 AM</t>
+    <t>5620312850</t>
   </si>
   <si>
-    <t>tran536153148082</t>
+    <t>12.17 PM</t>
   </si>
   <si>
-    <t>transaction1533615124808</t>
+    <t>tran9939963151c</t>
   </si>
   <si>
-    <t>tran1384680372</t>
-  </si>
-  <si>
-    <t>transaction11384680372</t>
-  </si>
-  <si>
-    <t>8237481903</t>
-  </si>
-  <si>
-    <t>9247444285</t>
-  </si>
-  <si>
-    <t>12.40 PM</t>
-  </si>
-  <si>
-    <t>tran1868649373</t>
-  </si>
-  <si>
-    <t>transaction11868649373</t>
-  </si>
-  <si>
-    <t>1633944618</t>
-  </si>
-  <si>
-    <t>4684871871</t>
-  </si>
-  <si>
-    <t>02.10 PM</t>
-  </si>
-  <si>
-    <t>tran5152721115</t>
-  </si>
-  <si>
-    <t>transaction15152721115</t>
-  </si>
-  <si>
-    <t>3039610638</t>
-  </si>
-  <si>
-    <t>8854458970</t>
-  </si>
-  <si>
-    <t>05.20 PM</t>
-  </si>
-  <si>
-    <t>tran6373677166</t>
-  </si>
-  <si>
-    <t>transaction16373677166</t>
-  </si>
-  <si>
-    <t>4250079331</t>
-  </si>
-  <si>
-    <t>5795406894</t>
-  </si>
-  <si>
-    <t>03.16 PM</t>
-  </si>
-  <si>
-    <t>tran3658364769</t>
-  </si>
-  <si>
-    <t>transaction13658364769</t>
-  </si>
-  <si>
-    <t>6200520733</t>
-  </si>
-  <si>
-    <t>9947174738</t>
-  </si>
-  <si>
-    <t>03.31 PM</t>
-  </si>
-  <si>
-    <t>tran2827906332</t>
-  </si>
-  <si>
-    <t>transaction12827906332</t>
-  </si>
-  <si>
-    <t>9763894014</t>
-  </si>
-  <si>
-    <t>1191312922</t>
-  </si>
-  <si>
-    <t>05.06 PM</t>
-  </si>
-  <si>
-    <t>tran5661430566</t>
-  </si>
-  <si>
-    <t>transaction15661430566</t>
-  </si>
-  <si>
-    <t>7618353438</t>
-  </si>
-  <si>
-    <t>5148955207</t>
-  </si>
-  <si>
-    <t>01.02 PM</t>
-  </si>
-  <si>
-    <t>tran1267609352</t>
-  </si>
-  <si>
-    <t>transaction11267609352</t>
-  </si>
-  <si>
-    <t>2499305197</t>
-  </si>
-  <si>
-    <t>6583338280</t>
-  </si>
-  <si>
-    <t>02.47 PM</t>
-  </si>
-  <si>
-    <t>tran2353546695</t>
-  </si>
-  <si>
-    <t>transaction12353546695</t>
-  </si>
-  <si>
-    <t>1455268256</t>
-  </si>
-  <si>
-    <t>9850492890</t>
-  </si>
-  <si>
-    <t>12.58 PM</t>
-  </si>
-  <si>
-    <t>tran4619476972</t>
-  </si>
-  <si>
-    <t>transaction14619476972</t>
-  </si>
-  <si>
-    <t>5714796331</t>
-  </si>
-  <si>
-    <t>8761306882</t>
-  </si>
-  <si>
-    <t>01.05 PM</t>
-  </si>
-  <si>
-    <t>tran3081676202</t>
-  </si>
-  <si>
-    <t>transaction13081676202</t>
-  </si>
-  <si>
-    <t>7813840297</t>
-  </si>
-  <si>
-    <t>5026866399</t>
-  </si>
-  <si>
-    <t>12.19 PM</t>
-  </si>
-  <si>
-    <t>tran5111109060</t>
-  </si>
-  <si>
-    <t>transaction15111109060</t>
-  </si>
-  <si>
-    <t>5152812000</t>
-  </si>
-  <si>
-    <t>1746833890</t>
-  </si>
-  <si>
-    <t>03.32 PM</t>
-  </si>
-  <si>
-    <t>tran4305968002</t>
-  </si>
-  <si>
-    <t>transaction14305968002</t>
-  </si>
-  <si>
-    <t>4651896915</t>
-  </si>
-  <si>
-    <t>5994509145</t>
-  </si>
-  <si>
-    <t>07.53 PM</t>
-  </si>
-  <si>
-    <t>tran1814398674</t>
-  </si>
-  <si>
-    <t>transaction11814398674</t>
-  </si>
-  <si>
-    <t>2221065187</t>
-  </si>
-  <si>
-    <t>3810708741</t>
-  </si>
-  <si>
-    <t>10.13 AM</t>
-  </si>
-  <si>
-    <t>tran1212681843</t>
-  </si>
-  <si>
-    <t>transaction11212681843</t>
-  </si>
-  <si>
-    <t>6485939943</t>
-  </si>
-  <si>
-    <t>4994725778</t>
-  </si>
-  <si>
-    <t>10.59 AM</t>
-  </si>
-  <si>
-    <t>tran4786681668</t>
-  </si>
-  <si>
-    <t>transaction14786681668</t>
-  </si>
-  <si>
-    <t>1032497236</t>
-  </si>
-  <si>
-    <t>1074177557</t>
-  </si>
-  <si>
-    <t>06.09 PM</t>
-  </si>
-  <si>
-    <t>tran2419430909</t>
-  </si>
-  <si>
-    <t>transaction12419430909</t>
-  </si>
-  <si>
-    <t>7489924704</t>
-  </si>
-  <si>
-    <t>7604891585</t>
-  </si>
-  <si>
-    <t>06.14 PM</t>
-  </si>
-  <si>
-    <t>tran3299737317</t>
-  </si>
-  <si>
-    <t>transaction13299737317</t>
-  </si>
-  <si>
-    <t>6998779814</t>
-  </si>
-  <si>
-    <t>4110280695</t>
-  </si>
-  <si>
-    <t>06.41 PM</t>
-  </si>
-  <si>
-    <t>tran9258117474</t>
-  </si>
-  <si>
-    <t>transaction19258117474</t>
-  </si>
-  <si>
-    <t>9683181354</t>
-  </si>
-  <si>
-    <t>9924125849</t>
-  </si>
-  <si>
-    <t>08.59 PM</t>
-  </si>
-  <si>
-    <t>tran2612885162</t>
-  </si>
-  <si>
-    <t>transaction12612885162</t>
-  </si>
-  <si>
-    <t>2046749162</t>
-  </si>
-  <si>
-    <t>1408690021</t>
-  </si>
-  <si>
-    <t>09.17 AM</t>
-  </si>
-  <si>
-    <t>tran6032764241</t>
-  </si>
-  <si>
-    <t>transaction16032764241</t>
-  </si>
-  <si>
-    <t>8621958347</t>
-  </si>
-  <si>
-    <t>5175890447</t>
-  </si>
-  <si>
-    <t>09.16 AM</t>
-  </si>
-  <si>
-    <t>tran6399319135</t>
-  </si>
-  <si>
-    <t>transaction16399319135</t>
-  </si>
-  <si>
-    <t>2044906161</t>
-  </si>
-  <si>
-    <t>4808014442</t>
-  </si>
-  <si>
-    <t>09.29 AM</t>
-  </si>
-  <si>
-    <t>tran6557266836</t>
-  </si>
-  <si>
-    <t>transaction16557266836</t>
-  </si>
-  <si>
-    <t>9642393071</t>
-  </si>
-  <si>
-    <t>6473095798</t>
-  </si>
-  <si>
-    <t>05.55 PM</t>
-  </si>
-  <si>
-    <t>tran7990262985</t>
-  </si>
-  <si>
-    <t>transaction17990262985</t>
-  </si>
-  <si>
-    <t>6484587207</t>
-  </si>
-  <si>
-    <t>2272643049</t>
-  </si>
-  <si>
-    <t>10.44 PM</t>
-  </si>
-  <si>
-    <t>tran1202360605</t>
-  </si>
-  <si>
-    <t>transaction11202360605</t>
-  </si>
-  <si>
-    <t>4659647671</t>
-  </si>
-  <si>
-    <t>1775680562</t>
-  </si>
-  <si>
-    <t>01.44 PM</t>
-  </si>
-  <si>
-    <t>tran5279098769</t>
-  </si>
-  <si>
-    <t>transaction15279098769</t>
-  </si>
-  <si>
-    <t>8651395565</t>
-  </si>
-  <si>
-    <t>5431273054</t>
-  </si>
-  <si>
-    <t>01.56 PM</t>
-  </si>
-  <si>
-    <t>tran7389814603</t>
-  </si>
-  <si>
-    <t>transaction17389814603</t>
-  </si>
-  <si>
-    <t>1551173680</t>
-  </si>
-  <si>
-    <t>3337404344</t>
-  </si>
-  <si>
-    <t>02.09 PM</t>
-  </si>
-  <si>
-    <t>tran6856383067</t>
-  </si>
-  <si>
-    <t>transaction16856383067</t>
-  </si>
-  <si>
-    <t>2127837201</t>
-  </si>
-  <si>
-    <t>8502634770</t>
-  </si>
-  <si>
-    <t>02.37 PM</t>
-  </si>
-  <si>
-    <t>tran3562013618</t>
-  </si>
-  <si>
-    <t>transaction13562013618</t>
-  </si>
-  <si>
-    <t>8137609279</t>
-  </si>
-  <si>
-    <t>8101033600</t>
-  </si>
-  <si>
-    <t>10.42 AM</t>
-  </si>
-  <si>
-    <t>tran4033254156</t>
-  </si>
-  <si>
-    <t>transaction14033254156</t>
-  </si>
-  <si>
-    <t>9010260475</t>
-  </si>
-  <si>
-    <t>3233928476</t>
-  </si>
-  <si>
-    <t>11.27 AM</t>
-  </si>
-  <si>
-    <t>tran2434301738</t>
-  </si>
-  <si>
-    <t>transaction12434301738</t>
-  </si>
-  <si>
-    <t>8324501356</t>
-  </si>
-  <si>
-    <t>3103095678</t>
-  </si>
-  <si>
-    <t>11.43 AM</t>
-  </si>
-  <si>
-    <t>tran2382787480</t>
-  </si>
-  <si>
-    <t>transaction12382787480</t>
-  </si>
-  <si>
-    <t>5604791330</t>
-  </si>
-  <si>
-    <t>6604400799</t>
-  </si>
-  <si>
-    <t>11.04 AM</t>
-  </si>
-  <si>
-    <t>tran9373311504</t>
-  </si>
-  <si>
-    <t>transaction19373311504</t>
-  </si>
-  <si>
-    <t>2159935254</t>
-  </si>
-  <si>
-    <t>2881138817</t>
-  </si>
-  <si>
-    <t>10.34 AM</t>
-  </si>
-  <si>
-    <t>tran4721508959</t>
-  </si>
-  <si>
-    <t>transaction14721508959</t>
-  </si>
-  <si>
-    <t>1415468306</t>
-  </si>
-  <si>
-    <t>6823181159</t>
-  </si>
-  <si>
-    <t>11.33 AM</t>
-  </si>
-  <si>
-    <t>tran8003571414</t>
-  </si>
-  <si>
-    <t>transaction18003571414</t>
-  </si>
-  <si>
-    <t>7994782914</t>
-  </si>
-  <si>
-    <t>7283057670</t>
-  </si>
-  <si>
-    <t>10.14 AM</t>
+    <t>transaction1993996c3151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2901,100 +2378,100 @@
   <dimension ref="A1:CS3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.09765625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.59765625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.69921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="12.296875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.59765625" collapsed="true"/>
-    <col min="14" max="15" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="18.19921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="18.3984375" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="9.59765625" collapsed="true"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.59765625" collapsed="true"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="36" max="39" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="17.69921875" collapsed="true"/>
-    <col min="42" max="42" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="24.59765625" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="14.19921875" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
-    <col min="64" max="65" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="68" max="69" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="73" max="73" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
-    <col min="74" max="74" bestFit="true" customWidth="true" width="25.296875" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="15.296875" collapsed="true"/>
-    <col min="78" max="79" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="80" max="80" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="7.09765625" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="17.09765625" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="88" max="89" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="90" max="90" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="91" max="91" bestFit="true" customWidth="true" width="19.296875" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="17.19921875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="17.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="18.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="18.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="11.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="39" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="17.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="24.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="19.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="14.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="65" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="69" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="73" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="74" max="74" width="25.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="15.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="79" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="80" max="80" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="7.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="7.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="15.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="17.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="89" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="90" max="90" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="91" max="91" width="19.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="17.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.3">
@@ -3292,10 +2769,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>824</v>
+        <v>653</v>
       </c>
       <c r="B2" t="s">
-        <v>826</v>
+        <v>650</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3355,7 +2832,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>828</v>
+        <v>652</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3553,10 +3030,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>825</v>
+        <v>654</v>
       </c>
       <c r="B3" t="s">
-        <v>827</v>
+        <v>651</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3577,7 +3054,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>828</v>
+        <v>652</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
@@ -3654,209 +3131,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="6" max="7" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
-    <col min="11" max="13" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="19" max="20" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="21" max="26" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="27" max="29" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
-    <col min="30" max="40" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
-    <col min="42" max="43" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="46" max="47" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="55" max="55" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="56" max="56" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="57" max="57" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="58" max="58" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="59" max="59" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="60" max="60" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="61" max="61" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="62" max="62" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="63" max="63" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="64" max="64" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="65" max="65" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="66" max="66" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="67" max="67" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="68" max="68" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="69" max="69" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="70" max="70" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="71" max="71" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="72" max="72" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
-    <col min="73" max="74" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="75" max="75" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="76" max="76" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="77" max="77" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="78" max="78" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="79" max="80" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="81" max="81" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="82" max="82" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="83" max="83" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="84" max="84" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="85" max="85" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="86" max="86" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="87" max="87" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="88" max="88" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="89" max="91" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="92" max="92" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="93" max="93" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="94" max="94" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="95" max="95" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="96" max="96" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="97" max="97" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="98" max="98" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="99" max="99" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="100" max="100" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="101" max="101" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="102" max="102" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="103" max="103" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="104" max="104" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="105" max="105" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="106" max="107" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="108" max="108" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="109" max="109" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="110" max="110" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="111" max="111" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="112" max="114" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="115" max="116" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="117" max="117" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="118" max="119" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="120" max="121" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="122" max="122" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="123" max="123" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="124" max="124" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="125" max="125" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="126" max="126" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="127" max="127" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="128" max="128" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="129" max="129" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="130" max="130" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="131" max="131" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="132" max="133" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="134" max="134" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="135" max="135" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="136" max="136" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="137" max="137" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="138" max="138" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="139" max="141" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="142" max="142" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="143" max="143" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="144" max="144" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="145" max="145" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="146" max="146" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="147" max="147" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="148" max="148" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="149" max="149" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="150" max="150" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="151" max="151" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="152" max="152" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="153" max="153" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="154" max="154" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="155" max="156" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="157" max="157" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="158" max="158" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="159" max="159" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="160" max="160" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="161" max="161" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="162" max="162" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="163" max="163" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="164" max="165" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="166" max="166" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
-    <col min="167" max="167" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="168" max="168" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
-    <col min="169" max="169" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="170" max="170" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="171" max="171" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="172" max="172" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="173" max="173" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="174" max="174" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="175" max="175" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="176" max="176" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
-    <col min="177" max="177" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
-    <col min="178" max="178" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
-    <col min="179" max="179" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="180" max="180" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="181" max="181" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="182" max="182" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="183" max="183" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="184" max="184" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
-    <col min="185" max="185" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="186" max="186" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="187" max="187" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
-    <col min="188" max="188" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="189" max="189" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="190" max="190" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="191" max="191" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="192" max="192" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="193" max="193" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
-    <col min="194" max="194" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
-    <col min="195" max="195" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
-    <col min="196" max="196" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
-    <col min="197" max="197" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
-    <col min="198" max="198" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
-    <col min="199" max="199" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
-    <col min="200" max="200" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
-    <col min="201" max="201" bestFit="true" customWidth="true" width="2.296875" collapsed="true"/>
-    <col min="202" max="202" bestFit="true" customWidth="true" width="2.3984375" collapsed="true"/>
-    <col min="203" max="203" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="204" max="204" bestFit="true" customWidth="true" width="2.59765625" collapsed="true"/>
-    <col min="205" max="205" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="206" max="207" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="208" max="208" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="209" max="209" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="210" max="210" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="211" max="211" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="212" max="213" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="214" max="214" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="215" max="215" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="216" max="216" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="217" max="217" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="218" max="218" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="219" max="219" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="220" max="220" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
-    <col min="221" max="221" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="222" max="222" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
-    <col min="223" max="223" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
-    <col min="224" max="225" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="226" max="226" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="227" max="227" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="228" max="228" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="229" max="229" bestFit="true" customWidth="true" width="3.69921875" collapsed="true"/>
-    <col min="230" max="230" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
-    <col min="231" max="231" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
-    <col min="232" max="232" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="233" max="233" bestFit="true" customWidth="true" width="3.8984375" collapsed="true"/>
-    <col min="234" max="234" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="235" max="235" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="236" max="236" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="237" max="237" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
-    <col min="238" max="238" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
-    <col min="239" max="239" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="240" max="240" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
-    <col min="241" max="241" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
-    <col min="242" max="243" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
-    <col min="244" max="245" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
-    <col min="246" max="247" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
-    <col min="248" max="248" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
-    <col min="249" max="249" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
-    <col min="250" max="250" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="1" max="1" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="13" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="20" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="26" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="29" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="40" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="47" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="59" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="60" max="60" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="61" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="62" max="62" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="63" max="63" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="64" max="64" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="65" max="65" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="66" max="66" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="67" max="67" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="68" max="68" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="69" max="69" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="70" max="70" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="72" max="72" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="73" max="74" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="75" max="75" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="76" max="76" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="77" max="77" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="78" max="78" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="79" max="80" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="81" max="81" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="82" max="82" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="83" max="83" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="84" max="84" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="85" max="85" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="86" max="86" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="87" max="87" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="88" max="88" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="89" max="91" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="92" max="92" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="93" max="93" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="94" max="94" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="95" max="95" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="96" max="96" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="97" max="97" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="98" max="98" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="99" max="99" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="100" max="100" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="101" max="101" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="102" max="102" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="103" max="103" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="104" max="104" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="105" max="105" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="106" max="107" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="108" max="108" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="109" max="109" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="110" max="110" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="111" max="111" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="112" max="114" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="115" max="116" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="117" max="117" width="4" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="118" max="119" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="120" max="121" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="122" max="122" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="123" max="123" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="124" max="124" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="125" max="125" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="126" max="126" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="127" max="127" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="128" max="128" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="129" max="129" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="130" max="130" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="131" max="131" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="132" max="133" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="134" max="134" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="135" max="135" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="136" max="136" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="137" max="137" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="138" max="138" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="139" max="141" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="142" max="142" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="143" max="143" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="144" max="144" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="145" max="145" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="146" max="146" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="147" max="147" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="148" max="148" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="149" max="149" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="150" max="150" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="151" max="151" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="152" max="152" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="153" max="153" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="154" max="154" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="155" max="156" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="157" max="157" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="158" max="158" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="159" max="159" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="160" max="160" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="161" max="161" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="162" max="162" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="163" max="163" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="164" max="165" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="166" max="166" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="167" max="167" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="168" max="168" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="169" max="169" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="170" max="170" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="171" max="171" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="172" max="172" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="173" max="173" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="174" max="174" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="175" max="175" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="176" max="176" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="177" max="177" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="178" max="178" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="179" max="179" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="180" max="180" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="181" max="181" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="182" max="182" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="183" max="183" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="184" max="184" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="185" max="185" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="186" max="186" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="187" max="187" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="188" max="188" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="189" max="189" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="190" max="190" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="191" max="191" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="192" max="192" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="193" max="193" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="194" max="194" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="195" max="195" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="196" max="196" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="197" max="197" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="198" max="198" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="199" max="199" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="200" max="200" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="201" max="201" width="2.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="202" max="202" width="2.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="203" max="203" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="204" max="204" width="2.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="205" max="205" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="206" max="207" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="208" max="208" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="209" max="209" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="210" max="210" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="211" max="211" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="212" max="213" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="214" max="214" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="215" max="215" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="216" max="216" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="217" max="217" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="218" max="218" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="219" max="219" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="220" max="220" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="221" max="221" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="222" max="222" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="223" max="223" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="224" max="225" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="226" max="226" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="227" max="227" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="228" max="228" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="229" max="229" width="3.69921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="230" max="230" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="231" max="231" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="232" max="232" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="233" max="233" width="3.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="234" max="234" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="235" max="235" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="236" max="236" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="237" max="237" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="238" max="238" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="239" max="239" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="240" max="240" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="241" max="241" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="242" max="243" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="244" max="245" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="246" max="247" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="248" max="248" width="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="249" max="249" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="250" max="250" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\20 june\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24393" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24405" uniqueCount="665">
   <si>
     <t>transactionName</t>
   </si>
@@ -1986,11 +1986,42 @@
   <si>
     <t>transaction1993996c3151</t>
   </si>
+  <si>
+    <t>tran1146723078</t>
+  </si>
+  <si>
+    <t>transaction11146723078</t>
+  </si>
+  <si>
+    <t>1642080765</t>
+  </si>
+  <si>
+    <t>2103265690</t>
+  </si>
+  <si>
+    <t>10.18 AM</t>
+  </si>
+  <si>
+    <t>tran8966713347</t>
+  </si>
+  <si>
+    <t>transaction18966713347</t>
+  </si>
+  <si>
+    <t>5616027373</t>
+  </si>
+  <si>
+    <t>5113262304</t>
+  </si>
+  <si>
+    <t>01.46 PM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2383,95 +2414,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="6.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="17.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="18.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="17.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="12.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="12.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="9.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="11.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="11.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="18.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="39" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="18.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="24.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="19.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="14.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="15.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="65" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="69" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="73" width="13.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="74" max="74" width="25.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="9.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="15.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="79" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="80" max="80" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="7.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="7.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="15.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="17.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="89" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="90" max="90" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="91" max="91" width="19.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="21.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="17.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="5.796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.09765625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.796875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.59765625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.69921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.69921875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.3984375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.296875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.59765625" collapsed="true"/>
+    <col min="14" max="15" bestFit="true" customWidth="true" width="17.8984375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="18.19921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.3984375" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.3984375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="12.5" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.69921875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="18.3984375" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.59765625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.59765625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.59765625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="11.69921875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="18.296875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="36" max="39" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="17.69921875" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="18.69921875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="24.59765625" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="11.8984375" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="19.69921875" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="14.19921875" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="15.09765625" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
+    <col min="64" max="65" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="68" max="69" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="13.296875" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="25.296875" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="15.296875" collapsed="true"/>
+    <col min="78" max="79" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="80" max="80" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="7.09765625" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="17.09765625" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="88" max="89" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="19.296875" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="21.19921875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="17.19921875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="5.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.3">
@@ -2769,10 +2800,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2832,7 +2863,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3030,10 +3061,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B3" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3054,7 +3085,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
@@ -3131,209 +3162,209 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="13" width="25.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="20" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="26" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="29" width="30.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="40" width="28.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="18.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="21.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="47" width="22.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="21.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="49" max="49" width="16.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="13.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="58" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="59" max="59" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="60" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="61" max="61" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="62" max="62" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="63" max="63" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="64" max="64" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="65" max="65" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="66" max="66" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="67" max="67" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="68" max="68" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="69" max="69" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="70" max="70" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="71" max="71" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="72" max="72" width="5.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="73" max="74" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="75" max="75" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="76" max="76" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="77" max="77" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="78" max="78" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="79" max="80" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="81" max="81" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="82" max="82" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="83" max="83" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="84" max="84" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="85" max="85" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="86" max="86" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="87" max="87" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="88" max="88" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="89" max="91" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="92" max="92" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="93" max="93" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="94" max="94" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="95" max="95" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="96" max="96" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="97" max="97" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="98" max="98" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="99" max="99" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="100" max="100" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="101" max="101" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="102" max="102" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="103" max="103" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="104" max="104" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="105" max="105" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="106" max="107" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="108" max="108" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="109" max="109" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="110" max="110" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="111" max="111" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="112" max="114" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="115" max="116" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="117" max="117" width="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="118" max="119" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="120" max="121" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="122" max="122" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="123" max="123" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="124" max="124" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="125" max="125" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="126" max="126" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="127" max="127" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="128" max="128" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="129" max="129" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="130" max="130" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="131" max="131" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="132" max="133" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="134" max="134" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="135" max="135" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="136" max="136" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="137" max="137" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="138" max="138" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="139" max="141" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="142" max="142" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="143" max="143" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="144" max="144" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="145" max="145" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="146" max="146" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="147" max="147" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="148" max="148" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="149" max="149" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="150" max="150" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="151" max="151" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="152" max="152" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="153" max="153" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="154" max="154" width="4.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="155" max="156" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="157" max="157" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="158" max="158" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="159" max="159" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="160" max="160" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="161" max="161" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="162" max="162" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="163" max="163" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="164" max="165" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="166" max="166" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="167" max="167" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="168" max="168" width="5.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="169" max="169" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="170" max="170" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="171" max="171" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="172" max="172" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="173" max="173" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="174" max="174" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="175" max="175" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="176" max="176" width="4.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="177" max="177" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="178" max="178" width="4.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="179" max="179" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="180" max="180" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="181" max="181" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="182" max="182" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="183" max="183" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="184" max="184" width="5.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="185" max="185" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="186" max="186" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="187" max="187" width="4.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="188" max="188" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="189" max="189" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="190" max="190" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="191" max="191" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="192" max="192" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="193" max="193" width="5.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="194" max="194" width="4.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="195" max="195" width="4.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="196" max="196" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="197" max="197" width="4.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="198" max="198" width="3.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="199" max="199" width="4.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="200" max="200" width="4.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="201" max="201" width="2.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="202" max="202" width="2.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="203" max="203" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="204" max="204" width="2.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="205" max="205" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="206" max="207" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="208" max="208" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="209" max="209" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="210" max="210" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="211" max="211" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="212" max="213" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="214" max="214" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="215" max="215" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="216" max="216" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="217" max="217" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="218" max="218" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="219" max="219" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="220" max="220" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="221" max="221" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="222" max="222" width="2.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="223" max="223" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="224" max="225" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="226" max="226" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="227" max="227" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="228" max="228" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="229" max="229" width="3.69921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="230" max="230" width="2.796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="231" max="231" width="3.3984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="232" max="232" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="233" max="233" width="3.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="234" max="234" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="235" max="235" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="236" max="236" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="237" max="237" width="3.19921875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="238" max="238" width="3.09765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="239" max="239" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="240" max="240" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="241" max="241" width="2.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="242" max="243" width="3.296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="244" max="245" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="246" max="247" width="2.8984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="248" max="248" width="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="249" max="249" width="3.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="250" max="250" width="3.59765625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="6" max="7" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.09765625" collapsed="true"/>
+    <col min="11" max="13" bestFit="true" customWidth="true" width="25.59765625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.796875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="19" max="20" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="21" max="26" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="27" max="29" bestFit="true" customWidth="true" width="30.69921875" collapsed="true"/>
+    <col min="30" max="40" bestFit="true" customWidth="true" width="28.796875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="18.8984375" collapsed="true"/>
+    <col min="42" max="43" bestFit="true" customWidth="true" width="21.796875" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="20.69921875" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="46" max="47" bestFit="true" customWidth="true" width="22.8984375" collapsed="true"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="21.8984375" collapsed="true"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" width="16.8984375" collapsed="true"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="57" max="57" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="58" max="58" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="64" max="64" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="65" max="65" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="5.09765625" collapsed="true"/>
+    <col min="73" max="74" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="79" max="80" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="81" max="81" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="82" max="82" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="83" max="83" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="84" max="84" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="85" max="85" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="89" max="91" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="106" max="107" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="108" max="108" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="109" max="109" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="110" max="110" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="112" max="114" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="115" max="116" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="118" max="119" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="120" max="121" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="132" max="133" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="139" max="141" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="144" max="144" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="145" max="145" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="147" max="147" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="153" max="153" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="155" max="156" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="157" max="157" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="158" max="158" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="164" max="165" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="166" max="166" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="168" max="168" bestFit="true" customWidth="true" width="5.3984375" collapsed="true"/>
+    <col min="169" max="169" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="170" max="170" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="172" max="172" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="173" max="173" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="174" max="174" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="175" max="175" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="176" max="176" bestFit="true" customWidth="true" width="4.8984375" collapsed="true"/>
+    <col min="177" max="177" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" width="4.69921875" collapsed="true"/>
+    <col min="179" max="179" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="180" max="180" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="181" max="181" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="182" max="182" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="183" max="183" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="184" max="184" bestFit="true" customWidth="true" width="5.19921875" collapsed="true"/>
+    <col min="185" max="185" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="186" max="186" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="187" max="187" bestFit="true" customWidth="true" width="4.19921875" collapsed="true"/>
+    <col min="188" max="188" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="189" max="189" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="190" max="190" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="191" max="191" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="192" max="192" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="193" max="193" bestFit="true" customWidth="true" width="5.296875" collapsed="true"/>
+    <col min="194" max="194" bestFit="true" customWidth="true" width="4.5" collapsed="true"/>
+    <col min="195" max="195" bestFit="true" customWidth="true" width="4.296875" collapsed="true"/>
+    <col min="196" max="196" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
+    <col min="197" max="197" bestFit="true" customWidth="true" width="4.59765625" collapsed="true"/>
+    <col min="198" max="198" bestFit="true" customWidth="true" width="3.796875" collapsed="true"/>
+    <col min="199" max="199" bestFit="true" customWidth="true" width="4.09765625" collapsed="true"/>
+    <col min="200" max="200" bestFit="true" customWidth="true" width="4.3984375" collapsed="true"/>
+    <col min="201" max="201" bestFit="true" customWidth="true" width="2.296875" collapsed="true"/>
+    <col min="202" max="202" bestFit="true" customWidth="true" width="2.3984375" collapsed="true"/>
+    <col min="203" max="203" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="204" max="204" bestFit="true" customWidth="true" width="2.59765625" collapsed="true"/>
+    <col min="205" max="205" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="206" max="207" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="208" max="208" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="209" max="209" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="210" max="210" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="211" max="211" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="212" max="213" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="214" max="214" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="215" max="215" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="216" max="216" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="217" max="217" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="218" max="218" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="219" max="219" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="220" max="220" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
+    <col min="221" max="221" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="222" max="222" bestFit="true" customWidth="true" width="2.69921875" collapsed="true"/>
+    <col min="223" max="223" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="224" max="225" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="226" max="226" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="227" max="227" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="228" max="228" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="229" max="229" bestFit="true" customWidth="true" width="3.69921875" collapsed="true"/>
+    <col min="230" max="230" bestFit="true" customWidth="true" width="2.796875" collapsed="true"/>
+    <col min="231" max="231" bestFit="true" customWidth="true" width="3.3984375" collapsed="true"/>
+    <col min="232" max="232" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="233" max="233" bestFit="true" customWidth="true" width="3.8984375" collapsed="true"/>
+    <col min="234" max="234" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="235" max="235" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="236" max="236" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="237" max="237" bestFit="true" customWidth="true" width="3.19921875" collapsed="true"/>
+    <col min="238" max="238" bestFit="true" customWidth="true" width="3.09765625" collapsed="true"/>
+    <col min="239" max="239" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="240" max="240" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
+    <col min="241" max="241" bestFit="true" customWidth="true" width="2.5" collapsed="true"/>
+    <col min="242" max="243" bestFit="true" customWidth="true" width="3.296875" collapsed="true"/>
+    <col min="244" max="245" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
+    <col min="246" max="247" bestFit="true" customWidth="true" width="2.8984375" collapsed="true"/>
+    <col min="248" max="248" bestFit="true" customWidth="true" width="3.0" collapsed="true"/>
+    <col min="249" max="249" bestFit="true" customWidth="true" width="3.5" collapsed="true"/>
+    <col min="250" max="250" bestFit="true" customWidth="true" width="3.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24405" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24411" uniqueCount="670">
   <si>
     <t>transactionName</t>
   </si>
@@ -2016,6 +2016,21 @@
   <si>
     <t>01.46 PM</t>
   </si>
+  <si>
+    <t>tran7863676605</t>
+  </si>
+  <si>
+    <t>transaction17863676605</t>
+  </si>
+  <si>
+    <t>4852527582</t>
+  </si>
+  <si>
+    <t>2243684335</t>
+  </si>
+  <si>
+    <t>11.37 AM</t>
+  </si>
 </sst>
 </file>
 
@@ -2800,10 +2815,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2863,7 +2878,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3061,10 +3076,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B3" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3085,7 +3100,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24411" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24447" uniqueCount="700">
   <si>
     <t>transactionName</t>
   </si>
@@ -2031,6 +2031,96 @@
   <si>
     <t>11.37 AM</t>
   </si>
+  <si>
+    <t>tran1215745261</t>
+  </si>
+  <si>
+    <t>transaction11215745261</t>
+  </si>
+  <si>
+    <t>5750897367</t>
+  </si>
+  <si>
+    <t>4727947842</t>
+  </si>
+  <si>
+    <t>11.30 AM</t>
+  </si>
+  <si>
+    <t>tran4886015958</t>
+  </si>
+  <si>
+    <t>transaction14886015958</t>
+  </si>
+  <si>
+    <t>3286160640</t>
+  </si>
+  <si>
+    <t>4428146097</t>
+  </si>
+  <si>
+    <t>11.40 AM</t>
+  </si>
+  <si>
+    <t>tran3930186504</t>
+  </si>
+  <si>
+    <t>transaction13930186504</t>
+  </si>
+  <si>
+    <t>1780362562</t>
+  </si>
+  <si>
+    <t>4614345245</t>
+  </si>
+  <si>
+    <t>11.50 AM</t>
+  </si>
+  <si>
+    <t>tran1284155459</t>
+  </si>
+  <si>
+    <t>transaction11284155459</t>
+  </si>
+  <si>
+    <t>6766912461</t>
+  </si>
+  <si>
+    <t>8224263551</t>
+  </si>
+  <si>
+    <t>11.55 AM</t>
+  </si>
+  <si>
+    <t>tran6351684103</t>
+  </si>
+  <si>
+    <t>transaction16351684103</t>
+  </si>
+  <si>
+    <t>6032938676</t>
+  </si>
+  <si>
+    <t>1448361892</t>
+  </si>
+  <si>
+    <t>12.05 PM</t>
+  </si>
+  <si>
+    <t>tran4968110941</t>
+  </si>
+  <si>
+    <t>transaction14968110941</t>
+  </si>
+  <si>
+    <t>1017252567</t>
+  </si>
+  <si>
+    <t>5688238352</t>
+  </si>
+  <si>
+    <t>12.52 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2815,10 +2905,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>665</v>
+        <v>695</v>
       </c>
       <c r="B2" t="s">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2878,7 +2968,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3076,10 +3166,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>666</v>
+        <v>696</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>698</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3100,7 +3190,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>669</v>
+        <v>699</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24447" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24477" uniqueCount="725">
   <si>
     <t>transactionName</t>
   </si>
@@ -2121,6 +2121,81 @@
   <si>
     <t>12.52 PM</t>
   </si>
+  <si>
+    <t>tran5105728228</t>
+  </si>
+  <si>
+    <t>transaction15105728228</t>
+  </si>
+  <si>
+    <t>6451599200</t>
+  </si>
+  <si>
+    <t>3153428824</t>
+  </si>
+  <si>
+    <t>11.12 AM</t>
+  </si>
+  <si>
+    <t>tran3814018247</t>
+  </si>
+  <si>
+    <t>transaction13814018247</t>
+  </si>
+  <si>
+    <t>6510260101</t>
+  </si>
+  <si>
+    <t>8160920283</t>
+  </si>
+  <si>
+    <t>05.57 PM</t>
+  </si>
+  <si>
+    <t>tran4791195695</t>
+  </si>
+  <si>
+    <t>transaction14791195695</t>
+  </si>
+  <si>
+    <t>6664213389</t>
+  </si>
+  <si>
+    <t>4877916348</t>
+  </si>
+  <si>
+    <t>09.45 AM</t>
+  </si>
+  <si>
+    <t>tran6013879990</t>
+  </si>
+  <si>
+    <t>transaction16013879990</t>
+  </si>
+  <si>
+    <t>4869506858</t>
+  </si>
+  <si>
+    <t>5844718010</t>
+  </si>
+  <si>
+    <t>10.24 AM</t>
+  </si>
+  <si>
+    <t>tran6275054905</t>
+  </si>
+  <si>
+    <t>transaction16275054905</t>
+  </si>
+  <si>
+    <t>7158038961</t>
+  </si>
+  <si>
+    <t>8803321960</t>
+  </si>
+  <si>
+    <t>11.20 AM</t>
+  </si>
 </sst>
 </file>
 
@@ -2905,10 +2980,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2968,7 +3043,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3166,10 +3241,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3190,7 +3265,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24477" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24483" uniqueCount="730">
   <si>
     <t>transactionName</t>
   </si>
@@ -2196,6 +2196,21 @@
   <si>
     <t>11.20 AM</t>
   </si>
+  <si>
+    <t>tran2666711182</t>
+  </si>
+  <si>
+    <t>transaction12666711182</t>
+  </si>
+  <si>
+    <t>6858458267</t>
+  </si>
+  <si>
+    <t>9051304359</t>
+  </si>
+  <si>
+    <t>12.37 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2980,10 +2995,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3043,7 +3058,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3241,10 +3256,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B3" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3265,7 +3280,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24483" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24489" uniqueCount="735">
   <si>
     <t>transactionName</t>
   </si>
@@ -2211,6 +2211,21 @@
   <si>
     <t>12.37 PM</t>
   </si>
+  <si>
+    <t>tran8372133763</t>
+  </si>
+  <si>
+    <t>transaction18372133763</t>
+  </si>
+  <si>
+    <t>5109905583</t>
+  </si>
+  <si>
+    <t>6242482662</t>
+  </si>
+  <si>
+    <t>01.21 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2995,10 +3010,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3058,7 +3073,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3256,10 +3271,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B3" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3280,7 +3295,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24489" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24507" uniqueCount="750">
   <si>
     <t>transactionName</t>
   </si>
@@ -2226,6 +2226,51 @@
   <si>
     <t>01.21 PM</t>
   </si>
+  <si>
+    <t>tran9917053310</t>
+  </si>
+  <si>
+    <t>transaction19917053310</t>
+  </si>
+  <si>
+    <t>4578894423</t>
+  </si>
+  <si>
+    <t>5083501852</t>
+  </si>
+  <si>
+    <t>04.00 PM</t>
+  </si>
+  <si>
+    <t>tran6526992040</t>
+  </si>
+  <si>
+    <t>transaction16526992040</t>
+  </si>
+  <si>
+    <t>6792387700</t>
+  </si>
+  <si>
+    <t>6246209668</t>
+  </si>
+  <si>
+    <t>04.08 PM</t>
+  </si>
+  <si>
+    <t>tran6099935064</t>
+  </si>
+  <si>
+    <t>transaction16099935064</t>
+  </si>
+  <si>
+    <t>1359472530</t>
+  </si>
+  <si>
+    <t>4842217831</t>
+  </si>
+  <si>
+    <t>04.16 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -3010,10 +3055,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B2" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3073,7 +3118,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3271,10 +3316,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="B3" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3295,7 +3340,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\20 june\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\9Oct\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24507" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24399" uniqueCount="660">
   <si>
     <t>transactionName</t>
   </si>
@@ -1972,304 +1972,34 @@
     <t>ACCRAK1867</t>
   </si>
   <si>
-    <t>8303135954</t>
+    <t>tran8653227731</t>
   </si>
   <si>
-    <t>5620312850</t>
+    <t>transaction18653227731</t>
   </si>
   <si>
-    <t>12.17 PM</t>
+    <t>2369729480</t>
   </si>
   <si>
-    <t>tran9939963151c</t>
+    <t>8867573668</t>
   </si>
   <si>
-    <t>transaction1993996c3151</t>
+    <t>03.39 PM</t>
   </si>
   <si>
-    <t>tran1146723078</t>
+    <t>tran7775271136</t>
   </si>
   <si>
-    <t>transaction11146723078</t>
+    <t>transaction17775271136</t>
   </si>
   <si>
-    <t>1642080765</t>
+    <t>9014569087</t>
   </si>
   <si>
-    <t>2103265690</t>
+    <t>4975330404</t>
   </si>
   <si>
-    <t>10.18 AM</t>
-  </si>
-  <si>
-    <t>tran8966713347</t>
-  </si>
-  <si>
-    <t>transaction18966713347</t>
-  </si>
-  <si>
-    <t>5616027373</t>
-  </si>
-  <si>
-    <t>5113262304</t>
-  </si>
-  <si>
-    <t>01.46 PM</t>
-  </si>
-  <si>
-    <t>tran7863676605</t>
-  </si>
-  <si>
-    <t>transaction17863676605</t>
-  </si>
-  <si>
-    <t>4852527582</t>
-  </si>
-  <si>
-    <t>2243684335</t>
-  </si>
-  <si>
-    <t>11.37 AM</t>
-  </si>
-  <si>
-    <t>tran1215745261</t>
-  </si>
-  <si>
-    <t>transaction11215745261</t>
-  </si>
-  <si>
-    <t>5750897367</t>
-  </si>
-  <si>
-    <t>4727947842</t>
-  </si>
-  <si>
-    <t>11.30 AM</t>
-  </si>
-  <si>
-    <t>tran4886015958</t>
-  </si>
-  <si>
-    <t>transaction14886015958</t>
-  </si>
-  <si>
-    <t>3286160640</t>
-  </si>
-  <si>
-    <t>4428146097</t>
-  </si>
-  <si>
-    <t>11.40 AM</t>
-  </si>
-  <si>
-    <t>tran3930186504</t>
-  </si>
-  <si>
-    <t>transaction13930186504</t>
-  </si>
-  <si>
-    <t>1780362562</t>
-  </si>
-  <si>
-    <t>4614345245</t>
-  </si>
-  <si>
-    <t>11.50 AM</t>
-  </si>
-  <si>
-    <t>tran1284155459</t>
-  </si>
-  <si>
-    <t>transaction11284155459</t>
-  </si>
-  <si>
-    <t>6766912461</t>
-  </si>
-  <si>
-    <t>8224263551</t>
-  </si>
-  <si>
-    <t>11.55 AM</t>
-  </si>
-  <si>
-    <t>tran6351684103</t>
-  </si>
-  <si>
-    <t>transaction16351684103</t>
-  </si>
-  <si>
-    <t>6032938676</t>
-  </si>
-  <si>
-    <t>1448361892</t>
-  </si>
-  <si>
-    <t>12.05 PM</t>
-  </si>
-  <si>
-    <t>tran4968110941</t>
-  </si>
-  <si>
-    <t>transaction14968110941</t>
-  </si>
-  <si>
-    <t>1017252567</t>
-  </si>
-  <si>
-    <t>5688238352</t>
-  </si>
-  <si>
-    <t>12.52 PM</t>
-  </si>
-  <si>
-    <t>tran5105728228</t>
-  </si>
-  <si>
-    <t>transaction15105728228</t>
-  </si>
-  <si>
-    <t>6451599200</t>
-  </si>
-  <si>
-    <t>3153428824</t>
-  </si>
-  <si>
-    <t>11.12 AM</t>
-  </si>
-  <si>
-    <t>tran3814018247</t>
-  </si>
-  <si>
-    <t>transaction13814018247</t>
-  </si>
-  <si>
-    <t>6510260101</t>
-  </si>
-  <si>
-    <t>8160920283</t>
-  </si>
-  <si>
-    <t>05.57 PM</t>
-  </si>
-  <si>
-    <t>tran4791195695</t>
-  </si>
-  <si>
-    <t>transaction14791195695</t>
-  </si>
-  <si>
-    <t>6664213389</t>
-  </si>
-  <si>
-    <t>4877916348</t>
-  </si>
-  <si>
-    <t>09.45 AM</t>
-  </si>
-  <si>
-    <t>tran6013879990</t>
-  </si>
-  <si>
-    <t>transaction16013879990</t>
-  </si>
-  <si>
-    <t>4869506858</t>
-  </si>
-  <si>
-    <t>5844718010</t>
-  </si>
-  <si>
-    <t>10.24 AM</t>
-  </si>
-  <si>
-    <t>tran6275054905</t>
-  </si>
-  <si>
-    <t>transaction16275054905</t>
-  </si>
-  <si>
-    <t>7158038961</t>
-  </si>
-  <si>
-    <t>8803321960</t>
-  </si>
-  <si>
-    <t>11.20 AM</t>
-  </si>
-  <si>
-    <t>tran2666711182</t>
-  </si>
-  <si>
-    <t>transaction12666711182</t>
-  </si>
-  <si>
-    <t>6858458267</t>
-  </si>
-  <si>
-    <t>9051304359</t>
-  </si>
-  <si>
-    <t>12.37 PM</t>
-  </si>
-  <si>
-    <t>tran8372133763</t>
-  </si>
-  <si>
-    <t>transaction18372133763</t>
-  </si>
-  <si>
-    <t>5109905583</t>
-  </si>
-  <si>
-    <t>6242482662</t>
-  </si>
-  <si>
-    <t>01.21 PM</t>
-  </si>
-  <si>
-    <t>tran9917053310</t>
-  </si>
-  <si>
-    <t>transaction19917053310</t>
-  </si>
-  <si>
-    <t>4578894423</t>
-  </si>
-  <si>
-    <t>5083501852</t>
-  </si>
-  <si>
-    <t>04.00 PM</t>
-  </si>
-  <si>
-    <t>tran6526992040</t>
-  </si>
-  <si>
-    <t>transaction16526992040</t>
-  </si>
-  <si>
-    <t>6792387700</t>
-  </si>
-  <si>
-    <t>6246209668</t>
-  </si>
-  <si>
-    <t>04.08 PM</t>
-  </si>
-  <si>
-    <t>tran6099935064</t>
-  </si>
-  <si>
-    <t>transaction16099935064</t>
-  </si>
-  <si>
-    <t>1359472530</t>
-  </si>
-  <si>
-    <t>4842217831</t>
-  </si>
-  <si>
-    <t>04.16 PM</t>
+    <t>06.09 PM</t>
   </si>
 </sst>
 </file>
@@ -2663,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3055,10 +2785,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>655</v>
       </c>
       <c r="B2" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3118,7 +2848,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3127,7 +2857,7 @@
         <v>97</v>
       </c>
       <c r="Y2" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>645</v>
@@ -3316,10 +3046,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>746</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
-        <v>748</v>
+        <v>658</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3340,13 +3070,13 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>749</v>
+        <v>659</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Y3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>645</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\9Oct\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24399" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24429" uniqueCount="684">
   <si>
     <t>transactionName</t>
   </si>
@@ -1960,46 +1960,118 @@
     <t>SCBLINBB</t>
   </si>
   <si>
-    <t>ADD1</t>
-  </si>
-  <si>
     <t>ADD2</t>
   </si>
   <si>
-    <t>ACCRAK132</t>
+    <t>tran3908076670</t>
   </si>
   <si>
-    <t>ACCRAK1867</t>
+    <t>transaction13908076670</t>
   </si>
   <si>
-    <t>tran8653227731</t>
+    <t>3722303930</t>
   </si>
   <si>
-    <t>transaction18653227731</t>
+    <t>6993615013</t>
   </si>
   <si>
-    <t>2369729480</t>
+    <t>11.20 AM</t>
   </si>
   <si>
-    <t>8867573668</t>
+    <t>ACCRAK1868</t>
   </si>
   <si>
-    <t>03.39 PM</t>
+    <t>ACCRAK1327</t>
   </si>
   <si>
-    <t>tran7775271136</t>
+    <t>ADD3</t>
   </si>
   <si>
-    <t>transaction17775271136</t>
+    <t>tran8240935293</t>
   </si>
   <si>
-    <t>9014569087</t>
+    <t>transaction18240935293</t>
   </si>
   <si>
-    <t>4975330404</t>
+    <t>5642006359</t>
   </si>
   <si>
-    <t>06.09 PM</t>
+    <t>8631169213</t>
+  </si>
+  <si>
+    <t>11.45 AM</t>
+  </si>
+  <si>
+    <t>tran8379587651</t>
+  </si>
+  <si>
+    <t>transaction18379587651</t>
+  </si>
+  <si>
+    <t>5034255779</t>
+  </si>
+  <si>
+    <t>1668976285</t>
+  </si>
+  <si>
+    <t>12.25 PM</t>
+  </si>
+  <si>
+    <t>tran9404191945</t>
+  </si>
+  <si>
+    <t>transaction19404191945</t>
+  </si>
+  <si>
+    <t>8826774734</t>
+  </si>
+  <si>
+    <t>1869296936</t>
+  </si>
+  <si>
+    <t>06.05 PM</t>
+  </si>
+  <si>
+    <t>tran9516711915</t>
+  </si>
+  <si>
+    <t>transaction19516711915</t>
+  </si>
+  <si>
+    <t>9391224785</t>
+  </si>
+  <si>
+    <t>1555366948</t>
+  </si>
+  <si>
+    <t>tran2250786786</t>
+  </si>
+  <si>
+    <t>transaction12250786786</t>
+  </si>
+  <si>
+    <t>9544172509</t>
+  </si>
+  <si>
+    <t>9024598474</t>
+  </si>
+  <si>
+    <t>06.27 PM</t>
+  </si>
+  <si>
+    <t>tran2427763304</t>
+  </si>
+  <si>
+    <t>transaction12427763304</t>
+  </si>
+  <si>
+    <t>1092486528</t>
+  </si>
+  <si>
+    <t>3507109927</t>
+  </si>
+  <si>
+    <t>06.41 PM</t>
   </si>
 </sst>
 </file>
@@ -2393,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BL3" sqref="BL3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2785,10 +2857,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="B2" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2848,7 +2920,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -2857,7 +2929,7 @@
         <v>97</v>
       </c>
       <c r="Y2" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>645</v>
@@ -2873,7 +2945,7 @@
       </c>
       <c r="AD2" s="2"/>
       <c r="AE2" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AF2" t="s">
         <v>97</v>
@@ -2897,7 +2969,7 @@
         <v>646</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="AN2" s="3" t="s">
         <v>488</v>
@@ -3046,10 +3118,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3070,13 +3142,13 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Y3" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>645</v>
@@ -3089,13 +3161,13 @@
       </c>
       <c r="AD3" s="2"/>
       <c r="AE3" s="1" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>646</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>488</v>
@@ -3132,7 +3204,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 F2:J2 L1:U1 L2:R2 T2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:CO2 CQ2:CS2 V2 W1:CS1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 F2:J2 L1:U1 L2:R2 T2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:CO2 CQ2:CS2 W1:CS1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24488" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24530" uniqueCount="769">
   <si>
     <t>transactionName</t>
   </si>
@@ -2223,6 +2223,111 @@
   <si>
     <t>11.47 AM</t>
   </si>
+  <si>
+    <t>tran7489932695</t>
+  </si>
+  <si>
+    <t>transaction17489932695</t>
+  </si>
+  <si>
+    <t>7496801538</t>
+  </si>
+  <si>
+    <t>6668110401</t>
+  </si>
+  <si>
+    <t>10.22 AM</t>
+  </si>
+  <si>
+    <t>tran8091203017</t>
+  </si>
+  <si>
+    <t>transaction18091203017</t>
+  </si>
+  <si>
+    <t>4699107569</t>
+  </si>
+  <si>
+    <t>4407876632</t>
+  </si>
+  <si>
+    <t>10.44 AM</t>
+  </si>
+  <si>
+    <t>tran6648717508</t>
+  </si>
+  <si>
+    <t>transaction16648717508</t>
+  </si>
+  <si>
+    <t>2218190426</t>
+  </si>
+  <si>
+    <t>3947572804</t>
+  </si>
+  <si>
+    <t>10.57 AM</t>
+  </si>
+  <si>
+    <t>tran3960952692</t>
+  </si>
+  <si>
+    <t>transaction13960952692</t>
+  </si>
+  <si>
+    <t>2888213631</t>
+  </si>
+  <si>
+    <t>3046133329</t>
+  </si>
+  <si>
+    <t>11.03 AM</t>
+  </si>
+  <si>
+    <t>tran7948168480</t>
+  </si>
+  <si>
+    <t>transaction17948168480</t>
+  </si>
+  <si>
+    <t>3520619702</t>
+  </si>
+  <si>
+    <t>7073974788</t>
+  </si>
+  <si>
+    <t>11.09 AM</t>
+  </si>
+  <si>
+    <t>tran6490486962</t>
+  </si>
+  <si>
+    <t>transaction16490486962</t>
+  </si>
+  <si>
+    <t>5399550501</t>
+  </si>
+  <si>
+    <t>1781489870</t>
+  </si>
+  <si>
+    <t>11.30 AM</t>
+  </si>
+  <si>
+    <t>tran9650383448</t>
+  </si>
+  <si>
+    <t>transaction19650383448</t>
+  </si>
+  <si>
+    <t>3780550546</t>
+  </si>
+  <si>
+    <t>6451863160</t>
+  </si>
+  <si>
+    <t>12.05 PM</t>
+  </si>
 </sst>
 </file>
 
@@ -3007,10 +3112,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="B2" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3070,7 +3175,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3268,10 +3373,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="B3" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3292,7 +3397,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\30 March\10MayNew\29May-Main\9Oct\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24530" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24400" uniqueCount="662">
   <si>
     <t>transactionName</t>
   </si>
@@ -1972,361 +1972,40 @@
     <t>ACCRAK1867</t>
   </si>
   <si>
-    <t>tran2824492469</t>
+    <t>tran8456928681</t>
   </si>
   <si>
-    <t>transaction12824492469</t>
+    <t>transaction18456928681</t>
   </si>
   <si>
-    <t>8188244029</t>
+    <t>1257282089</t>
   </si>
   <si>
-    <t>1987511998</t>
+    <t>6972999134</t>
   </si>
   <si>
-    <t>tran4900991552</t>
+    <t>12.54 PM</t>
   </si>
   <si>
-    <t>transaction14900991552</t>
+    <t>SBI463</t>
   </si>
   <si>
-    <t>9053892786</t>
+    <t>SBI4634324</t>
   </si>
   <si>
-    <t>1872364902</t>
+    <t>tran1810945966</t>
   </si>
   <si>
-    <t>11.37 AM</t>
+    <t>transaction11810945966</t>
   </si>
   <si>
-    <t>tran5751985401</t>
+    <t>2568211673</t>
   </si>
   <si>
-    <t>transaction15751985401</t>
+    <t>8705192721</t>
   </si>
   <si>
-    <t>2553774071</t>
-  </si>
-  <si>
-    <t>4814091974</t>
-  </si>
-  <si>
-    <t>12.18 PM</t>
-  </si>
-  <si>
-    <t>tran6515111970</t>
-  </si>
-  <si>
-    <t>transaction16515111970</t>
-  </si>
-  <si>
-    <t>7846345842</t>
-  </si>
-  <si>
-    <t>5212267249</t>
-  </si>
-  <si>
-    <t>12.57 PM</t>
-  </si>
-  <si>
-    <t>tran4260025472</t>
-  </si>
-  <si>
-    <t>transaction14260025472</t>
-  </si>
-  <si>
-    <t>2222959970</t>
-  </si>
-  <si>
-    <t>4169697419</t>
-  </si>
-  <si>
-    <t>01.05 PM</t>
-  </si>
-  <si>
-    <t>tran2961849940</t>
-  </si>
-  <si>
-    <t>transaction12961849940</t>
-  </si>
-  <si>
-    <t>5968735885</t>
-  </si>
-  <si>
-    <t>2709705659</t>
-  </si>
-  <si>
-    <t>01.16 PM</t>
-  </si>
-  <si>
-    <t>tran4965433832</t>
-  </si>
-  <si>
-    <t>transaction14965433832</t>
-  </si>
-  <si>
-    <t>8037772175</t>
-  </si>
-  <si>
-    <t>8046481903</t>
-  </si>
-  <si>
-    <t>02.35 PM</t>
-  </si>
-  <si>
-    <t>tran7083747862</t>
-  </si>
-  <si>
-    <t>transaction17083747862</t>
-  </si>
-  <si>
-    <t>8382692307</t>
-  </si>
-  <si>
-    <t>3679862499</t>
-  </si>
-  <si>
-    <t>03.51 PM</t>
-  </si>
-  <si>
-    <t>tran3800447970</t>
-  </si>
-  <si>
-    <t>transaction13800447970</t>
-  </si>
-  <si>
-    <t>1927934092</t>
-  </si>
-  <si>
-    <t>3163916840</t>
-  </si>
-  <si>
-    <t>04.05 PM</t>
-  </si>
-  <si>
-    <t>tran9609146007</t>
-  </si>
-  <si>
-    <t>transaction19609146007</t>
-  </si>
-  <si>
-    <t>1444715759</t>
-  </si>
-  <si>
-    <t>3099884742</t>
-  </si>
-  <si>
-    <t>04.08 PM</t>
-  </si>
-  <si>
-    <t>tran4598281393</t>
-  </si>
-  <si>
-    <t>transaction14598281393</t>
-  </si>
-  <si>
-    <t>3865389061</t>
-  </si>
-  <si>
-    <t>9591483918</t>
-  </si>
-  <si>
-    <t>05.46 PM</t>
-  </si>
-  <si>
-    <t>tran2067055416</t>
-  </si>
-  <si>
-    <t>transaction12067055416</t>
-  </si>
-  <si>
-    <t>2310048982</t>
-  </si>
-  <si>
-    <t>7211318695</t>
-  </si>
-  <si>
-    <t>05.58 PM</t>
-  </si>
-  <si>
-    <t>tran1580889644</t>
-  </si>
-  <si>
-    <t>transaction11580889644</t>
-  </si>
-  <si>
-    <t>1536157811</t>
-  </si>
-  <si>
-    <t>9979000024</t>
-  </si>
-  <si>
-    <t>10.16 AM</t>
-  </si>
-  <si>
-    <t>tran8231494953</t>
-  </si>
-  <si>
-    <t>transaction18231494953</t>
-  </si>
-  <si>
-    <t>2977110997</t>
-  </si>
-  <si>
-    <t>1574214716</t>
-  </si>
-  <si>
-    <t>05.00 PM</t>
-  </si>
-  <si>
-    <t>tran2035892075</t>
-  </si>
-  <si>
-    <t>transaction12035892075</t>
-  </si>
-  <si>
-    <t>3796723388</t>
-  </si>
-  <si>
-    <t>9236412898</t>
-  </si>
-  <si>
-    <t>05.29 PM</t>
-  </si>
-  <si>
-    <t>tran5002980012</t>
-  </si>
-  <si>
-    <t>transaction15002980012</t>
-  </si>
-  <si>
-    <t>8099308384</t>
-  </si>
-  <si>
-    <t>8142655474</t>
-  </si>
-  <si>
-    <t>05.54 PM</t>
-  </si>
-  <si>
-    <t>tran4084658186</t>
-  </si>
-  <si>
-    <t>transaction14084658186</t>
-  </si>
-  <si>
-    <t>1787168962</t>
-  </si>
-  <si>
-    <t>3048550635</t>
-  </si>
-  <si>
-    <t>11.47 AM</t>
-  </si>
-  <si>
-    <t>tran7489932695</t>
-  </si>
-  <si>
-    <t>transaction17489932695</t>
-  </si>
-  <si>
-    <t>7496801538</t>
-  </si>
-  <si>
-    <t>6668110401</t>
-  </si>
-  <si>
-    <t>10.22 AM</t>
-  </si>
-  <si>
-    <t>tran8091203017</t>
-  </si>
-  <si>
-    <t>transaction18091203017</t>
-  </si>
-  <si>
-    <t>4699107569</t>
-  </si>
-  <si>
-    <t>4407876632</t>
-  </si>
-  <si>
-    <t>10.44 AM</t>
-  </si>
-  <si>
-    <t>tran6648717508</t>
-  </si>
-  <si>
-    <t>transaction16648717508</t>
-  </si>
-  <si>
-    <t>2218190426</t>
-  </si>
-  <si>
-    <t>3947572804</t>
-  </si>
-  <si>
-    <t>10.57 AM</t>
-  </si>
-  <si>
-    <t>tran3960952692</t>
-  </si>
-  <si>
-    <t>transaction13960952692</t>
-  </si>
-  <si>
-    <t>2888213631</t>
-  </si>
-  <si>
-    <t>3046133329</t>
-  </si>
-  <si>
-    <t>11.03 AM</t>
-  </si>
-  <si>
-    <t>tran7948168480</t>
-  </si>
-  <si>
-    <t>transaction17948168480</t>
-  </si>
-  <si>
-    <t>3520619702</t>
-  </si>
-  <si>
-    <t>7073974788</t>
-  </si>
-  <si>
-    <t>11.09 AM</t>
-  </si>
-  <si>
-    <t>tran6490486962</t>
-  </si>
-  <si>
-    <t>transaction16490486962</t>
-  </si>
-  <si>
-    <t>5399550501</t>
-  </si>
-  <si>
-    <t>1781489870</t>
-  </si>
-  <si>
-    <t>11.30 AM</t>
-  </si>
-  <si>
-    <t>tran9650383448</t>
-  </si>
-  <si>
-    <t>transaction19650383448</t>
-  </si>
-  <si>
-    <t>3780550546</t>
-  </si>
-  <si>
-    <t>6451863160</t>
-  </si>
-  <si>
-    <t>12.05 PM</t>
+    <t>01.15 PM</t>
   </si>
 </sst>
 </file>
@@ -2720,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="BZ3" sqref="BZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3112,10 +2791,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>764</v>
+        <v>657</v>
       </c>
       <c r="B2" t="s">
-        <v>766</v>
+        <v>659</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -3175,7 +2854,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>768</v>
+        <v>661</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3311,7 +2990,7 @@
         <v>97</v>
       </c>
       <c r="BZ2" t="s">
-        <v>97</v>
+        <v>655</v>
       </c>
       <c r="CA2" t="s">
         <v>97</v>
@@ -3373,10 +3052,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>765</v>
+        <v>658</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>660</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3397,7 +3076,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>768</v>
+        <v>661</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>
@@ -3451,6 +3130,9 @@
       <c r="BU3" t="s">
         <v>632</v>
       </c>
+      <c r="BZ3" t="s">
+        <v>656</v>
+      </c>
       <c r="CP3" t="s">
         <v>643</v>
       </c>
@@ -3459,7 +3141,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J1 F2:J2 L1:U1 L2:R2 T2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:CO2 CQ2:CS2 V2 W1:CS1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1 F2:J2 L1:U1 L2:R2 T2 X2 AA2 AF2:AK2 BE2:BR2 BT2 BV2:BY2 CQ2:CS2 V2 W1:CS1 CA2:CO2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24400" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24430" uniqueCount="687">
   <si>
     <t>transactionName</t>
   </si>
@@ -2007,6 +2007,81 @@
   <si>
     <t>01.15 PM</t>
   </si>
+  <si>
+    <t>tran1701777874</t>
+  </si>
+  <si>
+    <t>transaction11701777874</t>
+  </si>
+  <si>
+    <t>8072939087</t>
+  </si>
+  <si>
+    <t>1146610959</t>
+  </si>
+  <si>
+    <t>04:35PM</t>
+  </si>
+  <si>
+    <t>tran7325848997</t>
+  </si>
+  <si>
+    <t>transaction17325848997</t>
+  </si>
+  <si>
+    <t>8767644689</t>
+  </si>
+  <si>
+    <t>8602283326</t>
+  </si>
+  <si>
+    <t>04:45PM</t>
+  </si>
+  <si>
+    <t>tran6719558367</t>
+  </si>
+  <si>
+    <t>transaction16719558367</t>
+  </si>
+  <si>
+    <t>6387599715</t>
+  </si>
+  <si>
+    <t>8708702105</t>
+  </si>
+  <si>
+    <t>07:01PM</t>
+  </si>
+  <si>
+    <t>tran2590826239</t>
+  </si>
+  <si>
+    <t>transaction12590826239</t>
+  </si>
+  <si>
+    <t>6464277473</t>
+  </si>
+  <si>
+    <t>1109635083</t>
+  </si>
+  <si>
+    <t>12:15PM</t>
+  </si>
+  <si>
+    <t>tran2005938160</t>
+  </si>
+  <si>
+    <t>transaction12005938160</t>
+  </si>
+  <si>
+    <t>2673510887</t>
+  </si>
+  <si>
+    <t>8117635140</t>
+  </si>
+  <si>
+    <t>04:17PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2791,10 +2866,10 @@
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
         <v>488</v>
@@ -2854,7 +2929,7 @@
         <v>109</v>
       </c>
       <c r="V2" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>103</v>
@@ -3052,10 +3127,10 @@
     </row>
     <row r="3" spans="1:97" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
         <v>488</v>
@@ -3076,7 +3151,7 @@
         <v>109</v>
       </c>
       <c r="V3" t="s">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>103</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25184" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25196" uniqueCount="682">
   <si>
     <t>tran1260483314</t>
   </si>
@@ -2037,6 +2037,36 @@
   <si>
     <t>11:22AM</t>
   </si>
+  <si>
+    <t>tran8333221139</t>
+  </si>
+  <si>
+    <t>transaction18333221139</t>
+  </si>
+  <si>
+    <t>6843036784</t>
+  </si>
+  <si>
+    <t>4410023306</t>
+  </si>
+  <si>
+    <t>09:48AM</t>
+  </si>
+  <si>
+    <t>tran8390305805</t>
+  </si>
+  <si>
+    <t>transaction18390305805</t>
+  </si>
+  <si>
+    <t>5868958555</t>
+  </si>
+  <si>
+    <t>6611981870</t>
+  </si>
+  <si>
+    <t>05:22PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2804,10 +2834,10 @@
     </row>
     <row r="2" spans="1:96" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="B2" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="C2" t="s">
         <v>500</v>
@@ -2864,7 +2894,7 @@
         <v>101</v>
       </c>
       <c r="U2" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="V2" t="s">
         <v>101</v>
@@ -3094,10 +3124,10 @@
     </row>
     <row r="3" spans="1:96" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="B3" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C3" t="s">
         <v>500</v>
@@ -3115,7 +3145,7 @@
         <v>146</v>
       </c>
       <c r="U3" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="AD3">
         <v>500</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25196" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25202" uniqueCount="687">
   <si>
     <t>tran1260483314</t>
   </si>
@@ -2067,6 +2067,21 @@
   <si>
     <t>05:22PM</t>
   </si>
+  <si>
+    <t>tran2019766708</t>
+  </si>
+  <si>
+    <t>transaction12019766708</t>
+  </si>
+  <si>
+    <t>2313291345</t>
+  </si>
+  <si>
+    <t>9216191156</t>
+  </si>
+  <si>
+    <t>04:20PM</t>
+  </si>
 </sst>
 </file>
 
@@ -2834,10 +2849,10 @@
     </row>
     <row r="2" spans="1:96" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C2" t="s">
         <v>500</v>
@@ -2894,7 +2909,7 @@
         <v>101</v>
       </c>
       <c r="U2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="V2" t="s">
         <v>101</v>
@@ -3124,10 +3139,10 @@
     </row>
     <row r="3" spans="1:96" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B3" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C3" t="s">
         <v>500</v>
@@ -3145,7 +3160,7 @@
         <v>146</v>
       </c>
       <c r="U3" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="AD3">
         <v>500</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24474" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24506" uniqueCount="722">
   <si>
     <t>transactionName</t>
   </si>
@@ -2103,6 +2103,90 @@
   <si>
     <t>'7632229805</t>
   </si>
+  <si>
+    <t>tran5106340655</t>
+  </si>
+  <si>
+    <t>transaction15106340655</t>
+  </si>
+  <si>
+    <t>5244195858</t>
+  </si>
+  <si>
+    <t>8268748342</t>
+  </si>
+  <si>
+    <t>02:35PM</t>
+  </si>
+  <si>
+    <t>'8268748342</t>
+  </si>
+  <si>
+    <t>'5244195858</t>
+  </si>
+  <si>
+    <t>tran7288581391</t>
+  </si>
+  <si>
+    <t>transaction17288581391</t>
+  </si>
+  <si>
+    <t>4284088726</t>
+  </si>
+  <si>
+    <t>4585410809</t>
+  </si>
+  <si>
+    <t>03:57PM</t>
+  </si>
+  <si>
+    <t>'4585410809</t>
+  </si>
+  <si>
+    <t>'4284088726</t>
+  </si>
+  <si>
+    <t>tran9439064621</t>
+  </si>
+  <si>
+    <t>transaction19439064621</t>
+  </si>
+  <si>
+    <t>5729180885</t>
+  </si>
+  <si>
+    <t>1526357687</t>
+  </si>
+  <si>
+    <t>10:58PM</t>
+  </si>
+  <si>
+    <t>'1526357687</t>
+  </si>
+  <si>
+    <t>'5729180885</t>
+  </si>
+  <si>
+    <t>tran3058161149</t>
+  </si>
+  <si>
+    <t>transaction13058161149</t>
+  </si>
+  <si>
+    <t>1505706914</t>
+  </si>
+  <si>
+    <t>6096671067</t>
+  </si>
+  <si>
+    <t>04:54PM</t>
+  </si>
+  <si>
+    <t>'6096671067</t>
+  </si>
+  <si>
+    <t>'1505706914</t>
+  </si>
 </sst>
 </file>
 
@@ -2718,10 +2802,10 @@
     </row>
     <row r="2" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -2747,7 +2831,7 @@
         <v>103</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="AD2" s="6">
         <v>500</v>
@@ -2759,7 +2843,7 @@
         <v>105</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>106</v>
@@ -2782,10 +2866,10 @@
     </row>
     <row r="3" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -2811,7 +2895,7 @@
         <v>103</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="AD3" s="6">
         <v>500</v>
@@ -2823,7 +2907,7 @@
         <v>105</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>106</v>

--- a/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
+++ b/src/main/resources/Bulk_ConventionalTransactions_File.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BDD_Framework\parallel testing\manisha\latest13DecCode\upp-test-automation\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\upp-test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17260" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24506" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24434" uniqueCount="663">
   <si>
     <t>transactionName</t>
   </si>
@@ -1966,226 +1966,49 @@
     <t>Corporate</t>
   </si>
   <si>
-    <t>9216191156</t>
+    <t>08-08-2024</t>
   </si>
   <si>
-    <t>5362483799</t>
+    <t>tran9502724922</t>
   </si>
   <si>
-    <t>02-06-2024</t>
+    <t>transaction19502724922</t>
   </si>
   <si>
-    <t>tran7816277284</t>
+    <t>4542785049</t>
   </si>
   <si>
-    <t>03:54PM</t>
+    <t>3649934204</t>
   </si>
   <si>
-    <t>tran6303553473</t>
+    <t>04:59PM</t>
   </si>
   <si>
-    <t>transaction16303553473</t>
+    <t>'3649934204</t>
   </si>
   <si>
-    <t>7954136428</t>
+    <t>'4542785049</t>
   </si>
   <si>
-    <t>03:59PM</t>
+    <t>tran8702237407</t>
   </si>
   <si>
-    <t>'7954136428</t>
+    <t>transaction18702237407</t>
   </si>
   <si>
-    <t>'5362483799</t>
+    <t>7248567812</t>
   </si>
   <si>
-    <t>tran6634671806</t>
+    <t>7738113351</t>
   </si>
   <si>
-    <t>transaction16634671806</t>
+    <t>05:12PM</t>
   </si>
   <si>
-    <t>9370224572</t>
+    <t>'7738113351</t>
   </si>
   <si>
-    <t>6581792010</t>
-  </si>
-  <si>
-    <t>04:09PM</t>
-  </si>
-  <si>
-    <t>'6581792010</t>
-  </si>
-  <si>
-    <t>'9370224572</t>
-  </si>
-  <si>
-    <t>tran4731601845</t>
-  </si>
-  <si>
-    <t>transaction14731601845</t>
-  </si>
-  <si>
-    <t>4393110967</t>
-  </si>
-  <si>
-    <t>7314050081</t>
-  </si>
-  <si>
-    <t>04:18PM</t>
-  </si>
-  <si>
-    <t>'7314050081</t>
-  </si>
-  <si>
-    <t>'4393110967</t>
-  </si>
-  <si>
-    <t>tran8784354070</t>
-  </si>
-  <si>
-    <t>transaction18784354070</t>
-  </si>
-  <si>
-    <t>6092224388</t>
-  </si>
-  <si>
-    <t>7227071810</t>
-  </si>
-  <si>
-    <t>04:42PM</t>
-  </si>
-  <si>
-    <t>'7227071810</t>
-  </si>
-  <si>
-    <t>'6092224388</t>
-  </si>
-  <si>
-    <t>tran1097009652</t>
-  </si>
-  <si>
-    <t>transaction11097009652</t>
-  </si>
-  <si>
-    <t>7943177186</t>
-  </si>
-  <si>
-    <t>3376131590</t>
-  </si>
-  <si>
-    <t>06:16PM</t>
-  </si>
-  <si>
-    <t>'3376131590</t>
-  </si>
-  <si>
-    <t>'7943177186</t>
-  </si>
-  <si>
-    <t>tran5536805340</t>
-  </si>
-  <si>
-    <t>transaction15536805340</t>
-  </si>
-  <si>
-    <t>7632229805</t>
-  </si>
-  <si>
-    <t>9116139247</t>
-  </si>
-  <si>
-    <t>06:27PM</t>
-  </si>
-  <si>
-    <t>'9116139247</t>
-  </si>
-  <si>
-    <t>'7632229805</t>
-  </si>
-  <si>
-    <t>tran5106340655</t>
-  </si>
-  <si>
-    <t>transaction15106340655</t>
-  </si>
-  <si>
-    <t>5244195858</t>
-  </si>
-  <si>
-    <t>8268748342</t>
-  </si>
-  <si>
-    <t>02:35PM</t>
-  </si>
-  <si>
-    <t>'8268748342</t>
-  </si>
-  <si>
-    <t>'5244195858</t>
-  </si>
-  <si>
-    <t>tran7288581391</t>
-  </si>
-  <si>
-    <t>transaction17288581391</t>
-  </si>
-  <si>
-    <t>4284088726</t>
-  </si>
-  <si>
-    <t>4585410809</t>
-  </si>
-  <si>
-    <t>03:57PM</t>
-  </si>
-  <si>
-    <t>'4585410809</t>
-  </si>
-  <si>
-    <t>'4284088726</t>
-  </si>
-  <si>
-    <t>tran9439064621</t>
-  </si>
-  <si>
-    <t>transaction19439064621</t>
-  </si>
-  <si>
-    <t>5729180885</t>
-  </si>
-  <si>
-    <t>1526357687</t>
-  </si>
-  <si>
-    <t>10:58PM</t>
-  </si>
-  <si>
-    <t>'1526357687</t>
-  </si>
-  <si>
-    <t>'5729180885</t>
-  </si>
-  <si>
-    <t>tran3058161149</t>
-  </si>
-  <si>
-    <t>transaction13058161149</t>
-  </si>
-  <si>
-    <t>1505706914</t>
-  </si>
-  <si>
-    <t>6096671067</t>
-  </si>
-  <si>
-    <t>04:54PM</t>
-  </si>
-  <si>
-    <t>'6096671067</t>
-  </si>
-  <si>
-    <t>'1505706914</t>
+    <t>'7248567812</t>
   </si>
 </sst>
 </file>
@@ -2477,34 +2300,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.8984375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.59765625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="11.19921875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.19921875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.19921875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="15.69921875" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="21.69921875" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="16.8984375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="14.69921875" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" width="18.59765625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="15.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.9140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.58203125" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="11.1640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.1640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="16.9140625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="18.58203125" collapsed="true"/>
     <col min="45" max="45" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="46" max="46" customWidth="true" width="18.69921875" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" width="20.69921875" collapsed="true"/>
-    <col min="48" max="48" customWidth="true" width="18.8984375" collapsed="true"/>
-    <col min="49" max="49" customWidth="true" width="25.3984375" collapsed="true"/>
-    <col min="76" max="76" customWidth="true" width="19.296875" collapsed="true"/>
-    <col min="79" max="79" customWidth="true" width="14.8984375" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="18.9140625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="25.4140625" collapsed="true"/>
+    <col min="76" max="76" customWidth="true" width="19.33203125" collapsed="true"/>
+    <col min="79" max="79" customWidth="true" width="14.9140625" collapsed="true"/>
     <col min="85" max="85" customWidth="true" width="23.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2800,12 +2623,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>715</v>
+        <v>656</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>717</v>
+        <v>658</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -2825,13 +2648,13 @@
         <v>102</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="AD2" s="6">
         <v>500</v>
@@ -2843,7 +2666,7 @@
         <v>105</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>720</v>
+        <v>661</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>106</v>
@@ -2864,12 +2687,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>716</v>
+        <v>657</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>718</v>
+        <v>659</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -2889,16 +2712,16 @@
         <v>102</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>103</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>719</v>
+        <v>660</v>
       </c>
       <c r="AD3" s="6">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>104</v>
@@ -2907,7 +2730,7 @@
         <v>105</v>
       </c>
       <c r="AJ3" s="8" t="s">
-        <v>721</v>
+        <v>662</v>
       </c>
       <c r="AQ3" s="1" t="s">
         <v>106</v>
@@ -2928,2305 +2751,2305 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="AD4" s="3"/>
       <c r="AJ4" s="2"/>
     </row>
-    <row r="5" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="AD5" s="3"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="AD6" s="3"/>
       <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="AD7" s="3"/>
       <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="AD8" s="3"/>
       <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="AD9" s="3"/>
       <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="AD10" s="3"/>
       <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="AD11" s="3"/>
       <c r="AJ11" s="2"/>
     </row>
-    <row r="12" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="AD12" s="3"/>
       <c r="AJ12" s="2"/>
     </row>
-    <row r="13" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="AD13" s="3"/>
       <c r="AJ13" s="2"/>
     </row>
-    <row r="14" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="AD14" s="3"/>
       <c r="AJ14" s="2"/>
     </row>
-    <row r="15" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="AD15" s="3"/>
       <c r="AJ15" s="2"/>
     </row>
-    <row r="16" spans="1:98" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:98" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="AD16" s="3"/>
       <c r="AJ16" s="2"/>
     </row>
-    <row r="17" spans="19:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="19:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="AD17" s="3"/>
       <c r="AJ17" s="2"/>
     </row>
-    <row r="18" spans="19:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="19:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="AD18" s="3"/>
       <c r="AJ18" s="2"/>
     </row>
-    <row r="19" spans="19:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="19:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="AD19" s="3"/>
       <c r="AJ19" s="2"/>
     </row>
-    <row r="20" spans="19:36" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="19:36" ht="15.5" x14ac:dyDescent="0.35">
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="AD20" s="3"/>
       <c r="AJ20" s="2"/>
     </row>
-    <row r="21" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="AD21" s="3"/>
       <c r="AJ21" s="2"/>
     </row>
-    <row r="22" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="AD22" s="3"/>
       <c r="AJ22" s="2"/>
     </row>
-    <row r="23" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="AD23" s="3"/>
       <c r="AJ23" s="2"/>
     </row>
-    <row r="24" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="AD24" s="3"/>
       <c r="AJ24" s="2"/>
     </row>
-    <row r="25" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="AD25" s="3"/>
       <c r="AJ25" s="2"/>
     </row>
-    <row r="26" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="AD26" s="3"/>
       <c r="AJ26" s="2"/>
     </row>
-    <row r="27" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="AD27" s="3"/>
       <c r="AJ27" s="2"/>
     </row>
-    <row r="28" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="AD28" s="3"/>
       <c r="AJ28" s="2"/>
     </row>
-    <row r="29" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
       <c r="AD29" s="3"/>
       <c r="AJ29" s="2"/>
     </row>
-    <row r="30" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
       <c r="AD30" s="3"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="31" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="AD31" s="3"/>
       <c r="AJ31" s="2"/>
     </row>
-    <row r="32" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="AD32" s="3"/>
       <c r="AJ32" s="2"/>
     </row>
-    <row r="33" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
       <c r="AD33" s="3"/>
       <c r="AJ33" s="2"/>
     </row>
-    <row r="34" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
       <c r="AD34" s="3"/>
       <c r="AJ34" s="2"/>
     </row>
-    <row r="35" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
       <c r="AD35" s="3"/>
       <c r="AJ35" s="2"/>
     </row>
-    <row r="36" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
       <c r="AD36" s="3"/>
       <c r="AJ36" s="2"/>
     </row>
-    <row r="37" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
       <c r="AD37" s="3"/>
       <c r="AJ37" s="2"/>
     </row>
-    <row r="38" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="AD38" s="3"/>
       <c r="AJ38" s="2"/>
     </row>
-    <row r="39" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
       <c r="U39" s="2"/>
       <c r="AD39" s="3"/>
       <c r="AJ39" s="2"/>
     </row>
-    <row r="40" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
       <c r="U40" s="2"/>
       <c r="AD40" s="3"/>
       <c r="AJ40" s="2"/>
     </row>
-    <row r="41" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
       <c r="U41" s="2"/>
       <c r="AD41" s="3"/>
       <c r="AJ41" s="2"/>
     </row>
-    <row r="42" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
       <c r="U42" s="2"/>
       <c r="AD42" s="3"/>
       <c r="AJ42" s="2"/>
     </row>
-    <row r="43" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="AD43" s="3"/>
       <c r="AJ43" s="2"/>
     </row>
-    <row r="44" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
       <c r="U44" s="2"/>
       <c r="AD44" s="3"/>
       <c r="AJ44" s="2"/>
     </row>
-    <row r="45" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
       <c r="U45" s="2"/>
       <c r="AD45" s="3"/>
       <c r="AJ45" s="2"/>
     </row>
-    <row r="46" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
       <c r="U46" s="2"/>
       <c r="AD46" s="3"/>
       <c r="AJ46" s="2"/>
     </row>
-    <row r="47" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
       <c r="U47" s="2"/>
       <c r="AD47" s="3"/>
       <c r="AJ47" s="2"/>
     </row>
-    <row r="48" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
       <c r="U48" s="2"/>
       <c r="AD48" s="3"/>
       <c r="AJ48" s="2"/>
     </row>
-    <row r="49" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="AD49" s="3"/>
       <c r="AJ49" s="2"/>
     </row>
-    <row r="50" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
       <c r="U50" s="2"/>
       <c r="AD50" s="3"/>
       <c r="AJ50" s="2"/>
     </row>
-    <row r="51" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
       <c r="U51" s="2"/>
       <c r="AD51" s="3"/>
       <c r="AJ51" s="2"/>
     </row>
-    <row r="52" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
       <c r="U52" s="2"/>
       <c r="AD52" s="3"/>
       <c r="AJ52" s="2"/>
     </row>
-    <row r="53" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
       <c r="U53" s="2"/>
       <c r="AD53" s="3"/>
       <c r="AJ53" s="2"/>
     </row>
-    <row r="54" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
       <c r="U54" s="2"/>
       <c r="AD54" s="3"/>
       <c r="AJ54" s="2"/>
     </row>
-    <row r="55" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
       <c r="U55" s="2"/>
       <c r="AD55" s="3"/>
       <c r="AJ55" s="2"/>
     </row>
-    <row r="56" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
       <c r="U56" s="2"/>
       <c r="AD56" s="3"/>
       <c r="AJ56" s="2"/>
     </row>
-    <row r="57" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
       <c r="U57" s="2"/>
       <c r="AD57" s="3"/>
       <c r="AJ57" s="2"/>
     </row>
-    <row r="58" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
       <c r="U58" s="2"/>
       <c r="AD58" s="3"/>
       <c r="AJ58" s="2"/>
     </row>
-    <row r="59" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
       <c r="U59" s="2"/>
       <c r="AD59" s="3"/>
       <c r="AJ59" s="2"/>
     </row>
-    <row r="60" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
       <c r="AD60" s="3"/>
       <c r="AJ60" s="2"/>
     </row>
-    <row r="61" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
       <c r="AD61" s="3"/>
       <c r="AJ61" s="2"/>
     </row>
-    <row r="62" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
       <c r="AD62" s="3"/>
       <c r="AJ62" s="2"/>
     </row>
-    <row r="63" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
       <c r="AD63" s="3"/>
       <c r="AJ63" s="2"/>
     </row>
-    <row r="64" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
       <c r="AD64" s="3"/>
       <c r="AJ64" s="2"/>
     </row>
-    <row r="65" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
       <c r="AD65" s="3"/>
       <c r="AJ65" s="2"/>
     </row>
-    <row r="66" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
       <c r="AD66" s="3"/>
       <c r="AJ66" s="2"/>
     </row>
-    <row r="67" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
       <c r="AD67" s="3"/>
       <c r="AJ67" s="2"/>
     </row>
-    <row r="68" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
       <c r="AD68" s="3"/>
       <c r="AJ68" s="2"/>
     </row>
-    <row r="69" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S69" s="2"/>
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
       <c r="AD69" s="3"/>
       <c r="AJ69" s="2"/>
     </row>
-    <row r="70" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S70" s="2"/>
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
       <c r="AD70" s="3"/>
       <c r="AJ70" s="2"/>
     </row>
-    <row r="71" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S71" s="2"/>
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
       <c r="AD71" s="3"/>
       <c r="AJ71" s="2"/>
     </row>
-    <row r="72" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S72" s="2"/>
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
       <c r="AD72" s="3"/>
       <c r="AJ72" s="2"/>
     </row>
-    <row r="73" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S73" s="2"/>
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
       <c r="AD73" s="3"/>
       <c r="AJ73" s="2"/>
     </row>
-    <row r="74" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S74" s="2"/>
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
       <c r="AD74" s="3"/>
       <c r="AJ74" s="2"/>
     </row>
-    <row r="75" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S75" s="2"/>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="AD75" s="3"/>
       <c r="AJ75" s="2"/>
     </row>
-    <row r="76" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S76" s="2"/>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="AD76" s="3"/>
       <c r="AJ76" s="2"/>
     </row>
-    <row r="77" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S77" s="2"/>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="AD77" s="3"/>
       <c r="AJ77" s="2"/>
     </row>
-    <row r="78" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S78" s="2"/>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="AD78" s="3"/>
       <c r="AJ78" s="2"/>
     </row>
-    <row r="79" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S79" s="2"/>
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
       <c r="AD79" s="3"/>
       <c r="AJ79" s="2"/>
     </row>
-    <row r="80" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S80" s="2"/>
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
       <c r="AD80" s="3"/>
       <c r="AJ80" s="2"/>
     </row>
-    <row r="81" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S81" s="2"/>
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
       <c r="AD81" s="3"/>
       <c r="AJ81" s="2"/>
     </row>
-    <row r="82" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S82" s="2"/>
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
       <c r="AD82" s="3"/>
       <c r="AJ82" s="2"/>
     </row>
-    <row r="83" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S83" s="2"/>
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
       <c r="AD83" s="3"/>
       <c r="AJ83" s="2"/>
     </row>
-    <row r="84" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S84" s="2"/>
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
       <c r="AD84" s="3"/>
       <c r="AJ84" s="2"/>
     </row>
-    <row r="85" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S85" s="2"/>
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
       <c r="AD85" s="3"/>
       <c r="AJ85" s="2"/>
     </row>
-    <row r="86" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S86" s="2"/>
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
       <c r="AD86" s="3"/>
       <c r="AJ86" s="2"/>
     </row>
-    <row r="87" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
       <c r="AD87" s="3"/>
       <c r="AJ87" s="2"/>
     </row>
-    <row r="88" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S88" s="2"/>
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
       <c r="AD88" s="3"/>
       <c r="AJ88" s="2"/>
     </row>
-    <row r="89" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S89" s="2"/>
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
       <c r="AD89" s="3"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S90" s="2"/>
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
       <c r="AD90" s="3"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S91" s="2"/>
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
       <c r="AD91" s="3"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S92" s="2"/>
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
       <c r="AD92" s="3"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S93" s="2"/>
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
       <c r="AD93" s="3"/>
       <c r="AJ93" s="2"/>
     </row>
-    <row r="94" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S94" s="2"/>
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
       <c r="AD94" s="3"/>
       <c r="AJ94" s="2"/>
     </row>
-    <row r="95" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S95" s="2"/>
       <c r="T95" s="2"/>
       <c r="U95" s="2"/>
       <c r="AD95" s="3"/>
       <c r="AJ95" s="2"/>
     </row>
-    <row r="96" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S96" s="2"/>
       <c r="T96" s="2"/>
       <c r="U96" s="2"/>
       <c r="AD96" s="3"/>
       <c r="AJ96" s="2"/>
     </row>
-    <row r="97" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S97" s="2"/>
       <c r="T97" s="2"/>
       <c r="U97" s="2"/>
       <c r="AD97" s="3"/>
       <c r="AJ97" s="2"/>
     </row>
-    <row r="98" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S98" s="2"/>
       <c r="T98" s="2"/>
       <c r="U98" s="2"/>
       <c r="AD98" s="3"/>
       <c r="AJ98" s="2"/>
     </row>
-    <row r="99" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S99" s="2"/>
       <c r="T99" s="2"/>
       <c r="U99" s="2"/>
       <c r="AD99" s="3"/>
       <c r="AJ99" s="2"/>
     </row>
-    <row r="100" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S100" s="2"/>
       <c r="T100" s="2"/>
       <c r="U100" s="2"/>
       <c r="AD100" s="3"/>
       <c r="AJ100" s="2"/>
     </row>
-    <row r="101" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S101" s="2"/>
       <c r="T101" s="2"/>
       <c r="U101" s="2"/>
       <c r="AD101" s="3"/>
       <c r="AJ101" s="2"/>
     </row>
-    <row r="102" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S102" s="2"/>
       <c r="T102" s="2"/>
       <c r="U102" s="2"/>
       <c r="AD102" s="3"/>
       <c r="AJ102" s="2"/>
     </row>
-    <row r="103" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S103" s="2"/>
       <c r="T103" s="2"/>
       <c r="U103" s="2"/>
       <c r="AD103" s="3"/>
       <c r="AJ103" s="2"/>
     </row>
-    <row r="104" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S104" s="2"/>
       <c r="T104" s="2"/>
       <c r="U104" s="2"/>
       <c r="AD104" s="3"/>
       <c r="AJ104" s="2"/>
     </row>
-    <row r="105" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S105" s="2"/>
       <c r="T105" s="2"/>
       <c r="U105" s="2"/>
       <c r="AD105" s="3"/>
       <c r="AJ105" s="2"/>
     </row>
-    <row r="106" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S106" s="2"/>
       <c r="T106" s="2"/>
       <c r="U106" s="2"/>
       <c r="AD106" s="3"/>
       <c r="AJ106" s="2"/>
     </row>
-    <row r="107" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S107" s="2"/>
       <c r="T107" s="2"/>
       <c r="U107" s="2"/>
       <c r="AD107" s="3"/>
       <c r="AJ107" s="2"/>
     </row>
-    <row r="108" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S108" s="2"/>
       <c r="T108" s="2"/>
       <c r="U108" s="2"/>
       <c r="AD108" s="3"/>
       <c r="AJ108" s="2"/>
     </row>
-    <row r="109" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S109" s="2"/>
       <c r="T109" s="2"/>
       <c r="U109" s="2"/>
       <c r="AD109" s="3"/>
       <c r="AJ109" s="2"/>
     </row>
-    <row r="110" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S110" s="2"/>
       <c r="T110" s="2"/>
       <c r="U110" s="2"/>
       <c r="AD110" s="3"/>
       <c r="AJ110" s="2"/>
     </row>
-    <row r="111" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S111" s="2"/>
       <c r="T111" s="2"/>
       <c r="U111" s="2"/>
       <c r="AD111" s="3"/>
       <c r="AJ111" s="2"/>
     </row>
-    <row r="112" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S112" s="2"/>
       <c r="T112" s="2"/>
       <c r="U112" s="2"/>
       <c r="AD112" s="3"/>
       <c r="AJ112" s="2"/>
     </row>
-    <row r="113" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S113" s="2"/>
       <c r="T113" s="2"/>
       <c r="U113" s="2"/>
       <c r="AD113" s="3"/>
       <c r="AJ113" s="2"/>
     </row>
-    <row r="114" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S114" s="2"/>
       <c r="T114" s="2"/>
       <c r="U114" s="2"/>
       <c r="AD114" s="3"/>
       <c r="AJ114" s="2"/>
     </row>
-    <row r="115" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S115" s="2"/>
       <c r="T115" s="2"/>
       <c r="U115" s="2"/>
       <c r="AD115" s="3"/>
       <c r="AJ115" s="2"/>
     </row>
-    <row r="116" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S116" s="2"/>
       <c r="T116" s="2"/>
       <c r="U116" s="2"/>
       <c r="AD116" s="3"/>
       <c r="AJ116" s="2"/>
     </row>
-    <row r="117" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S117" s="2"/>
       <c r="T117" s="2"/>
       <c r="U117" s="2"/>
       <c r="AD117" s="3"/>
       <c r="AJ117" s="2"/>
     </row>
-    <row r="118" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S118" s="2"/>
       <c r="T118" s="2"/>
       <c r="U118" s="2"/>
       <c r="AD118" s="3"/>
       <c r="AJ118" s="2"/>
     </row>
-    <row r="119" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S119" s="2"/>
       <c r="T119" s="2"/>
       <c r="U119" s="2"/>
       <c r="AD119" s="3"/>
       <c r="AJ119" s="2"/>
     </row>
-    <row r="120" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S120" s="2"/>
       <c r="T120" s="2"/>
       <c r="U120" s="2"/>
       <c r="AD120" s="3"/>
       <c r="AJ120" s="2"/>
     </row>
-    <row r="121" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S121" s="2"/>
       <c r="T121" s="2"/>
       <c r="U121" s="2"/>
       <c r="AD121" s="3"/>
       <c r="AJ121" s="2"/>
     </row>
-    <row r="122" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S122" s="2"/>
       <c r="T122" s="2"/>
       <c r="U122" s="2"/>
       <c r="AD122" s="3"/>
       <c r="AJ122" s="2"/>
     </row>
-    <row r="123" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S123" s="2"/>
       <c r="T123" s="2"/>
       <c r="U123" s="2"/>
       <c r="AD123" s="3"/>
       <c r="AJ123" s="2"/>
     </row>
-    <row r="124" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S124" s="2"/>
       <c r="T124" s="2"/>
       <c r="U124" s="2"/>
       <c r="AD124" s="3"/>
       <c r="AJ124" s="2"/>
     </row>
-    <row r="125" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S125" s="2"/>
       <c r="T125" s="2"/>
       <c r="U125" s="2"/>
       <c r="AD125" s="3"/>
       <c r="AJ125" s="2"/>
     </row>
-    <row r="126" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
       <c r="AD126" s="3"/>
       <c r="AJ126" s="2"/>
     </row>
-    <row r="127" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S127" s="2"/>
       <c r="T127" s="2"/>
       <c r="U127" s="2"/>
       <c r="AD127" s="3"/>
       <c r="AJ127" s="2"/>
     </row>
-    <row r="128" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S128" s="2"/>
       <c r="T128" s="2"/>
       <c r="U128" s="2"/>
       <c r="AD128" s="3"/>
       <c r="AJ128" s="2"/>
     </row>
-    <row r="129" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S129" s="2"/>
       <c r="T129" s="2"/>
       <c r="U129" s="2"/>
       <c r="AD129" s="3"/>
       <c r="AJ129" s="2"/>
     </row>
-    <row r="130" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S130" s="2"/>
       <c r="T130" s="2"/>
       <c r="U130" s="2"/>
       <c r="AD130" s="3"/>
       <c r="AJ130" s="2"/>
     </row>
-    <row r="131" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S131" s="2"/>
       <c r="T131" s="2"/>
       <c r="U131" s="2"/>
       <c r="AD131" s="3"/>
       <c r="AJ131" s="2"/>
     </row>
-    <row r="132" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S132" s="2"/>
       <c r="T132" s="2"/>
       <c r="U132" s="2"/>
       <c r="AD132" s="3"/>
       <c r="AJ132" s="2"/>
     </row>
-    <row r="133" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S133" s="2"/>
       <c r="T133" s="2"/>
       <c r="U133" s="2"/>
       <c r="AD133" s="3"/>
       <c r="AJ133" s="2"/>
     </row>
-    <row r="134" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S134" s="2"/>
       <c r="T134" s="2"/>
       <c r="U134" s="2"/>
       <c r="AD134" s="3"/>
       <c r="AJ134" s="2"/>
     </row>
-    <row r="135" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S135" s="2"/>
       <c r="T135" s="2"/>
       <c r="U135" s="2"/>
       <c r="AD135" s="3"/>
       <c r="AJ135" s="2"/>
     </row>
-    <row r="136" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S136" s="2"/>
       <c r="T136" s="2"/>
       <c r="U136" s="2"/>
       <c r="AD136" s="3"/>
       <c r="AJ136" s="2"/>
     </row>
-    <row r="137" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S137" s="2"/>
       <c r="T137" s="2"/>
       <c r="U137" s="2"/>
       <c r="AD137" s="3"/>
       <c r="AJ137" s="2"/>
     </row>
-    <row r="138" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S138" s="2"/>
       <c r="T138" s="2"/>
       <c r="U138" s="2"/>
       <c r="AD138" s="3"/>
       <c r="AJ138" s="2"/>
     </row>
-    <row r="139" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S139" s="2"/>
       <c r="T139" s="2"/>
       <c r="U139" s="2"/>
       <c r="AD139" s="3"/>
       <c r="AJ139" s="2"/>
     </row>
-    <row r="140" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S140" s="2"/>
       <c r="T140" s="2"/>
       <c r="U140" s="2"/>
       <c r="AD140" s="3"/>
       <c r="AJ140" s="2"/>
     </row>
-    <row r="141" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S141" s="2"/>
       <c r="T141" s="2"/>
       <c r="U141" s="2"/>
       <c r="AD141" s="3"/>
       <c r="AJ141" s="2"/>
     </row>
-    <row r="142" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S142" s="2"/>
       <c r="T142" s="2"/>
       <c r="U142" s="2"/>
       <c r="AD142" s="3"/>
       <c r="AJ142" s="2"/>
     </row>
-    <row r="143" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S143" s="2"/>
       <c r="T143" s="2"/>
       <c r="U143" s="2"/>
       <c r="AD143" s="3"/>
       <c r="AJ143" s="2"/>
     </row>
-    <row r="144" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S144" s="2"/>
       <c r="T144" s="2"/>
       <c r="U144" s="2"/>
       <c r="AD144" s="3"/>
       <c r="AJ144" s="2"/>
     </row>
-    <row r="145" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S145" s="2"/>
       <c r="T145" s="2"/>
       <c r="U145" s="2"/>
       <c r="AD145" s="3"/>
       <c r="AJ145" s="2"/>
     </row>
-    <row r="146" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S146" s="2"/>
       <c r="T146" s="2"/>
       <c r="U146" s="2"/>
       <c r="AD146" s="3"/>
       <c r="AJ146" s="2"/>
     </row>
-    <row r="147" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S147" s="2"/>
       <c r="T147" s="2"/>
       <c r="U147" s="2"/>
       <c r="AD147" s="3"/>
       <c r="AJ147" s="2"/>
     </row>
-    <row r="148" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S148" s="2"/>
       <c r="T148" s="2"/>
       <c r="U148" s="2"/>
       <c r="AD148" s="3"/>
       <c r="AJ148" s="2"/>
     </row>
-    <row r="149" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S149" s="2"/>
       <c r="T149" s="2"/>
       <c r="U149" s="2"/>
       <c r="AD149" s="3"/>
       <c r="AJ149" s="2"/>
     </row>
-    <row r="150" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S150" s="2"/>
       <c r="T150" s="2"/>
       <c r="U150" s="2"/>
       <c r="AD150" s="3"/>
       <c r="AJ150" s="2"/>
     </row>
-    <row r="151" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S151" s="2"/>
       <c r="T151" s="2"/>
       <c r="U151" s="2"/>
       <c r="AD151" s="3"/>
       <c r="AJ151" s="2"/>
     </row>
-    <row r="152" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S152" s="2"/>
       <c r="T152" s="2"/>
       <c r="U152" s="2"/>
       <c r="AD152" s="3"/>
       <c r="AJ152" s="2"/>
     </row>
-    <row r="153" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S153" s="2"/>
       <c r="T153" s="2"/>
       <c r="U153" s="2"/>
       <c r="AD153" s="3"/>
       <c r="AJ153" s="2"/>
     </row>
-    <row r="154" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S154" s="2"/>
       <c r="T154" s="2"/>
       <c r="U154" s="2"/>
       <c r="AD154" s="3"/>
       <c r="AJ154" s="2"/>
     </row>
-    <row r="155" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S155" s="2"/>
       <c r="T155" s="2"/>
       <c r="U155" s="2"/>
       <c r="AD155" s="3"/>
       <c r="AJ155" s="2"/>
     </row>
-    <row r="156" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S156" s="2"/>
       <c r="T156" s="2"/>
       <c r="U156" s="2"/>
       <c r="AD156" s="3"/>
       <c r="AJ156" s="2"/>
     </row>
-    <row r="157" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S157" s="2"/>
       <c r="T157" s="2"/>
       <c r="U157" s="2"/>
       <c r="AD157" s="3"/>
       <c r="AJ157" s="2"/>
     </row>
-    <row r="158" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S158" s="2"/>
       <c r="T158" s="2"/>
       <c r="U158" s="2"/>
       <c r="AD158" s="3"/>
       <c r="AJ158" s="2"/>
     </row>
-    <row r="159" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S159" s="2"/>
       <c r="T159" s="2"/>
       <c r="U159" s="2"/>
       <c r="AD159" s="3"/>
       <c r="AJ159" s="2"/>
     </row>
-    <row r="160" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S160" s="2"/>
       <c r="T160" s="2"/>
       <c r="U160" s="2"/>
       <c r="AD160" s="3"/>
       <c r="AJ160" s="2"/>
     </row>
-    <row r="161" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S161" s="2"/>
       <c r="T161" s="2"/>
       <c r="U161" s="2"/>
       <c r="AD161" s="3"/>
       <c r="AJ161" s="2"/>
     </row>
-    <row r="162" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S162" s="2"/>
       <c r="T162" s="2"/>
       <c r="U162" s="2"/>
       <c r="AD162" s="3"/>
       <c r="AJ162" s="2"/>
     </row>
-    <row r="163" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S163" s="2"/>
       <c r="T163" s="2"/>
       <c r="U163" s="2"/>
       <c r="AD163" s="3"/>
       <c r="AJ163" s="2"/>
     </row>
-    <row r="164" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S164" s="2"/>
       <c r="T164" s="2"/>
       <c r="U164" s="2"/>
       <c r="AD164" s="3"/>
       <c r="AJ164" s="2"/>
     </row>
-    <row r="165" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S165" s="2"/>
       <c r="T165" s="2"/>
       <c r="U165" s="2"/>
       <c r="AD165" s="3"/>
       <c r="AJ165" s="2"/>
     </row>
-    <row r="166" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S166" s="2"/>
       <c r="T166" s="2"/>
       <c r="U166" s="2"/>
       <c r="AD166" s="3"/>
       <c r="AJ166" s="2"/>
     </row>
-    <row r="167" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S167" s="2"/>
       <c r="T167" s="2"/>
       <c r="U167" s="2"/>
       <c r="AD167" s="3"/>
       <c r="AJ167" s="2"/>
     </row>
-    <row r="168" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S168" s="2"/>
       <c r="T168" s="2"/>
       <c r="U168" s="2"/>
       <c r="AD168" s="3"/>
       <c r="AJ168" s="2"/>
     </row>
-    <row r="169" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S169" s="2"/>
       <c r="T169" s="2"/>
       <c r="U169" s="2"/>
       <c r="AD169" s="3"/>
       <c r="AJ169" s="2"/>
     </row>
-    <row r="170" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S170" s="2"/>
       <c r="T170" s="2"/>
       <c r="U170" s="2"/>
       <c r="AD170" s="3"/>
       <c r="AJ170" s="2"/>
     </row>
-    <row r="171" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S171" s="2"/>
       <c r="T171" s="2"/>
       <c r="U171" s="2"/>
       <c r="AD171" s="3"/>
       <c r="AJ171" s="2"/>
     </row>
-    <row r="172" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S172" s="2"/>
       <c r="T172" s="2"/>
       <c r="U172" s="2"/>
       <c r="AD172" s="3"/>
       <c r="AJ172" s="2"/>
     </row>
-    <row r="173" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S173" s="2"/>
       <c r="T173" s="2"/>
       <c r="U173" s="2"/>
       <c r="AD173" s="3"/>
       <c r="AJ173" s="2"/>
     </row>
-    <row r="174" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S174" s="2"/>
       <c r="T174" s="2"/>
       <c r="U174" s="2"/>
       <c r="AD174" s="3"/>
       <c r="AJ174" s="2"/>
     </row>
-    <row r="175" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S175" s="2"/>
       <c r="T175" s="2"/>
       <c r="U175" s="2"/>
       <c r="AD175" s="3"/>
       <c r="AJ175" s="2"/>
     </row>
-    <row r="176" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S176" s="2"/>
       <c r="T176" s="2"/>
       <c r="U176" s="2"/>
       <c r="AD176" s="3"/>
       <c r="AJ176" s="2"/>
     </row>
-    <row r="177" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S177" s="2"/>
       <c r="T177" s="2"/>
       <c r="U177" s="2"/>
       <c r="AD177" s="3"/>
       <c r="AJ177" s="2"/>
     </row>
-    <row r="178" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S178" s="2"/>
       <c r="T178" s="2"/>
       <c r="U178" s="2"/>
       <c r="AD178" s="3"/>
       <c r="AJ178" s="2"/>
     </row>
-    <row r="179" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S179" s="2"/>
       <c r="T179" s="2"/>
       <c r="U179" s="2"/>
       <c r="AD179" s="3"/>
       <c r="AJ179" s="2"/>
     </row>
-    <row r="180" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S180" s="2"/>
       <c r="T180" s="2"/>
       <c r="U180" s="2"/>
       <c r="AD180" s="3"/>
       <c r="AJ180" s="2"/>
     </row>
-    <row r="181" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S181" s="2"/>
       <c r="T181" s="2"/>
       <c r="U181" s="2"/>
       <c r="AD181" s="3"/>
       <c r="AJ181" s="2"/>
     </row>
-    <row r="182" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S182" s="2"/>
       <c r="T182" s="2"/>
       <c r="U182" s="2"/>
       <c r="AD182" s="3"/>
       <c r="AJ182" s="2"/>
     </row>
-    <row r="183" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S183" s="2"/>
       <c r="T183" s="2"/>
       <c r="U183" s="2"/>
       <c r="AD183" s="3"/>
       <c r="AJ183" s="2"/>
     </row>
-    <row r="184" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
       <c r="AD184" s="3"/>
       <c r="AJ184" s="2"/>
     </row>
-    <row r="185" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
       <c r="AD185" s="3"/>
       <c r="AJ185" s="2"/>
     </row>
-    <row r="186" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S186" s="2"/>
       <c r="T186" s="2"/>
       <c r="U186" s="2"/>
       <c r="AD186" s="3"/>
       <c r="AJ186" s="2"/>
     </row>
-    <row r="187" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S187" s="2"/>
       <c r="T187" s="2"/>
       <c r="U187" s="2"/>
       <c r="AD187" s="3"/>
       <c r="AJ187" s="2"/>
     </row>
-    <row r="188" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S188" s="2"/>
       <c r="T188" s="2"/>
       <c r="U188" s="2"/>
       <c r="AD188" s="3"/>
       <c r="AJ188" s="2"/>
     </row>
-    <row r="189" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S189" s="2"/>
       <c r="T189" s="2"/>
       <c r="U189" s="2"/>
       <c r="AD189" s="3"/>
       <c r="AJ189" s="2"/>
     </row>
-    <row r="190" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S190" s="2"/>
       <c r="T190" s="2"/>
       <c r="U190" s="2"/>
       <c r="AD190" s="3"/>
       <c r="AJ190" s="2"/>
     </row>
-    <row r="191" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S191" s="2"/>
       <c r="T191" s="2"/>
       <c r="U191" s="2"/>
       <c r="AD191" s="3"/>
       <c r="AJ191" s="2"/>
     </row>
-    <row r="192" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S192" s="2"/>
       <c r="T192" s="2"/>
       <c r="U192" s="2"/>
       <c r="AD192" s="3"/>
       <c r="AJ192" s="2"/>
     </row>
-    <row r="193" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S193" s="2"/>
       <c r="T193" s="2"/>
       <c r="U193" s="2"/>
       <c r="AD193" s="3"/>
       <c r="AJ193" s="2"/>
     </row>
-    <row r="194" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S194" s="2"/>
       <c r="T194" s="2"/>
       <c r="U194" s="2"/>
       <c r="AD194" s="3"/>
       <c r="AJ194" s="2"/>
     </row>
-    <row r="195" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S195" s="2"/>
       <c r="T195" s="2"/>
       <c r="U195" s="2"/>
       <c r="AD195" s="3"/>
       <c r="AJ195" s="2"/>
     </row>
-    <row r="196" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S196" s="2"/>
       <c r="T196" s="2"/>
       <c r="U196" s="2"/>
       <c r="AD196" s="3"/>
       <c r="AJ196" s="2"/>
     </row>
-    <row r="197" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S197" s="2"/>
       <c r="T197" s="2"/>
       <c r="U197" s="2"/>
       <c r="AD197" s="3"/>
       <c r="AJ197" s="2"/>
     </row>
-    <row r="198" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S198" s="2"/>
       <c r="T198" s="2"/>
       <c r="U198" s="2"/>
       <c r="AD198" s="3"/>
       <c r="AJ198" s="2"/>
     </row>
-    <row r="199" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S199" s="2"/>
       <c r="T199" s="2"/>
       <c r="U199" s="2"/>
       <c r="AD199" s="3"/>
       <c r="AJ199" s="2"/>
     </row>
-    <row r="200" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
       <c r="AD200" s="3"/>
       <c r="AJ200" s="2"/>
     </row>
-    <row r="201" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
       <c r="AD201" s="3"/>
       <c r="AJ201" s="2"/>
     </row>
-    <row r="202" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S202" s="2"/>
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
       <c r="AD202" s="3"/>
       <c r="AJ202" s="2"/>
     </row>
-    <row r="203" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S203" s="2"/>
       <c r="T203" s="2"/>
       <c r="U203" s="2"/>
       <c r="AD203" s="3"/>
       <c r="AJ203" s="2"/>
     </row>
-    <row r="204" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S204" s="2"/>
       <c r="T204" s="2"/>
       <c r="U204" s="2"/>
       <c r="AD204" s="3"/>
       <c r="AJ204" s="2"/>
     </row>
-    <row r="205" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S205" s="2"/>
       <c r="T205" s="2"/>
       <c r="U205" s="2"/>
       <c r="AD205" s="3"/>
       <c r="AJ205" s="2"/>
     </row>
-    <row r="206" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S206" s="2"/>
       <c r="T206" s="2"/>
       <c r="U206" s="2"/>
       <c r="AD206" s="3"/>
       <c r="AJ206" s="2"/>
     </row>
-    <row r="207" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S207" s="2"/>
       <c r="T207" s="2"/>
       <c r="U207" s="2"/>
       <c r="AD207" s="3"/>
       <c r="AJ207" s="2"/>
     </row>
-    <row r="208" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S208" s="2"/>
       <c r="T208" s="2"/>
       <c r="U208" s="2"/>
       <c r="AD208" s="3"/>
       <c r="AJ208" s="2"/>
     </row>
-    <row r="209" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S209" s="2"/>
       <c r="T209" s="2"/>
       <c r="U209" s="2"/>
       <c r="AD209" s="3"/>
       <c r="AJ209" s="2"/>
     </row>
-    <row r="210" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S210" s="2"/>
       <c r="T210" s="2"/>
       <c r="U210" s="2"/>
       <c r="AD210" s="3"/>
       <c r="AJ210" s="2"/>
     </row>
-    <row r="211" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S211" s="2"/>
       <c r="T211" s="2"/>
       <c r="U211" s="2"/>
       <c r="AD211" s="3"/>
       <c r="AJ211" s="2"/>
     </row>
-    <row r="212" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S212" s="2"/>
       <c r="T212" s="2"/>
       <c r="U212" s="2"/>
       <c r="AD212" s="3"/>
       <c r="AJ212" s="2"/>
     </row>
-    <row r="213" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S213" s="2"/>
       <c r="T213" s="2"/>
       <c r="U213" s="2"/>
       <c r="AD213" s="3"/>
       <c r="AJ213" s="2"/>
     </row>
-    <row r="214" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S214" s="2"/>
       <c r="T214" s="2"/>
       <c r="U214" s="2"/>
       <c r="AD214" s="3"/>
       <c r="AJ214" s="2"/>
     </row>
-    <row r="215" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S215" s="2"/>
       <c r="T215" s="2"/>
       <c r="U215" s="2"/>
       <c r="AD215" s="3"/>
       <c r="AJ215" s="2"/>
     </row>
-    <row r="216" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S216" s="2"/>
       <c r="T216" s="2"/>
       <c r="U216" s="2"/>
       <c r="AD216" s="3"/>
       <c r="AJ216" s="2"/>
     </row>
-    <row r="217" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S217" s="2"/>
       <c r="T217" s="2"/>
       <c r="U217" s="2"/>
       <c r="AD217" s="3"/>
       <c r="AJ217" s="2"/>
     </row>
-    <row r="218" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S218" s="2"/>
       <c r="T218" s="2"/>
       <c r="U218" s="2"/>
       <c r="AD218" s="3"/>
       <c r="AJ218" s="2"/>
     </row>
-    <row r="219" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S219" s="2"/>
       <c r="T219" s="2"/>
       <c r="U219" s="2"/>
       <c r="AD219" s="3"/>
       <c r="AJ219" s="2"/>
     </row>
-    <row r="220" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="S220" s="2"/>
       <c r="T220" s="2"/>
       <c r="U220" s="2"/>
       <c r="AD220" s="3"/>
       <c r="AJ220" s="2"/>
     </row>
-    <row r="221" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" spans="19:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5239,17 +5062,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" customWidth="true" width="11.19921875" collapsed="true"/>
+    <col min="1" max="6" customWidth="true" width="11.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>110</v>
       </c>
@@ -5257,7 +5080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -5265,7 +5088,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -5281,7 +5104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -5289,7 +5112,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -5297,7 +5120,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5308,7 +5131,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -5325,7 +5148,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -5339,7 +5162,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -5350,7 +5173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -5358,7 +5181,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -5369,7 +5192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>129</v>
       </c>
@@ -5524,7 +5347,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>130</v>
       </c>
@@ -5583,7 +5406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>131</v>
       </c>
@@ -5642,7 +5465,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>132</v>
       </c>
@@ -5704,7 +5527,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>133</v>
       </c>
@@ -5766,7 +5589,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>134</v>
       </c>
@@ -5822,7 +5645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>135</v>
       </c>
@@ -5884,7 +5707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>136</v>
       </c>
@@ -5946,7 +5769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>137</v>
       </c>
@@ -6005,7 +5828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>138</v>
       </c>
@@ -6067,7 +5890,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -6129,7 +5952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>140</v>
       </c>
@@ -6191,7 +6014,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -6250,7 +6073,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -6336,7 +6159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>143</v>
       </c>
@@ -6395,7 +6218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -6457,7 +6280,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>145</v>
       </c>
@@ -6519,7 +6342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
@@ -6581,7 +6404,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>147</v>
       </c>
@@ -6643,7 +6466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>148</v>
       </c>
@@ -6702,7 +6525,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>149</v>
       </c>
@@ -6788,7 +6611,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>150</v>
       </c>
@@ -6847,7 +6670,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>102</v>
       </c>
@@ -6936,7 +6759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>151</v>
       </c>
@@ -6998,7 +6821,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>152</v>
       </c>
@@ -7084,7 +6907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>153</v>
       </c>
@@ -7143,7 +6966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>154</v>
       </c>
@@ -7232,7 +7055,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>155</v>
       </c>
@@ -7291,7 +7114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
@@ -7353,7 +7176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>157</v>
       </c>
@@ -7412,7 +7235,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>158</v>
       </c>
@@ -7474,7 +7297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>159</v>
       </c>
@@ -7491,7 +7314,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>160</v>
       </c>
@@ -7508,7 +7331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>161</v>
       </c>
@@ -7552,7 +7375,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
@@ -7566,7 +7389,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>163</v>
       </c>
@@ -7586,7 +7409,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="50" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>164</v>
       </c>
@@ -7603,7 +7426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>165</v>
       </c>
@@ -7635,7 +7458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>166</v>
       </c>
@@ -7652,7 +7475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>167</v>
       </c>
@@ -7666,8 +7489,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="54" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>168</v>
       </c>
@@ -7675,13 +7498,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="56" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>33</v>
       </c>
@@ -7698,7 +7521,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="59" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>34</v>
       </c>
@@ -7724,7 +7547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>45</v>
       </c>
@@ -8326,7 +8149,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="61" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -8355,7 +8178,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>49</v>
       </c>
@@ -8369,7 +8192,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>55</v>
       </c>
@@ -8386,7 +8209,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="64" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:200" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -8403,7 +8226,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="65" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -8420,7 +8243,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="66" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>61</v>
       </c>
@@ -8437,7 +8260,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="67" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>63</v>
       </c>
@@ -8454,7 +8277,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="68" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -8471,7 +8294,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -9223,7 +9046,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="70" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>78</v>
       </c>
@@ -9234,7 +9057,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -9986,7 +9809,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="72" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -10000,7 +9823,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="73" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -10014,7 +9837,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="74" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>45</v>
       </c>
@@ -10598,7 +10421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="75" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>44</v>
       </c>
@@ -11350,7 +11173,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="76" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>78</v>
       </c>
@@ -11361,7 +11184,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
@@ -12113,7 +11936,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="78" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -12121,7 +11944,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="79" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
@@ -12135,7 +11958,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="80" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>45</v>
       </c>
@@ -12719,7 +12542,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
@@ -13471,7 +13294,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="82" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -13482,7 +13305,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>75</v>
       </c>
@@ -14234,7 +14057,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="84" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -14248,7 +14071,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>79</v>
       </c>
@@ -14262,7 +14085,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>45</v>
       </c>
@@ -14846,7 +14669,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>44</v>
       </c>
@@ -15598,7 +15421,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="88" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>78</v>
       </c>
@@ -15609,7 +15432,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="89" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>75</v>
       </c>
@@ -16361,7 +16184,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="90" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -16372,7 +16195,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="91" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>79</v>
       </c>
@@ -16386,7 +16209,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="92" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>45</v>
       </c>
@@ -16970,7 +16793,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>44</v>
       </c>
@@ -17722,7 +17545,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>78</v>
       </c>
@@ -17733,7 +17556,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>75</v>
       </c>
@@ -18485,7 +18308,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="96" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -18493,7 +18316,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="97" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>79</v>
       </c>
@@ -18507,7 +18330,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="98" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>45</v>
       </c>
@@ -19091,7 +18914,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="99" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
@@ -19843,7 +19666,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="100" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>78</v>
       </c>
@@ -19854,7 +19677,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>75</v>
       </c>
@@ -20606,7 +20429,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="102" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -20620,7 +20443,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="103" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
@@ -20634,7 +20457,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>45</v>
       </c>
@@ -21218,7 +21041,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="105" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>44</v>
       </c>
@@ -21970,7 +21793,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="106" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>78</v>
       </c>
@@ -21981,7 +21804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>75</v>
       </c>
@@ -22733,7 +22556,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="108" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -22747,7 +22570,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="109" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>79</v>
       </c>
@@ -22761,7 +22584,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="110" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>45</v>
       </c>
@@ -23345,7 +23168,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>44</v>
       </c>
@@ -24097,7 +23920,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="112" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>78</v>
       </c>
@@ -24108,7 +23931,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>75</v>
       </c>
@@ -24860,7 +24683,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="114" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -24868,7 +24691,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="115" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>79</v>
       </c>
@@ -24882,7 +24705,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>45</v>
       </c>
@@ -25466,7 +25289,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="117" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>44</v>
       </c>
@@ -26218,7 +26041,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="118" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>78</v>
       </c>
@@ -26229,7 +26052,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="119" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>75</v>
       </c>
@@ -26981,7 +26804,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="120" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -26989,7 +26812,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="121" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>79</v>
       </c>
@@ -27003,7 +26826,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="122" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>45</v>
       </c>
@@ -27587,7 +27410,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>44</v>
       </c>
@@ -28339,7 +28162,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="124" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>78</v>
       </c>
@@ -28350,7 +28173,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="125" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>75</v>
       </c>
@@ -29102,7 +28925,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="126" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -29110,7 +28933,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>79</v>
       </c>
@@ -29124,7 +28947,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="128" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>45</v>
       </c>
@@ -29708,7 +29531,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>44</v>
       </c>
@@ -30460,7 +30283,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>78</v>
       </c>
@@ -30471,7 +30294,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>75</v>
       </c>
@@ -31223,7 +31046,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="132" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -31237,7 +31060,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="133" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>79</v>
       </c>
@@ -31251,7 +31074,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="134" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>45</v>
       </c>
@@ -31835,7 +31658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="135" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>44</v>
       </c>
@@ -32587,7 +32410,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="136" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>78</v>
       </c>
@@ -32598,7 +32421,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="137" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>75</v>
       </c>
@@ -33350,7 +33173,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="138" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -33358,7 +33181,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="139" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>79</v>
       </c>
@@ -33372,7 +33195,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="140" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>45</v>
       </c>
@@ -33956,7 +33779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>44</v>
       </c>
@@ -34708,7 +34531,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="142" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>78</v>
       </c>
@@ -34719,7 +34542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>75</v>
       </c>
@@ -35471,7 +35294,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="144" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -35485,7 +35308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="145" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>79</v>
       </c>
@@ -35499,7 +35322,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="146" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>57</v>
       </c>
@@ -35516,7 +35339,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>59</v>
       </c>
@@ -35533,7 +35356,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="148" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>61</v>
       </c>
@@ -35550,7 +35373,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="149" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>63</v>
       </c>
@@ -35567,7 +35390,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="150" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>65</v>
       </c>
@@ -35584,7 +35407,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="151" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>45</v>
       </c>
@@ -36168,7 +35991,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>44</v>
       </c>
@@ -36920,7 +36743,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="153" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>78</v>
       </c>
@@ -36931,7 +36754,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="154" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>75</v>
       </c>
@@ -37683,7 +37506,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="155" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
@@ -37691,7 +37514,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="156" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
         <v>79</v>
       </c>
@@ -37705,7 +37528,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="157" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
         <v>45</v>
       </c>
@@ -38289,7 +38112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
         <v>44</v>
       </c>
@@ -39041,7 +38864,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="159" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>78</v>
       </c>
@@ -39052,7 +38875,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="160" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
         <v>75</v>
       </c>
@@ -39804,7 +39627,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="161" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
@@ -39812,7 +39635,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="162" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>79</v>
       </c>
@@ -39826,7 +39649,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="163" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>45</v>
       </c>
@@ -40410,7 +40233,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="164" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>44</v>
       </c>
@@ -41162,7 +40985,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="165" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>78</v>
       </c>
@@ -41173,7 +40996,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
         <v>75</v>
       </c>
@@ -41925,7 +41748,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="167" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -41933,7 +41756,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="168" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
         <v>79</v>
       </c>
@@ -41947,7 +41770,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="169" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>45</v>
       </c>
@@ -42531,7 +42354,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="170" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>44</v>
       </c>
@@ -43283,7 +43106,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="171" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -43300,7 +43123,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="172" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
         <v>78</v>
       </c>
@@ -43311,7 +43134,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
         <v>75</v>
       </c>
@@ -44063,7 +43886,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="174" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
         <v>79</v>
       </c>
@@ -44077,7 +43900,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
         <v>45</v>
       </c>
@@ -44661,7 +44484,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="176" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
         <v>44</v>
       </c>
@@ -45413,7 +45236,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="177" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
         <v>78</v>
       </c>
@@ -45424,7 +45247,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="178" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
         <v>75</v>
       </c>
@@ -46176,7 +45999,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="179" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
@@ -46190,7 +46013,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="180" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>83</v>
       </c>
@@ -46198,7 +46021,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="181" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>79</v>
       </c>
@@ -46212,7 +46035,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="182" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>45</v>
       </c>
@@ -46796,7 +46619,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="183" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>44</v>
       </c>
@@ -47548,7 +47371,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="184" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>78</v>
       </c>
@@ -47559,7 +47382,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>75</v>
       </c>
@@ -48311,7 +48134,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="186" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -48325,7 +48148,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="187" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>79</v>
       </c>
@@ -48339,7 +48162,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="188" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>45</v>
       </c>
@@ -48923,7 +48746,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>44</v>
       </c>
@@ -49675,7 +49498,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="190" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
         <v>78</v>
       </c>
@@ -49686,7 +49509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="191" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
         <v>75</v>
       </c>
@@ -50438,7 +50261,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="192" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -50446,7 +50269,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>79</v>
       </c>
@@ -50460,7 +50283,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="194" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>57</v>
       </c>
@@ -50477,7 +50300,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="195" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>59</v>
       </c>
@@ -50494,7 +50317,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="196" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>61</v>
       </c>
@@ -50511,7 +50334,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="197" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
         <v>63</v>
       </c>
@@ -50528,7 +50351,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
         <v>65</v>
       </c>
@@ -50545,7 +50368,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="199" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
         <v>45</v>
       </c>
@@ -51129,7 +50952,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
         <v>44</v>
       </c>
@@ -51881,7 +51704,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="201" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
         <v>78</v>
       </c>
@@ -51892,7 +51715,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="202" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>75</v>
       </c>
@@ -52644,7 +52467,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="203" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -52658,7 +52481,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
         <v>79</v>
       </c>
@@ -52672,7 +52495,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="205" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>45</v>
       </c>
@@ -53256,7 +53079,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="206" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
         <v>44</v>
       </c>
@@ -54008,7 +53831,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="207" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -54016,7 +53839,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="208" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
         <v>78</v>
       </c>
@@ -54027,7 +53850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="209" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
         <v>75</v>
       </c>
@@ -54779,7 +54602,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="210" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
         <v>85</v>
       </c>
@@ -54796,7 +54619,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="211" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
         <v>57</v>
       </c>
@@ -54813,7 +54636,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="212" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
         <v>59</v>
       </c>
@@ -54830,7 +54653,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="213" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
         <v>61</v>
       </c>
@@ -54847,7 +54670,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="214" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
         <v>63</v>
       </c>
@@ -54864,7 +54687,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="215" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
         <v>65</v>
       </c>
@@ -54881,7 +54704,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="216" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
         <v>45</v>
       </c>
@@ -55465,7 +55288,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="217" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
         <v>44</v>
       </c>
@@ -56217,7 +56040,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="218" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
         <v>78</v>
       </c>
@@ -56228,7 +56051,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="219" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
         <v>75</v>
       </c>
@@ -56980,7 +56803,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="220" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -56994,7 +56817,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="221" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
         <v>79</v>
       </c>
@@ -57008,7 +56831,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="222" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>45</v>
       </c>
@@ -57592,7 +57415,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="223" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
         <v>44</v>
       </c>
@@ -58344,7 +58167,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="224" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
         <v>78</v>
       </c>
@@ -58355,7 +58178,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="225" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
         <v>75</v>
       </c>
@@ -59107,7 +58930,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="226" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -59121,7 +58944,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="227" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>85</v>
       </c>
@@ -59138,7 +58961,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="228" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>57</v>
       </c>
@@ -59155,7 +58978,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="229" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
         <v>59</v>
       </c>
@@ -59172,7 +58995,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="230" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
         <v>61</v>
       </c>
@@ -59189,7 +59012,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
         <v>63</v>
       </c>
@@ -59206,7 +59029,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="232" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
         <v>65</v>
       </c>
@@ -59223,7 +59046,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="233" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
         <v>45</v>
       </c>
@@ -59807,7 +59630,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="234" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
         <v>44</v>
       </c>
@@ -60559,7 +60382,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="235" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
         <v>78</v>
       </c>
@@ -60570,7 +60393,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>75</v>
       </c>
@@ -61322,7 +61145,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="237" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
@@ -61330,7 +61153,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="238" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
         <v>79</v>
       </c>
@@ -61344,7 +61167,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="239" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>45</v>
       </c>
@@ -61928,7 +61751,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="240" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>44</v>
       </c>
@@ -62680,7 +62503,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="241" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
         <v>78</v>
       </c>
@@ -62691,7 +62514,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="242" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>75</v>
       </c>
@@ -63443,7 +63266,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="243" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
@@ -63451,7 +63274,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="244" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
         <v>79</v>
       </c>
@@ -63465,7 +63288,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="245" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
         <v>57</v>
       </c>
@@ -63482,7 +63305,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="246" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
         <v>59</v>
       </c>
@@ -63499,7 +63322,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="247" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
         <v>61</v>
       </c>
@@ -63516,7 +63339,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="248" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1" t="s">
         <v>63</v>
       </c>
@@ -63533,7 +63356,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="249" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1" t="s">
         <v>65</v>
       </c>
@@ -63550,7 +63373,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="250" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1" t="s">
         <v>45</v>
       </c>
@@ -64134,7 +63957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="251" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1" t="s">
         <v>44</v>
       </c>
@@ -64886,7 +64709,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="252" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1" t="s">
         <v>78</v>
       </c>
@@ -64897,7 +64720,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1" t="s">
         <v>75</v>
       </c>
@@ -65649,7 +65472,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="254" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
@@ -65660,7 +65483,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="255" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1" t="s">
         <v>79</v>
       </c>
@@ -65674,7 +65497,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="256" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1" t="s">
         <v>45</v>
       </c>
@@ -66258,7 +66081,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="257" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1" t="s">
         <v>44</v>
       </c>
@@ -67010,7 +66833,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="258" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1" t="s">
         <v>78</v>
       </c>
@@ -67021,7 +66844,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="259" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1" t="s">
         <v>75</v>
       </c>
@@ -67773,7 +67596,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="260" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
@@ -67781,7 +67604,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="261" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1" t="s">
         <v>79</v>
       </c>
@@ -67795,7 +67618,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="262" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1" t="s">
         <v>45</v>
       </c>
@@ -68379,7 +68202,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="263" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1" t="s">
         <v>44</v>
       </c>
@@ -69131,7 +68954,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="264" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="1" t="s">
         <v>78</v>
       </c>
@@ -69142,7 +68965,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="265" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="1" t="s">
         <v>75</v>
       </c>
@@ -69894,7 +69717,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="266" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="1" t="s">
         <v>10</v>
       </c>
@@ -69908,7 +69731,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="267" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="1" t="s">
         <v>79</v>
       </c>
@@ -69922,7 +69745,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="268" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="1" t="s">
         <v>45</v>
       </c>
@@ -70506,7 +70329,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="1" t="s">
         <v>44</v>
       </c>
@@ -71258,7 +71081,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="270" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="1" t="s">
         <v>78</v>
       </c>
@@ -71269,7 +71092,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="271" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="1" t="s">
         <v>75</v>
       </c>
@@ -72021,7 +71844,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="272" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
@@ -72029,7 +71852,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="273" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="1" t="s">
         <v>79</v>
       </c>
@@ -72043,7 +71866,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="274" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="1" t="s">
         <v>45</v>
       </c>
@@ -72627,7 +72450,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="275" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="1" t="s">
         <v>44</v>
       </c>
@@ -73379,7 +73202,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="276" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="1" t="s">
         <v>44</v>
       </c>
@@ -74131,7 +73954,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="277" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="1" t="s">
         <v>44</v>
       </c>
@@ -74883,7 +74706,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="278" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="1" t="s">
         <v>91</v>
       </c>
@@ -74894,7 +74717,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="279" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="1" t="s">
         <v>44</v>
       </c>
@@ -74902,7 +74725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="1" t="s">
         <v>75</v>
       </c>
@@ -74910,7 +74733,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="1" t="s">
         <v>44</v>
       </c>
@@ -75662,7 +75485,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="282" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="1" t="s">
         <v>44</v>
       </c>
@@ -76414,7 +76237,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="283" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="1" t="s">
         <v>44</v>
       </c>
@@ -77166,7 +76989,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="284" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="1" t="s">
         <v>44</v>
       </c>
@@ -77174,7 +76997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="285" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="1" t="s">
         <v>75</v>
       </c>
@@ -77182,7 +77005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="286" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="1" t="s">
         <v>44</v>
       </c>
@@ -77934,7 +77757,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="287" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:250" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="1" t="s">
         <v>44</v>
       </c>
